--- a/src/com/data/Test Cases Elv.xlsx
+++ b/src/com/data/Test Cases Elv.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="286">
   <si>
     <t>TCID</t>
   </si>
@@ -843,6 +843,36 @@
   </si>
   <si>
     <t xml:space="preserve">Moving Walk ::  No  ::  No </t>
+  </si>
+  <si>
+    <t>ElevPersonnelHoist</t>
+  </si>
+  <si>
+    <t>Elevators :: 1 :: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElevPersonnel Hoist ::  AC  ::  DC  ::  Resistance  ::  Automatic P.B. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElevPersonnel Hoist ::  Governor  ::  Governor  ::  Door  ::  Horizontal  ::  Manual </t>
+  </si>
+  <si>
+    <t>ElevPersonnel Hoist :: Dual :: Inside :: Non-Counterweight</t>
+  </si>
+  <si>
+    <t>ElevPersonnel Hoist ::  Screw  ::  Tension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElevPersonnel Hoist ::  Door  ::  Horizontal  ::  Locks &amp; Contacts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElevPersonnel Hoist ::  No  ::  No </t>
+  </si>
+  <si>
+    <t>Elevator New Personnel Hoist</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2254,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -2330,17 +2360,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" s="2" customFormat="1">
       <c r="A12" s="34" t="s">
-        <v>212</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B12" s="33"/>
       <c r="C12" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="34" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>3</v>
@@ -2348,15 +2379,16 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="34" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="34" t="s">
+        <v>226</v>
+      </c>
       <c r="C15" s="31" t="s">
         <v>3</v>
       </c>
@@ -2369,13 +2401,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1">
-      <c r="B17" s="33"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1">
-      <c r="A18" s="34"/>
       <c r="B18" s="33"/>
       <c r="C18" s="31" t="s">
         <v>3</v>
@@ -2473,11 +2505,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB105"/>
+  <dimension ref="A1:EB113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -2712,7 +2744,7 @@
     </row>
     <row r="3" spans="1:132" s="8" customFormat="1">
       <c r="A3" s="34" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2804,7 +2836,7 @@
         <v>164</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>168</v>
@@ -2953,15 +2985,15 @@
       <c r="EA4" s="16"/>
       <c r="EB4" s="36"/>
     </row>
-    <row r="5" spans="1:132" s="5" customFormat="1" ht="38.25">
+    <row r="5" spans="1:132" s="5" customFormat="1" ht="25.5">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>163</v>
@@ -2970,22 +3002,22 @@
         <v>161</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>177</v>
@@ -5427,7 +5459,7 @@
     </row>
     <row r="35" spans="1:132" s="8" customFormat="1">
       <c r="A35" s="34" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5519,7 +5551,7 @@
         <v>164</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="I36" s="38" t="s">
         <v>168</v>
@@ -5668,42 +5700,39 @@
       <c r="EA36" s="16"/>
       <c r="EB36" s="36"/>
     </row>
-    <row r="37" spans="1:132" s="5" customFormat="1" ht="38.25">
+    <row r="37" spans="1:132" s="5" customFormat="1" ht="25.5">
       <c r="A37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F37" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>177</v>
@@ -5803,7 +5832,7 @@
     </row>
     <row r="39" spans="1:132" s="8" customFormat="1">
       <c r="A39" s="34" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -6044,27 +6073,27 @@
       <c r="EA40" s="16"/>
       <c r="EB40" s="36"/>
     </row>
-    <row r="41" spans="1:132" s="5" customFormat="1" ht="51">
+    <row r="41" spans="1:132" s="5" customFormat="1" ht="38.25">
       <c r="A41" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>166</v>
@@ -6097,10 +6126,10 @@
         <v>178</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
@@ -6179,7 +6208,7 @@
     </row>
     <row r="43" spans="1:132" s="8" customFormat="1">
       <c r="A43" s="34" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -6304,14 +6333,10 @@
         <v>183</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="T44" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="U44" s="36" t="s">
-        <v>209</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="T44" s="38"/>
+      <c r="U44" s="36"/>
       <c r="V44" s="36"/>
       <c r="W44" s="36"/>
       <c r="X44" s="36"/>
@@ -6424,27 +6449,27 @@
       <c r="EA44" s="16"/>
       <c r="EB44" s="36"/>
     </row>
-    <row r="45" spans="1:132" s="5" customFormat="1" ht="38.25">
+    <row r="45" spans="1:132" s="5" customFormat="1" ht="51">
       <c r="A45" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>166</v>
@@ -6477,13 +6502,10 @@
         <v>178</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S45" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
@@ -6558,11 +6580,11 @@
       <c r="EB45" s="4"/>
     </row>
     <row r="46" spans="1:132">
-      <c r="A46" s="12"/>
+      <c r="A46" s="28"/>
     </row>
     <row r="47" spans="1:132" s="8" customFormat="1">
       <c r="A47" s="34" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -6687,14 +6709,10 @@
         <v>183</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="T48" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="U48" s="36" t="s">
-        <v>209</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="T48" s="38"/>
+      <c r="U48" s="36"/>
       <c r="V48" s="36"/>
       <c r="W48" s="36"/>
       <c r="X48" s="36"/>
@@ -6807,42 +6825,39 @@
       <c r="EA48" s="16"/>
       <c r="EB48" s="36"/>
     </row>
-    <row r="49" spans="1:132" s="5" customFormat="1" ht="38.25">
+    <row r="49" spans="1:132" s="5" customFormat="1" ht="25.5">
       <c r="A49" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>177</v>
@@ -6862,11 +6877,8 @@
       <c r="R49" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S49" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>218</v>
+      <c r="S49" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
@@ -6941,11 +6953,11 @@
       <c r="EB49" s="4"/>
     </row>
     <row r="50" spans="1:132">
-      <c r="A50" s="12"/>
+      <c r="A50" s="28"/>
     </row>
     <row r="51" spans="1:132" s="8" customFormat="1">
       <c r="A51" s="34" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -7076,11 +7088,9 @@
         <v>207</v>
       </c>
       <c r="U52" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="V52" s="36" t="s">
-        <v>230</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="V52" s="36"/>
       <c r="W52" s="36"/>
       <c r="X52" s="36"/>
       <c r="Y52" s="36"/>
@@ -7197,10 +7207,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>198</v>
@@ -7212,7 +7222,7 @@
         <v>161</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>166</v>
@@ -7248,17 +7258,13 @@
         <v>224</v>
       </c>
       <c r="S53" s="37" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="T53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="V53" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -7332,10 +7338,76 @@
     <row r="54" spans="1:132">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:132">
+    <row r="55" spans="1:132" s="8" customFormat="1">
       <c r="A55" s="34" t="s">
-        <v>204</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7"/>
+      <c r="AW55" s="7"/>
+      <c r="AX55" s="7"/>
+      <c r="AY55" s="7"/>
+      <c r="AZ55" s="7"/>
+      <c r="BA55" s="7"/>
+      <c r="BB55" s="7"/>
+      <c r="BC55" s="7"/>
+      <c r="BD55" s="7"/>
+      <c r="BE55" s="7"/>
+      <c r="BF55" s="7"/>
+      <c r="BG55" s="7"/>
+      <c r="BH55" s="7"/>
+      <c r="BI55" s="7"/>
+      <c r="BJ55" s="7"/>
+      <c r="BK55" s="7"/>
+      <c r="BM55" s="7"/>
+      <c r="BN55" s="7"/>
+      <c r="BO55" s="7"/>
+      <c r="BP55" s="7"/>
+      <c r="BQ55" s="7"/>
+      <c r="BR55" s="7"/>
+      <c r="BS55" s="7"/>
+      <c r="BT55" s="7"/>
+      <c r="BV55" s="7"/>
+      <c r="BX55" s="7"/>
+      <c r="BY55" s="7"/>
+      <c r="BZ55" s="7"/>
+      <c r="CA55" s="7"/>
+      <c r="CB55" s="7"/>
+      <c r="CL55" s="7"/>
+      <c r="CN55" s="7"/>
+      <c r="CO55" s="7"/>
+      <c r="CP55" s="7"/>
+      <c r="CQ55" s="7"/>
+      <c r="CR55" s="7"/>
+      <c r="CS55" s="7"/>
+      <c r="CT55" s="7"/>
+      <c r="CU55" s="7"/>
     </row>
     <row r="56" spans="1:132" s="10" customFormat="1">
       <c r="A56" s="16" t="s">
@@ -7399,7 +7471,7 @@
         <v>207</v>
       </c>
       <c r="U56" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V56" s="36"/>
       <c r="W56" s="36"/>
@@ -7518,13 +7590,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>162</v>
@@ -7533,7 +7605,7 @@
         <v>161</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>166</v>
@@ -7569,20 +7641,14 @@
         <v>224</v>
       </c>
       <c r="S57" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="U57" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="V57" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>147</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="36"/>
@@ -7655,4311 +7721,4317 @@
     <row r="58" spans="1:132">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:132">
-      <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:132">
-      <c r="A60" s="28"/>
-    </row>
-    <row r="61" spans="1:132">
-      <c r="A61" s="12"/>
-    </row>
-    <row r="62" spans="1:132" s="25" customFormat="1">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="24"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="22"/>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="24"/>
-      <c r="AO62" s="24"/>
-      <c r="AP62" s="24"/>
-      <c r="AQ62" s="24"/>
-      <c r="AR62" s="24"/>
-      <c r="AS62" s="24"/>
-      <c r="AT62" s="24"/>
-      <c r="AU62" s="24"/>
-      <c r="AV62" s="24"/>
-      <c r="AW62" s="24"/>
-      <c r="AX62" s="24"/>
-      <c r="AY62" s="24"/>
-      <c r="AZ62" s="24"/>
-      <c r="BA62" s="24"/>
-      <c r="BB62" s="24"/>
-      <c r="BC62" s="24"/>
-      <c r="BD62" s="24"/>
-      <c r="BE62" s="24"/>
-      <c r="BF62" s="24"/>
-      <c r="BG62" s="24"/>
-      <c r="BH62" s="24"/>
-      <c r="BI62" s="24"/>
-      <c r="BJ62" s="24"/>
-      <c r="BK62" s="24"/>
-      <c r="BM62" s="22"/>
-      <c r="BN62" s="22"/>
-      <c r="BO62" s="22"/>
-      <c r="BP62" s="22"/>
-      <c r="BQ62" s="22"/>
-      <c r="BR62" s="22"/>
-      <c r="BS62" s="24"/>
-      <c r="BT62" s="22"/>
-      <c r="BV62" s="22"/>
-      <c r="BW62" s="22"/>
-      <c r="BX62" s="24"/>
-      <c r="BY62" s="22"/>
-      <c r="BZ62" s="22"/>
-      <c r="CA62" s="22"/>
-      <c r="CB62" s="22"/>
-      <c r="CC62" s="22"/>
-      <c r="CD62" s="22"/>
-      <c r="CE62" s="22"/>
-      <c r="CF62" s="24"/>
-      <c r="CG62" s="24"/>
-      <c r="CH62" s="24"/>
-      <c r="CI62" s="22"/>
-      <c r="CJ62" s="22"/>
-      <c r="CK62" s="22"/>
-      <c r="CL62" s="22"/>
-      <c r="CM62" s="22"/>
-      <c r="CN62" s="22"/>
-      <c r="CO62" s="22"/>
-      <c r="CP62" s="22"/>
-      <c r="CQ62" s="22"/>
-      <c r="CR62" s="22"/>
-      <c r="CS62" s="22"/>
-      <c r="CT62" s="24"/>
-      <c r="CU62" s="24"/>
-    </row>
-    <row r="63" spans="1:132" s="25" customFormat="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="24"/>
-      <c r="AP63" s="24"/>
-      <c r="AQ63" s="24"/>
-      <c r="AR63" s="24"/>
-      <c r="AS63" s="24"/>
-      <c r="AT63" s="24"/>
-      <c r="AU63" s="24"/>
-      <c r="AV63" s="24"/>
-      <c r="AW63" s="24"/>
-      <c r="AX63" s="24"/>
-      <c r="AY63" s="24"/>
-      <c r="AZ63" s="24"/>
-      <c r="BA63" s="24"/>
-      <c r="BB63" s="24"/>
-      <c r="BC63" s="24"/>
-      <c r="BD63" s="24"/>
-      <c r="BE63" s="24"/>
-      <c r="BF63" s="24"/>
-      <c r="BG63" s="24"/>
-      <c r="BH63" s="24"/>
-      <c r="BI63" s="24"/>
-      <c r="BJ63" s="24"/>
-      <c r="BK63" s="24"/>
-      <c r="BM63" s="22"/>
-      <c r="BN63" s="22"/>
-      <c r="BO63" s="22"/>
-      <c r="BP63" s="22"/>
-      <c r="BQ63" s="22"/>
-      <c r="BR63" s="22"/>
-      <c r="BS63" s="24"/>
-      <c r="BT63" s="22"/>
-      <c r="BV63" s="22"/>
-      <c r="BW63" s="22"/>
-      <c r="BX63" s="24"/>
-      <c r="BY63" s="22"/>
-      <c r="BZ63" s="22"/>
-      <c r="CA63" s="22"/>
-      <c r="CB63" s="22"/>
-      <c r="CC63" s="22"/>
-      <c r="CD63" s="22"/>
-      <c r="CE63" s="22"/>
-      <c r="CF63" s="24"/>
-      <c r="CG63" s="24"/>
-      <c r="CH63" s="24"/>
-      <c r="CI63" s="22"/>
-      <c r="CJ63" s="22"/>
-      <c r="CK63" s="22"/>
-      <c r="CL63" s="22"/>
-      <c r="CM63" s="22"/>
-      <c r="CN63" s="22"/>
-      <c r="CO63" s="22"/>
-      <c r="CP63" s="22"/>
-      <c r="CQ63" s="22"/>
-      <c r="CR63" s="22"/>
-      <c r="CS63" s="22"/>
-      <c r="CT63" s="24"/>
-      <c r="CU63" s="24"/>
-    </row>
-    <row r="64" spans="1:132" s="25" customFormat="1">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
-      <c r="AQ64" s="24"/>
-      <c r="AR64" s="24"/>
-      <c r="AS64" s="24"/>
-      <c r="AT64" s="24"/>
-      <c r="AU64" s="24"/>
-      <c r="AV64" s="24"/>
-      <c r="AW64" s="24"/>
-      <c r="AX64" s="24"/>
-      <c r="AY64" s="24"/>
-      <c r="AZ64" s="24"/>
-      <c r="BA64" s="24"/>
-      <c r="BB64" s="24"/>
-      <c r="BC64" s="24"/>
-      <c r="BD64" s="24"/>
-      <c r="BE64" s="24"/>
-      <c r="BF64" s="24"/>
-      <c r="BG64" s="24"/>
-      <c r="BH64" s="24"/>
-      <c r="BI64" s="24"/>
-      <c r="BJ64" s="24"/>
-      <c r="BK64" s="24"/>
-      <c r="BM64" s="22"/>
-      <c r="BN64" s="22"/>
-      <c r="BO64" s="22"/>
-      <c r="BP64" s="22"/>
-      <c r="BQ64" s="22"/>
-      <c r="BR64" s="22"/>
-      <c r="BS64" s="24"/>
-      <c r="BT64" s="22"/>
-      <c r="BV64" s="22"/>
-      <c r="BW64" s="22"/>
-      <c r="BX64" s="24"/>
-      <c r="BY64" s="22"/>
-      <c r="BZ64" s="22"/>
-      <c r="CA64" s="22"/>
-      <c r="CB64" s="22"/>
-      <c r="CC64" s="22"/>
-      <c r="CD64" s="22"/>
-      <c r="CE64" s="22"/>
-      <c r="CF64" s="24"/>
-      <c r="CG64" s="24"/>
-      <c r="CH64" s="24"/>
-      <c r="CI64" s="22"/>
-      <c r="CJ64" s="22"/>
-      <c r="CK64" s="22"/>
-      <c r="CL64" s="22"/>
-      <c r="CM64" s="22"/>
-      <c r="CN64" s="22"/>
-      <c r="CO64" s="22"/>
-      <c r="CP64" s="22"/>
-      <c r="CQ64" s="22"/>
-      <c r="CR64" s="22"/>
-      <c r="CS64" s="22"/>
-      <c r="CT64" s="24"/>
-      <c r="CU64" s="24"/>
-    </row>
-    <row r="65" spans="1:132" s="8" customFormat="1">
-      <c r="A65" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-      <c r="AG65" s="7"/>
-      <c r="AH65" s="7"/>
-      <c r="AI65" s="7"/>
-      <c r="AJ65" s="7"/>
-      <c r="AK65" s="7"/>
-      <c r="AL65" s="7"/>
-      <c r="AM65" s="7"/>
-      <c r="AN65" s="7"/>
-      <c r="AO65" s="7"/>
-      <c r="AP65" s="7"/>
-      <c r="AQ65" s="7"/>
-      <c r="AR65" s="7"/>
-      <c r="AS65" s="7"/>
-      <c r="AT65" s="7"/>
-      <c r="AU65" s="7"/>
-      <c r="AV65" s="7"/>
-      <c r="AW65" s="7"/>
-      <c r="AX65" s="7"/>
-      <c r="AY65" s="7"/>
-      <c r="AZ65" s="7"/>
-      <c r="BA65" s="7"/>
-      <c r="BB65" s="7"/>
-      <c r="BC65" s="7"/>
-      <c r="BD65" s="7"/>
-      <c r="BE65" s="7"/>
-      <c r="BF65" s="7"/>
-      <c r="BG65" s="7"/>
-      <c r="BH65" s="7"/>
-      <c r="BI65" s="7"/>
-      <c r="BJ65" s="7"/>
-      <c r="BK65" s="7"/>
-      <c r="BM65" s="7"/>
-      <c r="BN65" s="7"/>
-      <c r="BO65" s="7"/>
-      <c r="BP65" s="7"/>
-      <c r="BQ65" s="7"/>
-      <c r="BR65" s="7"/>
-      <c r="BS65" s="7"/>
-      <c r="BT65" s="7"/>
-      <c r="BV65" s="7"/>
-      <c r="BX65" s="7"/>
-      <c r="BY65" s="7"/>
-      <c r="BZ65" s="7"/>
-      <c r="CA65" s="7"/>
-      <c r="CB65" s="7"/>
-      <c r="CL65" s="7"/>
-      <c r="CN65" s="7"/>
-      <c r="CO65" s="7"/>
-      <c r="CP65" s="7"/>
-      <c r="CQ65" s="7"/>
-      <c r="CR65" s="7"/>
-      <c r="CS65" s="7"/>
-      <c r="CT65" s="7"/>
-      <c r="CU65" s="7"/>
-    </row>
-    <row r="66" spans="1:132" s="10" customFormat="1">
-      <c r="A66" s="16" t="s">
+    <row r="59" spans="1:132" s="8" customFormat="1">
+      <c r="A59" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7"/>
+      <c r="AW59" s="7"/>
+      <c r="AX59" s="7"/>
+      <c r="AY59" s="7"/>
+      <c r="AZ59" s="7"/>
+      <c r="BA59" s="7"/>
+      <c r="BB59" s="7"/>
+      <c r="BC59" s="7"/>
+      <c r="BD59" s="7"/>
+      <c r="BE59" s="7"/>
+      <c r="BF59" s="7"/>
+      <c r="BG59" s="7"/>
+      <c r="BH59" s="7"/>
+      <c r="BI59" s="7"/>
+      <c r="BJ59" s="7"/>
+      <c r="BK59" s="7"/>
+      <c r="BM59" s="7"/>
+      <c r="BN59" s="7"/>
+      <c r="BO59" s="7"/>
+      <c r="BP59" s="7"/>
+      <c r="BQ59" s="7"/>
+      <c r="BR59" s="7"/>
+      <c r="BS59" s="7"/>
+      <c r="BT59" s="7"/>
+      <c r="BV59" s="7"/>
+      <c r="BX59" s="7"/>
+      <c r="BY59" s="7"/>
+      <c r="BZ59" s="7"/>
+      <c r="CA59" s="7"/>
+      <c r="CB59" s="7"/>
+      <c r="CL59" s="7"/>
+      <c r="CN59" s="7"/>
+      <c r="CO59" s="7"/>
+      <c r="CP59" s="7"/>
+      <c r="CQ59" s="7"/>
+      <c r="CR59" s="7"/>
+      <c r="CS59" s="7"/>
+      <c r="CT59" s="7"/>
+      <c r="CU59" s="7"/>
+    </row>
+    <row r="60" spans="1:132" s="10" customFormat="1">
+      <c r="A60" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C60" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D60" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F60" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G60" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H60" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I60" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K60" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="L66" s="14" t="s">
+      <c r="L60" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="M66" s="14" t="s">
+      <c r="M60" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="N66" s="14" t="s">
+      <c r="N60" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O66" s="14" t="s">
+      <c r="O60" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P66" s="14" t="s">
+      <c r="P60" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q66" s="14" t="s">
+      <c r="Q60" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="R66" s="14" t="s">
+      <c r="R60" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="17"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="17"/>
-      <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="6"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="17"/>
-      <c r="AS66" s="6"/>
-      <c r="AT66" s="6"/>
-      <c r="AU66" s="6"/>
-      <c r="AV66" s="17"/>
-      <c r="AW66" s="17"/>
-      <c r="AX66" s="6"/>
-      <c r="AY66" s="6"/>
-      <c r="AZ66" s="6"/>
-      <c r="BA66" s="17"/>
-      <c r="BB66" s="17"/>
-      <c r="BC66" s="17"/>
-      <c r="BD66" s="17"/>
-      <c r="BE66" s="6"/>
-      <c r="BF66" s="6"/>
-      <c r="BG66" s="6"/>
-      <c r="BH66" s="6"/>
-      <c r="BI66" s="17"/>
-      <c r="BJ66" s="17"/>
-      <c r="BK66" s="6"/>
-      <c r="BL66" s="14"/>
-      <c r="BM66" s="15"/>
-      <c r="BN66" s="15"/>
-      <c r="BO66" s="15"/>
-      <c r="BP66" s="15"/>
-      <c r="BQ66" s="15"/>
-      <c r="BR66" s="15"/>
-      <c r="BS66" s="6"/>
-      <c r="BT66" s="15"/>
-      <c r="BU66" s="14"/>
-      <c r="BV66" s="15"/>
-      <c r="BW66" s="16"/>
-      <c r="BX66" s="6"/>
-      <c r="BY66" s="15"/>
-      <c r="BZ66" s="15"/>
-      <c r="CA66" s="15"/>
-      <c r="CB66" s="16"/>
-      <c r="CC66" s="14"/>
-      <c r="CD66" s="14"/>
-      <c r="CE66" s="16"/>
-      <c r="CF66" s="17"/>
-      <c r="CG66" s="17"/>
-      <c r="CH66" s="17"/>
-      <c r="CI66" s="16"/>
-      <c r="CJ66" s="16"/>
-      <c r="CK66" s="16"/>
-      <c r="CL66" s="16"/>
-      <c r="CM66" s="16"/>
-      <c r="CN66" s="16"/>
-      <c r="CO66" s="16"/>
-      <c r="CP66" s="15"/>
-      <c r="CQ66" s="16"/>
-      <c r="CR66" s="16"/>
-      <c r="CS66" s="16"/>
-      <c r="CT66" s="6"/>
-      <c r="CU66" s="17"/>
-      <c r="CV66" s="14"/>
-      <c r="CW66" s="6"/>
-      <c r="CX66" s="14"/>
-      <c r="CY66" s="15"/>
-      <c r="CZ66" s="14"/>
-      <c r="DA66" s="14"/>
-      <c r="DB66" s="14"/>
-      <c r="DC66" s="6"/>
-      <c r="DD66" s="14"/>
-      <c r="DE66" s="14"/>
-      <c r="DF66" s="6"/>
-      <c r="DG66" s="6"/>
-      <c r="DH66" s="6"/>
-      <c r="DI66" s="6"/>
-      <c r="DJ66" s="6"/>
-      <c r="DK66" s="14"/>
-      <c r="DL66" s="14"/>
-      <c r="DM66" s="14"/>
-      <c r="DN66" s="6"/>
-      <c r="DO66" s="6"/>
-      <c r="DP66" s="14"/>
-      <c r="DQ66" s="14"/>
-      <c r="DR66" s="6"/>
-      <c r="DS66" s="6"/>
-      <c r="DT66" s="15"/>
-      <c r="DU66" s="15"/>
-      <c r="DV66" s="16"/>
-      <c r="DW66" s="6"/>
-      <c r="DX66" s="14"/>
-      <c r="DY66" s="15"/>
-      <c r="DZ66" s="16"/>
-      <c r="EA66" s="16"/>
-      <c r="EB66" s="6"/>
-    </row>
-    <row r="67" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A67" s="26" t="s">
+      <c r="S60" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="T60" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="U60" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="36"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="38"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="36"/>
+      <c r="AO60" s="36"/>
+      <c r="AP60" s="36"/>
+      <c r="AQ60" s="36"/>
+      <c r="AR60" s="17"/>
+      <c r="AS60" s="36"/>
+      <c r="AT60" s="36"/>
+      <c r="AU60" s="36"/>
+      <c r="AV60" s="17"/>
+      <c r="AW60" s="17"/>
+      <c r="AX60" s="36"/>
+      <c r="AY60" s="36"/>
+      <c r="AZ60" s="36"/>
+      <c r="BA60" s="17"/>
+      <c r="BB60" s="17"/>
+      <c r="BC60" s="17"/>
+      <c r="BD60" s="17"/>
+      <c r="BE60" s="36"/>
+      <c r="BF60" s="36"/>
+      <c r="BG60" s="36"/>
+      <c r="BH60" s="36"/>
+      <c r="BI60" s="17"/>
+      <c r="BJ60" s="17"/>
+      <c r="BK60" s="36"/>
+      <c r="BL60" s="38"/>
+      <c r="BM60" s="15"/>
+      <c r="BN60" s="15"/>
+      <c r="BO60" s="15"/>
+      <c r="BP60" s="15"/>
+      <c r="BQ60" s="15"/>
+      <c r="BR60" s="15"/>
+      <c r="BS60" s="36"/>
+      <c r="BT60" s="15"/>
+      <c r="BU60" s="38"/>
+      <c r="BV60" s="15"/>
+      <c r="BW60" s="16"/>
+      <c r="BX60" s="36"/>
+      <c r="BY60" s="15"/>
+      <c r="BZ60" s="15"/>
+      <c r="CA60" s="15"/>
+      <c r="CB60" s="16"/>
+      <c r="CC60" s="38"/>
+      <c r="CD60" s="38"/>
+      <c r="CE60" s="16"/>
+      <c r="CF60" s="17"/>
+      <c r="CG60" s="17"/>
+      <c r="CH60" s="17"/>
+      <c r="CI60" s="16"/>
+      <c r="CJ60" s="16"/>
+      <c r="CK60" s="16"/>
+      <c r="CL60" s="16"/>
+      <c r="CM60" s="16"/>
+      <c r="CN60" s="16"/>
+      <c r="CO60" s="16"/>
+      <c r="CP60" s="15"/>
+      <c r="CQ60" s="16"/>
+      <c r="CR60" s="16"/>
+      <c r="CS60" s="16"/>
+      <c r="CT60" s="36"/>
+      <c r="CU60" s="17"/>
+      <c r="CV60" s="38"/>
+      <c r="CW60" s="36"/>
+      <c r="CX60" s="38"/>
+      <c r="CY60" s="15"/>
+      <c r="CZ60" s="38"/>
+      <c r="DA60" s="38"/>
+      <c r="DB60" s="38"/>
+      <c r="DC60" s="36"/>
+      <c r="DD60" s="38"/>
+      <c r="DE60" s="38"/>
+      <c r="DF60" s="36"/>
+      <c r="DG60" s="36"/>
+      <c r="DH60" s="36"/>
+      <c r="DI60" s="36"/>
+      <c r="DJ60" s="36"/>
+      <c r="DK60" s="38"/>
+      <c r="DL60" s="38"/>
+      <c r="DM60" s="38"/>
+      <c r="DN60" s="36"/>
+      <c r="DO60" s="36"/>
+      <c r="DP60" s="38"/>
+      <c r="DQ60" s="38"/>
+      <c r="DR60" s="36"/>
+      <c r="DS60" s="36"/>
+      <c r="DT60" s="15"/>
+      <c r="DU60" s="15"/>
+      <c r="DV60" s="16"/>
+      <c r="DW60" s="36"/>
+      <c r="DX60" s="38"/>
+      <c r="DY60" s="15"/>
+      <c r="DZ60" s="16"/>
+      <c r="EA60" s="16"/>
+      <c r="EB60" s="36"/>
+    </row>
+    <row r="61" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A61" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="B61" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="S61" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="U61" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="V61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="36"/>
+      <c r="AH61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="13"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="13"/>
+      <c r="AU61" s="13"/>
+      <c r="AV61" s="13"/>
+      <c r="AW61" s="13"/>
+      <c r="AX61" s="13"/>
+      <c r="AY61" s="13"/>
+      <c r="AZ61" s="13"/>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="13"/>
+      <c r="BC61" s="13"/>
+      <c r="BD61" s="13"/>
+      <c r="BE61" s="13"/>
+      <c r="BF61" s="13"/>
+      <c r="BG61" s="13"/>
+      <c r="BH61" s="13"/>
+      <c r="BI61" s="13"/>
+      <c r="BJ61" s="13"/>
+      <c r="BK61" s="13"/>
+      <c r="BM61" s="4"/>
+      <c r="BN61" s="4"/>
+      <c r="BO61" s="4"/>
+      <c r="BP61" s="4"/>
+      <c r="BQ61" s="4"/>
+      <c r="BR61" s="4"/>
+      <c r="BS61" s="13"/>
+      <c r="BT61" s="4"/>
+      <c r="BV61" s="4"/>
+      <c r="BX61" s="13"/>
+      <c r="BY61" s="4"/>
+      <c r="BZ61" s="4"/>
+      <c r="CA61" s="4"/>
+      <c r="CB61" s="20"/>
+      <c r="CC61" s="13"/>
+      <c r="CE61" s="20"/>
+      <c r="CF61" s="13"/>
+      <c r="CG61" s="13"/>
+      <c r="CH61" s="13"/>
+      <c r="CK61" s="4"/>
+      <c r="CL61" s="4"/>
+      <c r="CM61" s="4"/>
+      <c r="CN61" s="4"/>
+      <c r="CO61" s="4"/>
+      <c r="CP61" s="4"/>
+      <c r="CQ61" s="4"/>
+      <c r="CR61" s="4"/>
+      <c r="CS61" s="4"/>
+      <c r="CT61" s="4"/>
+      <c r="CU61" s="20"/>
+      <c r="DS61" s="4"/>
+      <c r="DT61" s="4"/>
+      <c r="DU61" s="4"/>
+      <c r="DV61" s="4"/>
+      <c r="DW61" s="4"/>
+      <c r="DX61" s="4"/>
+      <c r="DY61" s="4"/>
+      <c r="DZ61" s="4"/>
+      <c r="EA61" s="4"/>
+      <c r="EB61" s="4"/>
+    </row>
+    <row r="62" spans="1:132">
+      <c r="A62" s="12"/>
+    </row>
+    <row r="63" spans="1:132">
+      <c r="A63" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:132" s="10" customFormat="1">
+      <c r="A64" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="M64" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="N64" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="O64" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="R64" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="S64" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="T64" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="U64" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="17"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="38"/>
+      <c r="AL64" s="38"/>
+      <c r="AM64" s="17"/>
+      <c r="AN64" s="36"/>
+      <c r="AO64" s="36"/>
+      <c r="AP64" s="36"/>
+      <c r="AQ64" s="36"/>
+      <c r="AR64" s="17"/>
+      <c r="AS64" s="36"/>
+      <c r="AT64" s="36"/>
+      <c r="AU64" s="36"/>
+      <c r="AV64" s="17"/>
+      <c r="AW64" s="17"/>
+      <c r="AX64" s="36"/>
+      <c r="AY64" s="36"/>
+      <c r="AZ64" s="36"/>
+      <c r="BA64" s="17"/>
+      <c r="BB64" s="17"/>
+      <c r="BC64" s="17"/>
+      <c r="BD64" s="17"/>
+      <c r="BE64" s="36"/>
+      <c r="BF64" s="36"/>
+      <c r="BG64" s="36"/>
+      <c r="BH64" s="36"/>
+      <c r="BI64" s="17"/>
+      <c r="BJ64" s="17"/>
+      <c r="BK64" s="36"/>
+      <c r="BL64" s="38"/>
+      <c r="BM64" s="15"/>
+      <c r="BN64" s="15"/>
+      <c r="BO64" s="15"/>
+      <c r="BP64" s="15"/>
+      <c r="BQ64" s="15"/>
+      <c r="BR64" s="15"/>
+      <c r="BS64" s="36"/>
+      <c r="BT64" s="15"/>
+      <c r="BU64" s="38"/>
+      <c r="BV64" s="15"/>
+      <c r="BW64" s="16"/>
+      <c r="BX64" s="36"/>
+      <c r="BY64" s="15"/>
+      <c r="BZ64" s="15"/>
+      <c r="CA64" s="15"/>
+      <c r="CB64" s="16"/>
+      <c r="CC64" s="38"/>
+      <c r="CD64" s="38"/>
+      <c r="CE64" s="16"/>
+      <c r="CF64" s="17"/>
+      <c r="CG64" s="17"/>
+      <c r="CH64" s="17"/>
+      <c r="CI64" s="16"/>
+      <c r="CJ64" s="16"/>
+      <c r="CK64" s="16"/>
+      <c r="CL64" s="16"/>
+      <c r="CM64" s="16"/>
+      <c r="CN64" s="16"/>
+      <c r="CO64" s="16"/>
+      <c r="CP64" s="15"/>
+      <c r="CQ64" s="16"/>
+      <c r="CR64" s="16"/>
+      <c r="CS64" s="16"/>
+      <c r="CT64" s="36"/>
+      <c r="CU64" s="17"/>
+      <c r="CV64" s="38"/>
+      <c r="CW64" s="36"/>
+      <c r="CX64" s="38"/>
+      <c r="CY64" s="15"/>
+      <c r="CZ64" s="38"/>
+      <c r="DA64" s="38"/>
+      <c r="DB64" s="38"/>
+      <c r="DC64" s="36"/>
+      <c r="DD64" s="38"/>
+      <c r="DE64" s="38"/>
+      <c r="DF64" s="36"/>
+      <c r="DG64" s="36"/>
+      <c r="DH64" s="36"/>
+      <c r="DI64" s="36"/>
+      <c r="DJ64" s="36"/>
+      <c r="DK64" s="38"/>
+      <c r="DL64" s="38"/>
+      <c r="DM64" s="38"/>
+      <c r="DN64" s="36"/>
+      <c r="DO64" s="36"/>
+      <c r="DP64" s="38"/>
+      <c r="DQ64" s="38"/>
+      <c r="DR64" s="36"/>
+      <c r="DS64" s="36"/>
+      <c r="DT64" s="15"/>
+      <c r="DU64" s="15"/>
+      <c r="DV64" s="16"/>
+      <c r="DW64" s="36"/>
+      <c r="DX64" s="38"/>
+      <c r="DY64" s="15"/>
+      <c r="DZ64" s="16"/>
+      <c r="EA64" s="16"/>
+      <c r="EB64" s="36"/>
+    </row>
+    <row r="65" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A65" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F65" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H67" s="5" t="s">
+      <c r="G65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="I65" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K65" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L65" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M65" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N67" s="13" t="s">
+      <c r="N65" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O67" s="5" t="s">
+      <c r="O65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P65" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="Q65" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="R65" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="6"/>
-      <c r="AH67" s="13"/>
-      <c r="AJ67" s="13"/>
-      <c r="AN67" s="13"/>
-      <c r="AO67" s="13"/>
-      <c r="AP67" s="13"/>
-      <c r="AR67" s="13"/>
-      <c r="AS67" s="13"/>
-      <c r="AT67" s="13"/>
-      <c r="AU67" s="13"/>
-      <c r="AV67" s="13"/>
-      <c r="AW67" s="13"/>
-      <c r="AX67" s="13"/>
-      <c r="AY67" s="13"/>
-      <c r="AZ67" s="13"/>
-      <c r="BA67" s="13"/>
-      <c r="BB67" s="13"/>
-      <c r="BC67" s="13"/>
-      <c r="BD67" s="13"/>
-      <c r="BE67" s="13"/>
-      <c r="BF67" s="13"/>
-      <c r="BG67" s="13"/>
-      <c r="BH67" s="13"/>
-      <c r="BI67" s="13"/>
-      <c r="BJ67" s="13"/>
-      <c r="BK67" s="13"/>
-      <c r="BM67" s="4"/>
-      <c r="BN67" s="4"/>
-      <c r="BO67" s="4"/>
-      <c r="BP67" s="4"/>
-      <c r="BQ67" s="4"/>
-      <c r="BR67" s="4"/>
-      <c r="BS67" s="13"/>
-      <c r="BT67" s="4"/>
-      <c r="BV67" s="4"/>
-      <c r="BX67" s="13"/>
-      <c r="BY67" s="4"/>
-      <c r="BZ67" s="4"/>
-      <c r="CA67" s="4"/>
-      <c r="CB67" s="20"/>
-      <c r="CC67" s="13"/>
-      <c r="CE67" s="20"/>
-      <c r="CF67" s="13"/>
-      <c r="CG67" s="13"/>
-      <c r="CH67" s="13"/>
-      <c r="CK67" s="4"/>
-      <c r="CL67" s="4"/>
-      <c r="CM67" s="4"/>
-      <c r="CN67" s="4"/>
-      <c r="CO67" s="4"/>
-      <c r="CP67" s="4"/>
-      <c r="CQ67" s="4"/>
-      <c r="CR67" s="4"/>
-      <c r="CS67" s="4"/>
-      <c r="CT67" s="4"/>
-      <c r="CU67" s="20"/>
-      <c r="DS67" s="4"/>
-      <c r="DT67" s="4"/>
-      <c r="DU67" s="4"/>
-      <c r="DV67" s="4"/>
-      <c r="DW67" s="4"/>
-      <c r="DX67" s="4"/>
-      <c r="DY67" s="4"/>
-      <c r="DZ67" s="4"/>
-      <c r="EA67" s="4"/>
-      <c r="EB67" s="4"/>
+      <c r="S65" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="U65" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="36"/>
+      <c r="AH65" s="13"/>
+      <c r="AJ65" s="13"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="13"/>
+      <c r="AP65" s="13"/>
+      <c r="AR65" s="13"/>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="13"/>
+      <c r="AU65" s="13"/>
+      <c r="AV65" s="13"/>
+      <c r="AW65" s="13"/>
+      <c r="AX65" s="13"/>
+      <c r="AY65" s="13"/>
+      <c r="AZ65" s="13"/>
+      <c r="BA65" s="13"/>
+      <c r="BB65" s="13"/>
+      <c r="BC65" s="13"/>
+      <c r="BD65" s="13"/>
+      <c r="BE65" s="13"/>
+      <c r="BF65" s="13"/>
+      <c r="BG65" s="13"/>
+      <c r="BH65" s="13"/>
+      <c r="BI65" s="13"/>
+      <c r="BJ65" s="13"/>
+      <c r="BK65" s="13"/>
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="4"/>
+      <c r="BO65" s="4"/>
+      <c r="BP65" s="4"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+      <c r="BS65" s="13"/>
+      <c r="BT65" s="4"/>
+      <c r="BV65" s="4"/>
+      <c r="BX65" s="13"/>
+      <c r="BY65" s="4"/>
+      <c r="BZ65" s="4"/>
+      <c r="CA65" s="4"/>
+      <c r="CB65" s="20"/>
+      <c r="CC65" s="13"/>
+      <c r="CE65" s="20"/>
+      <c r="CF65" s="13"/>
+      <c r="CG65" s="13"/>
+      <c r="CH65" s="13"/>
+      <c r="CK65" s="4"/>
+      <c r="CL65" s="4"/>
+      <c r="CM65" s="4"/>
+      <c r="CN65" s="4"/>
+      <c r="CO65" s="4"/>
+      <c r="CP65" s="4"/>
+      <c r="CQ65" s="4"/>
+      <c r="CR65" s="4"/>
+      <c r="CS65" s="4"/>
+      <c r="CT65" s="4"/>
+      <c r="CU65" s="20"/>
+      <c r="DS65" s="4"/>
+      <c r="DT65" s="4"/>
+      <c r="DU65" s="4"/>
+      <c r="DV65" s="4"/>
+      <c r="DW65" s="4"/>
+      <c r="DX65" s="4"/>
+      <c r="DY65" s="4"/>
+      <c r="DZ65" s="4"/>
+      <c r="EA65" s="4"/>
+      <c r="EB65" s="4"/>
+    </row>
+    <row r="66" spans="1:132">
+      <c r="A66" s="12"/>
+    </row>
+    <row r="67" spans="1:132">
+      <c r="A67" s="12"/>
     </row>
     <row r="68" spans="1:132">
       <c r="A68" s="28"/>
     </row>
-    <row r="69" spans="1:132" s="8" customFormat="1">
-      <c r="A69" s="34" t="s">
+    <row r="69" spans="1:132">
+      <c r="A69" s="12"/>
+    </row>
+    <row r="70" spans="1:132" s="25" customFormat="1">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="22"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="22"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="24"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="22"/>
+      <c r="AL70" s="22"/>
+      <c r="AM70" s="24"/>
+      <c r="AN70" s="24"/>
+      <c r="AO70" s="24"/>
+      <c r="AP70" s="24"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="24"/>
+      <c r="AT70" s="24"/>
+      <c r="AU70" s="24"/>
+      <c r="AV70" s="24"/>
+      <c r="AW70" s="24"/>
+      <c r="AX70" s="24"/>
+      <c r="AY70" s="24"/>
+      <c r="AZ70" s="24"/>
+      <c r="BA70" s="24"/>
+      <c r="BB70" s="24"/>
+      <c r="BC70" s="24"/>
+      <c r="BD70" s="24"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="24"/>
+      <c r="BG70" s="24"/>
+      <c r="BH70" s="24"/>
+      <c r="BI70" s="24"/>
+      <c r="BJ70" s="24"/>
+      <c r="BK70" s="24"/>
+      <c r="BM70" s="22"/>
+      <c r="BN70" s="22"/>
+      <c r="BO70" s="22"/>
+      <c r="BP70" s="22"/>
+      <c r="BQ70" s="22"/>
+      <c r="BR70" s="22"/>
+      <c r="BS70" s="24"/>
+      <c r="BT70" s="22"/>
+      <c r="BV70" s="22"/>
+      <c r="BW70" s="22"/>
+      <c r="BX70" s="24"/>
+      <c r="BY70" s="22"/>
+      <c r="BZ70" s="22"/>
+      <c r="CA70" s="22"/>
+      <c r="CB70" s="22"/>
+      <c r="CC70" s="22"/>
+      <c r="CD70" s="22"/>
+      <c r="CE70" s="22"/>
+      <c r="CF70" s="24"/>
+      <c r="CG70" s="24"/>
+      <c r="CH70" s="24"/>
+      <c r="CI70" s="22"/>
+      <c r="CJ70" s="22"/>
+      <c r="CK70" s="22"/>
+      <c r="CL70" s="22"/>
+      <c r="CM70" s="22"/>
+      <c r="CN70" s="22"/>
+      <c r="CO70" s="22"/>
+      <c r="CP70" s="22"/>
+      <c r="CQ70" s="22"/>
+      <c r="CR70" s="22"/>
+      <c r="CS70" s="22"/>
+      <c r="CT70" s="24"/>
+      <c r="CU70" s="24"/>
+    </row>
+    <row r="71" spans="1:132" s="25" customFormat="1">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
+      <c r="AD71" s="22"/>
+      <c r="AE71" s="22"/>
+      <c r="AF71" s="22"/>
+      <c r="AG71" s="22"/>
+      <c r="AH71" s="24"/>
+      <c r="AI71" s="24"/>
+      <c r="AJ71" s="24"/>
+      <c r="AK71" s="22"/>
+      <c r="AL71" s="22"/>
+      <c r="AM71" s="24"/>
+      <c r="AN71" s="24"/>
+      <c r="AO71" s="24"/>
+      <c r="AP71" s="24"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="24"/>
+      <c r="AS71" s="24"/>
+      <c r="AT71" s="24"/>
+      <c r="AU71" s="24"/>
+      <c r="AV71" s="24"/>
+      <c r="AW71" s="24"/>
+      <c r="AX71" s="24"/>
+      <c r="AY71" s="24"/>
+      <c r="AZ71" s="24"/>
+      <c r="BA71" s="24"/>
+      <c r="BB71" s="24"/>
+      <c r="BC71" s="24"/>
+      <c r="BD71" s="24"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="24"/>
+      <c r="BG71" s="24"/>
+      <c r="BH71" s="24"/>
+      <c r="BI71" s="24"/>
+      <c r="BJ71" s="24"/>
+      <c r="BK71" s="24"/>
+      <c r="BM71" s="22"/>
+      <c r="BN71" s="22"/>
+      <c r="BO71" s="22"/>
+      <c r="BP71" s="22"/>
+      <c r="BQ71" s="22"/>
+      <c r="BR71" s="22"/>
+      <c r="BS71" s="24"/>
+      <c r="BT71" s="22"/>
+      <c r="BV71" s="22"/>
+      <c r="BW71" s="22"/>
+      <c r="BX71" s="24"/>
+      <c r="BY71" s="22"/>
+      <c r="BZ71" s="22"/>
+      <c r="CA71" s="22"/>
+      <c r="CB71" s="22"/>
+      <c r="CC71" s="22"/>
+      <c r="CD71" s="22"/>
+      <c r="CE71" s="22"/>
+      <c r="CF71" s="24"/>
+      <c r="CG71" s="24"/>
+      <c r="CH71" s="24"/>
+      <c r="CI71" s="22"/>
+      <c r="CJ71" s="22"/>
+      <c r="CK71" s="22"/>
+      <c r="CL71" s="22"/>
+      <c r="CM71" s="22"/>
+      <c r="CN71" s="22"/>
+      <c r="CO71" s="22"/>
+      <c r="CP71" s="22"/>
+      <c r="CQ71" s="22"/>
+      <c r="CR71" s="22"/>
+      <c r="CS71" s="22"/>
+      <c r="CT71" s="24"/>
+      <c r="CU71" s="24"/>
+    </row>
+    <row r="72" spans="1:132" s="25" customFormat="1">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="22"/>
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="22"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="22"/>
+      <c r="AL72" s="22"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="24"/>
+      <c r="AT72" s="24"/>
+      <c r="AU72" s="24"/>
+      <c r="AV72" s="24"/>
+      <c r="AW72" s="24"/>
+      <c r="AX72" s="24"/>
+      <c r="AY72" s="24"/>
+      <c r="AZ72" s="24"/>
+      <c r="BA72" s="24"/>
+      <c r="BB72" s="24"/>
+      <c r="BC72" s="24"/>
+      <c r="BD72" s="24"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="24"/>
+      <c r="BG72" s="24"/>
+      <c r="BH72" s="24"/>
+      <c r="BI72" s="24"/>
+      <c r="BJ72" s="24"/>
+      <c r="BK72" s="24"/>
+      <c r="BM72" s="22"/>
+      <c r="BN72" s="22"/>
+      <c r="BO72" s="22"/>
+      <c r="BP72" s="22"/>
+      <c r="BQ72" s="22"/>
+      <c r="BR72" s="22"/>
+      <c r="BS72" s="24"/>
+      <c r="BT72" s="22"/>
+      <c r="BV72" s="22"/>
+      <c r="BW72" s="22"/>
+      <c r="BX72" s="24"/>
+      <c r="BY72" s="22"/>
+      <c r="BZ72" s="22"/>
+      <c r="CA72" s="22"/>
+      <c r="CB72" s="22"/>
+      <c r="CC72" s="22"/>
+      <c r="CD72" s="22"/>
+      <c r="CE72" s="22"/>
+      <c r="CF72" s="24"/>
+      <c r="CG72" s="24"/>
+      <c r="CH72" s="24"/>
+      <c r="CI72" s="22"/>
+      <c r="CJ72" s="22"/>
+      <c r="CK72" s="22"/>
+      <c r="CL72" s="22"/>
+      <c r="CM72" s="22"/>
+      <c r="CN72" s="22"/>
+      <c r="CO72" s="22"/>
+      <c r="CP72" s="22"/>
+      <c r="CQ72" s="22"/>
+      <c r="CR72" s="22"/>
+      <c r="CS72" s="22"/>
+      <c r="CT72" s="24"/>
+      <c r="CU72" s="24"/>
+    </row>
+    <row r="73" spans="1:132" s="8" customFormat="1">
+      <c r="A73" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7"/>
+      <c r="AZ73" s="7"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" s="7"/>
+      <c r="BC73" s="7"/>
+      <c r="BD73" s="7"/>
+      <c r="BE73" s="7"/>
+      <c r="BF73" s="7"/>
+      <c r="BG73" s="7"/>
+      <c r="BH73" s="7"/>
+      <c r="BI73" s="7"/>
+      <c r="BJ73" s="7"/>
+      <c r="BK73" s="7"/>
+      <c r="BM73" s="7"/>
+      <c r="BN73" s="7"/>
+      <c r="BO73" s="7"/>
+      <c r="BP73" s="7"/>
+      <c r="BQ73" s="7"/>
+      <c r="BR73" s="7"/>
+      <c r="BS73" s="7"/>
+      <c r="BT73" s="7"/>
+      <c r="BV73" s="7"/>
+      <c r="BX73" s="7"/>
+      <c r="BY73" s="7"/>
+      <c r="BZ73" s="7"/>
+      <c r="CA73" s="7"/>
+      <c r="CB73" s="7"/>
+      <c r="CL73" s="7"/>
+      <c r="CN73" s="7"/>
+      <c r="CO73" s="7"/>
+      <c r="CP73" s="7"/>
+      <c r="CQ73" s="7"/>
+      <c r="CR73" s="7"/>
+      <c r="CS73" s="7"/>
+      <c r="CT73" s="7"/>
+      <c r="CU73" s="7"/>
+    </row>
+    <row r="74" spans="1:132" s="10" customFormat="1">
+      <c r="A74" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P74" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q74" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="R74" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="14"/>
+      <c r="AL74" s="14"/>
+      <c r="AM74" s="17"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="6"/>
+      <c r="AQ74" s="6"/>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="6"/>
+      <c r="AT74" s="6"/>
+      <c r="AU74" s="6"/>
+      <c r="AV74" s="17"/>
+      <c r="AW74" s="17"/>
+      <c r="AX74" s="6"/>
+      <c r="AY74" s="6"/>
+      <c r="AZ74" s="6"/>
+      <c r="BA74" s="17"/>
+      <c r="BB74" s="17"/>
+      <c r="BC74" s="17"/>
+      <c r="BD74" s="17"/>
+      <c r="BE74" s="6"/>
+      <c r="BF74" s="6"/>
+      <c r="BG74" s="6"/>
+      <c r="BH74" s="6"/>
+      <c r="BI74" s="17"/>
+      <c r="BJ74" s="17"/>
+      <c r="BK74" s="6"/>
+      <c r="BL74" s="14"/>
+      <c r="BM74" s="15"/>
+      <c r="BN74" s="15"/>
+      <c r="BO74" s="15"/>
+      <c r="BP74" s="15"/>
+      <c r="BQ74" s="15"/>
+      <c r="BR74" s="15"/>
+      <c r="BS74" s="6"/>
+      <c r="BT74" s="15"/>
+      <c r="BU74" s="14"/>
+      <c r="BV74" s="15"/>
+      <c r="BW74" s="16"/>
+      <c r="BX74" s="6"/>
+      <c r="BY74" s="15"/>
+      <c r="BZ74" s="15"/>
+      <c r="CA74" s="15"/>
+      <c r="CB74" s="16"/>
+      <c r="CC74" s="14"/>
+      <c r="CD74" s="14"/>
+      <c r="CE74" s="16"/>
+      <c r="CF74" s="17"/>
+      <c r="CG74" s="17"/>
+      <c r="CH74" s="17"/>
+      <c r="CI74" s="16"/>
+      <c r="CJ74" s="16"/>
+      <c r="CK74" s="16"/>
+      <c r="CL74" s="16"/>
+      <c r="CM74" s="16"/>
+      <c r="CN74" s="16"/>
+      <c r="CO74" s="16"/>
+      <c r="CP74" s="15"/>
+      <c r="CQ74" s="16"/>
+      <c r="CR74" s="16"/>
+      <c r="CS74" s="16"/>
+      <c r="CT74" s="6"/>
+      <c r="CU74" s="17"/>
+      <c r="CV74" s="14"/>
+      <c r="CW74" s="6"/>
+      <c r="CX74" s="14"/>
+      <c r="CY74" s="15"/>
+      <c r="CZ74" s="14"/>
+      <c r="DA74" s="14"/>
+      <c r="DB74" s="14"/>
+      <c r="DC74" s="6"/>
+      <c r="DD74" s="14"/>
+      <c r="DE74" s="14"/>
+      <c r="DF74" s="6"/>
+      <c r="DG74" s="6"/>
+      <c r="DH74" s="6"/>
+      <c r="DI74" s="6"/>
+      <c r="DJ74" s="6"/>
+      <c r="DK74" s="14"/>
+      <c r="DL74" s="14"/>
+      <c r="DM74" s="14"/>
+      <c r="DN74" s="6"/>
+      <c r="DO74" s="6"/>
+      <c r="DP74" s="14"/>
+      <c r="DQ74" s="14"/>
+      <c r="DR74" s="6"/>
+      <c r="DS74" s="6"/>
+      <c r="DT74" s="15"/>
+      <c r="DU74" s="15"/>
+      <c r="DV74" s="16"/>
+      <c r="DW74" s="6"/>
+      <c r="DX74" s="14"/>
+      <c r="DY74" s="15"/>
+      <c r="DZ74" s="16"/>
+      <c r="EA74" s="16"/>
+      <c r="EB74" s="6"/>
+    </row>
+    <row r="75" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A75" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="6"/>
+      <c r="AH75" s="13"/>
+      <c r="AJ75" s="13"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="13"/>
+      <c r="AP75" s="13"/>
+      <c r="AR75" s="13"/>
+      <c r="AS75" s="13"/>
+      <c r="AT75" s="13"/>
+      <c r="AU75" s="13"/>
+      <c r="AV75" s="13"/>
+      <c r="AW75" s="13"/>
+      <c r="AX75" s="13"/>
+      <c r="AY75" s="13"/>
+      <c r="AZ75" s="13"/>
+      <c r="BA75" s="13"/>
+      <c r="BB75" s="13"/>
+      <c r="BC75" s="13"/>
+      <c r="BD75" s="13"/>
+      <c r="BE75" s="13"/>
+      <c r="BF75" s="13"/>
+      <c r="BG75" s="13"/>
+      <c r="BH75" s="13"/>
+      <c r="BI75" s="13"/>
+      <c r="BJ75" s="13"/>
+      <c r="BK75" s="13"/>
+      <c r="BM75" s="4"/>
+      <c r="BN75" s="4"/>
+      <c r="BO75" s="4"/>
+      <c r="BP75" s="4"/>
+      <c r="BQ75" s="4"/>
+      <c r="BR75" s="4"/>
+      <c r="BS75" s="13"/>
+      <c r="BT75" s="4"/>
+      <c r="BV75" s="4"/>
+      <c r="BX75" s="13"/>
+      <c r="BY75" s="4"/>
+      <c r="BZ75" s="4"/>
+      <c r="CA75" s="4"/>
+      <c r="CB75" s="20"/>
+      <c r="CC75" s="13"/>
+      <c r="CE75" s="20"/>
+      <c r="CF75" s="13"/>
+      <c r="CG75" s="13"/>
+      <c r="CH75" s="13"/>
+      <c r="CK75" s="4"/>
+      <c r="CL75" s="4"/>
+      <c r="CM75" s="4"/>
+      <c r="CN75" s="4"/>
+      <c r="CO75" s="4"/>
+      <c r="CP75" s="4"/>
+      <c r="CQ75" s="4"/>
+      <c r="CR75" s="4"/>
+      <c r="CS75" s="4"/>
+      <c r="CT75" s="4"/>
+      <c r="CU75" s="20"/>
+      <c r="DS75" s="4"/>
+      <c r="DT75" s="4"/>
+      <c r="DU75" s="4"/>
+      <c r="DV75" s="4"/>
+      <c r="DW75" s="4"/>
+      <c r="DX75" s="4"/>
+      <c r="DY75" s="4"/>
+      <c r="DZ75" s="4"/>
+      <c r="EA75" s="4"/>
+      <c r="EB75" s="4"/>
+    </row>
+    <row r="76" spans="1:132">
+      <c r="A76" s="28"/>
+    </row>
+    <row r="77" spans="1:132" s="8" customFormat="1">
+      <c r="A77" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="7"/>
-      <c r="AJ69" s="7"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
-      <c r="AM69" s="7"/>
-      <c r="AN69" s="7"/>
-      <c r="AO69" s="7"/>
-      <c r="AP69" s="7"/>
-      <c r="AQ69" s="7"/>
-      <c r="AR69" s="7"/>
-      <c r="AS69" s="7"/>
-      <c r="AT69" s="7"/>
-      <c r="AU69" s="7"/>
-      <c r="AV69" s="7"/>
-      <c r="AW69" s="7"/>
-      <c r="AX69" s="7"/>
-      <c r="AY69" s="7"/>
-      <c r="AZ69" s="7"/>
-      <c r="BA69" s="7"/>
-      <c r="BB69" s="7"/>
-      <c r="BC69" s="7"/>
-      <c r="BD69" s="7"/>
-      <c r="BE69" s="7"/>
-      <c r="BF69" s="7"/>
-      <c r="BG69" s="7"/>
-      <c r="BH69" s="7"/>
-      <c r="BI69" s="7"/>
-      <c r="BJ69" s="7"/>
-      <c r="BK69" s="7"/>
-      <c r="BM69" s="7"/>
-      <c r="BN69" s="7"/>
-      <c r="BO69" s="7"/>
-      <c r="BP69" s="7"/>
-      <c r="BQ69" s="7"/>
-      <c r="BR69" s="7"/>
-      <c r="BS69" s="7"/>
-      <c r="BT69" s="7"/>
-      <c r="BV69" s="7"/>
-      <c r="BX69" s="7"/>
-      <c r="BY69" s="7"/>
-      <c r="BZ69" s="7"/>
-      <c r="CA69" s="7"/>
-      <c r="CB69" s="7"/>
-      <c r="CL69" s="7"/>
-      <c r="CN69" s="7"/>
-      <c r="CO69" s="7"/>
-      <c r="CP69" s="7"/>
-      <c r="CQ69" s="7"/>
-      <c r="CR69" s="7"/>
-      <c r="CS69" s="7"/>
-      <c r="CT69" s="7"/>
-      <c r="CU69" s="7"/>
-    </row>
-    <row r="70" spans="1:132" s="10" customFormat="1">
-      <c r="A70" s="16" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
+      <c r="AT77" s="7"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7"/>
+      <c r="AW77" s="7"/>
+      <c r="AX77" s="7"/>
+      <c r="AY77" s="7"/>
+      <c r="AZ77" s="7"/>
+      <c r="BA77" s="7"/>
+      <c r="BB77" s="7"/>
+      <c r="BC77" s="7"/>
+      <c r="BD77" s="7"/>
+      <c r="BE77" s="7"/>
+      <c r="BF77" s="7"/>
+      <c r="BG77" s="7"/>
+      <c r="BH77" s="7"/>
+      <c r="BI77" s="7"/>
+      <c r="BJ77" s="7"/>
+      <c r="BK77" s="7"/>
+      <c r="BM77" s="7"/>
+      <c r="BN77" s="7"/>
+      <c r="BO77" s="7"/>
+      <c r="BP77" s="7"/>
+      <c r="BQ77" s="7"/>
+      <c r="BR77" s="7"/>
+      <c r="BS77" s="7"/>
+      <c r="BT77" s="7"/>
+      <c r="BV77" s="7"/>
+      <c r="BX77" s="7"/>
+      <c r="BY77" s="7"/>
+      <c r="BZ77" s="7"/>
+      <c r="CA77" s="7"/>
+      <c r="CB77" s="7"/>
+      <c r="CL77" s="7"/>
+      <c r="CN77" s="7"/>
+      <c r="CO77" s="7"/>
+      <c r="CP77" s="7"/>
+      <c r="CQ77" s="7"/>
+      <c r="CR77" s="7"/>
+      <c r="CS77" s="7"/>
+      <c r="CT77" s="7"/>
+      <c r="CU77" s="7"/>
+    </row>
+    <row r="78" spans="1:132" s="10" customFormat="1">
+      <c r="A78" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B78" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D78" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E78" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G78" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H78" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I78" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J78" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K78" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="L70" s="14" t="s">
+      <c r="L78" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="M70" s="14" t="s">
+      <c r="M78" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="N70" s="14" t="s">
+      <c r="N78" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O70" s="14" t="s">
+      <c r="O78" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P70" s="14" t="s">
+      <c r="P78" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q70" s="14" t="s">
+      <c r="Q78" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="R70" s="14" t="s">
+      <c r="R78" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="17"/>
-      <c r="AJ70" s="6"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="17"/>
-      <c r="AN70" s="6"/>
-      <c r="AO70" s="6"/>
-      <c r="AP70" s="6"/>
-      <c r="AQ70" s="6"/>
-      <c r="AR70" s="17"/>
-      <c r="AS70" s="6"/>
-      <c r="AT70" s="6"/>
-      <c r="AU70" s="6"/>
-      <c r="AV70" s="17"/>
-      <c r="AW70" s="17"/>
-      <c r="AX70" s="6"/>
-      <c r="AY70" s="6"/>
-      <c r="AZ70" s="6"/>
-      <c r="BA70" s="17"/>
-      <c r="BB70" s="17"/>
-      <c r="BC70" s="17"/>
-      <c r="BD70" s="17"/>
-      <c r="BE70" s="6"/>
-      <c r="BF70" s="6"/>
-      <c r="BG70" s="6"/>
-      <c r="BH70" s="6"/>
-      <c r="BI70" s="17"/>
-      <c r="BJ70" s="17"/>
-      <c r="BK70" s="6"/>
-      <c r="BL70" s="14"/>
-      <c r="BM70" s="15"/>
-      <c r="BN70" s="15"/>
-      <c r="BO70" s="15"/>
-      <c r="BP70" s="15"/>
-      <c r="BQ70" s="15"/>
-      <c r="BR70" s="15"/>
-      <c r="BS70" s="6"/>
-      <c r="BT70" s="15"/>
-      <c r="BU70" s="14"/>
-      <c r="BV70" s="15"/>
-      <c r="BW70" s="16"/>
-      <c r="BX70" s="6"/>
-      <c r="BY70" s="15"/>
-      <c r="BZ70" s="15"/>
-      <c r="CA70" s="15"/>
-      <c r="CB70" s="16"/>
-      <c r="CC70" s="14"/>
-      <c r="CD70" s="14"/>
-      <c r="CE70" s="16"/>
-      <c r="CF70" s="17"/>
-      <c r="CG70" s="17"/>
-      <c r="CH70" s="17"/>
-      <c r="CI70" s="16"/>
-      <c r="CJ70" s="16"/>
-      <c r="CK70" s="16"/>
-      <c r="CL70" s="16"/>
-      <c r="CM70" s="16"/>
-      <c r="CN70" s="16"/>
-      <c r="CO70" s="16"/>
-      <c r="CP70" s="15"/>
-      <c r="CQ70" s="16"/>
-      <c r="CR70" s="16"/>
-      <c r="CS70" s="16"/>
-      <c r="CT70" s="6"/>
-      <c r="CU70" s="17"/>
-      <c r="CV70" s="14"/>
-      <c r="CW70" s="6"/>
-      <c r="CX70" s="14"/>
-      <c r="CY70" s="15"/>
-      <c r="CZ70" s="14"/>
-      <c r="DA70" s="14"/>
-      <c r="DB70" s="14"/>
-      <c r="DC70" s="6"/>
-      <c r="DD70" s="14"/>
-      <c r="DE70" s="14"/>
-      <c r="DF70" s="6"/>
-      <c r="DG70" s="6"/>
-      <c r="DH70" s="6"/>
-      <c r="DI70" s="6"/>
-      <c r="DJ70" s="6"/>
-      <c r="DK70" s="14"/>
-      <c r="DL70" s="14"/>
-      <c r="DM70" s="14"/>
-      <c r="DN70" s="6"/>
-      <c r="DO70" s="6"/>
-      <c r="DP70" s="14"/>
-      <c r="DQ70" s="14"/>
-      <c r="DR70" s="6"/>
-      <c r="DS70" s="6"/>
-      <c r="DT70" s="15"/>
-      <c r="DU70" s="15"/>
-      <c r="DV70" s="16"/>
-      <c r="DW70" s="6"/>
-      <c r="DX70" s="14"/>
-      <c r="DY70" s="15"/>
-      <c r="DZ70" s="16"/>
-      <c r="EA70" s="16"/>
-      <c r="EB70" s="6"/>
-    </row>
-    <row r="71" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A71" s="26" t="s">
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="14"/>
+      <c r="AE78" s="14"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="14"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="17"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="14"/>
+      <c r="AL78" s="14"/>
+      <c r="AM78" s="17"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="17"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="17"/>
+      <c r="AW78" s="17"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="17"/>
+      <c r="BB78" s="17"/>
+      <c r="BC78" s="17"/>
+      <c r="BD78" s="17"/>
+      <c r="BE78" s="6"/>
+      <c r="BF78" s="6"/>
+      <c r="BG78" s="6"/>
+      <c r="BH78" s="6"/>
+      <c r="BI78" s="17"/>
+      <c r="BJ78" s="17"/>
+      <c r="BK78" s="6"/>
+      <c r="BL78" s="14"/>
+      <c r="BM78" s="15"/>
+      <c r="BN78" s="15"/>
+      <c r="BO78" s="15"/>
+      <c r="BP78" s="15"/>
+      <c r="BQ78" s="15"/>
+      <c r="BR78" s="15"/>
+      <c r="BS78" s="6"/>
+      <c r="BT78" s="15"/>
+      <c r="BU78" s="14"/>
+      <c r="BV78" s="15"/>
+      <c r="BW78" s="16"/>
+      <c r="BX78" s="6"/>
+      <c r="BY78" s="15"/>
+      <c r="BZ78" s="15"/>
+      <c r="CA78" s="15"/>
+      <c r="CB78" s="16"/>
+      <c r="CC78" s="14"/>
+      <c r="CD78" s="14"/>
+      <c r="CE78" s="16"/>
+      <c r="CF78" s="17"/>
+      <c r="CG78" s="17"/>
+      <c r="CH78" s="17"/>
+      <c r="CI78" s="16"/>
+      <c r="CJ78" s="16"/>
+      <c r="CK78" s="16"/>
+      <c r="CL78" s="16"/>
+      <c r="CM78" s="16"/>
+      <c r="CN78" s="16"/>
+      <c r="CO78" s="16"/>
+      <c r="CP78" s="15"/>
+      <c r="CQ78" s="16"/>
+      <c r="CR78" s="16"/>
+      <c r="CS78" s="16"/>
+      <c r="CT78" s="6"/>
+      <c r="CU78" s="17"/>
+      <c r="CV78" s="14"/>
+      <c r="CW78" s="6"/>
+      <c r="CX78" s="14"/>
+      <c r="CY78" s="15"/>
+      <c r="CZ78" s="14"/>
+      <c r="DA78" s="14"/>
+      <c r="DB78" s="14"/>
+      <c r="DC78" s="6"/>
+      <c r="DD78" s="14"/>
+      <c r="DE78" s="14"/>
+      <c r="DF78" s="6"/>
+      <c r="DG78" s="6"/>
+      <c r="DH78" s="6"/>
+      <c r="DI78" s="6"/>
+      <c r="DJ78" s="6"/>
+      <c r="DK78" s="14"/>
+      <c r="DL78" s="14"/>
+      <c r="DM78" s="14"/>
+      <c r="DN78" s="6"/>
+      <c r="DO78" s="6"/>
+      <c r="DP78" s="14"/>
+      <c r="DQ78" s="14"/>
+      <c r="DR78" s="6"/>
+      <c r="DS78" s="6"/>
+      <c r="DT78" s="15"/>
+      <c r="DU78" s="15"/>
+      <c r="DV78" s="16"/>
+      <c r="DW78" s="6"/>
+      <c r="DX78" s="14"/>
+      <c r="DY78" s="15"/>
+      <c r="DZ78" s="16"/>
+      <c r="EA78" s="16"/>
+      <c r="EB78" s="6"/>
+    </row>
+    <row r="79" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A79" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B79" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F79" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K79" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L71" s="5" t="s">
+      <c r="L79" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M79" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N71" s="13" t="s">
+      <c r="N79" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P79" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="Q79" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R71" s="5" t="s">
+      <c r="R79" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="6"/>
-      <c r="AH71" s="13"/>
-      <c r="AJ71" s="13"/>
-      <c r="AN71" s="13"/>
-      <c r="AO71" s="13"/>
-      <c r="AP71" s="13"/>
-      <c r="AR71" s="13"/>
-      <c r="AS71" s="13"/>
-      <c r="AT71" s="13"/>
-      <c r="AU71" s="13"/>
-      <c r="AV71" s="13"/>
-      <c r="AW71" s="13"/>
-      <c r="AX71" s="13"/>
-      <c r="AY71" s="13"/>
-      <c r="AZ71" s="13"/>
-      <c r="BA71" s="13"/>
-      <c r="BB71" s="13"/>
-      <c r="BC71" s="13"/>
-      <c r="BD71" s="13"/>
-      <c r="BE71" s="13"/>
-      <c r="BF71" s="13"/>
-      <c r="BG71" s="13"/>
-      <c r="BH71" s="13"/>
-      <c r="BI71" s="13"/>
-      <c r="BJ71" s="13"/>
-      <c r="BK71" s="13"/>
-      <c r="BM71" s="4"/>
-      <c r="BN71" s="4"/>
-      <c r="BO71" s="4"/>
-      <c r="BP71" s="4"/>
-      <c r="BQ71" s="4"/>
-      <c r="BR71" s="4"/>
-      <c r="BS71" s="13"/>
-      <c r="BT71" s="4"/>
-      <c r="BV71" s="4"/>
-      <c r="BX71" s="13"/>
-      <c r="BY71" s="4"/>
-      <c r="BZ71" s="4"/>
-      <c r="CA71" s="4"/>
-      <c r="CB71" s="20"/>
-      <c r="CC71" s="13"/>
-      <c r="CE71" s="20"/>
-      <c r="CF71" s="13"/>
-      <c r="CG71" s="13"/>
-      <c r="CH71" s="13"/>
-      <c r="CK71" s="4"/>
-      <c r="CL71" s="4"/>
-      <c r="CM71" s="4"/>
-      <c r="CN71" s="4"/>
-      <c r="CO71" s="4"/>
-      <c r="CP71" s="4"/>
-      <c r="CQ71" s="4"/>
-      <c r="CR71" s="4"/>
-      <c r="CS71" s="4"/>
-      <c r="CT71" s="4"/>
-      <c r="CU71" s="20"/>
-      <c r="DS71" s="4"/>
-      <c r="DT71" s="4"/>
-      <c r="DU71" s="4"/>
-      <c r="DV71" s="4"/>
-      <c r="DW71" s="4"/>
-      <c r="DX71" s="4"/>
-      <c r="DY71" s="4"/>
-      <c r="DZ71" s="4"/>
-      <c r="EA71" s="4"/>
-      <c r="EB71" s="4"/>
-    </row>
-    <row r="72" spans="1:132">
-      <c r="A72" s="28"/>
-    </row>
-    <row r="73" spans="1:132" s="25" customFormat="1">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="22"/>
-      <c r="AB73" s="22"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="22"/>
-      <c r="AE73" s="22"/>
-      <c r="AF73" s="22"/>
-      <c r="AG73" s="22"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
-      <c r="AK73" s="22"/>
-      <c r="AL73" s="22"/>
-      <c r="AM73" s="24"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="24"/>
-      <c r="AP73" s="24"/>
-      <c r="AQ73" s="24"/>
-      <c r="AR73" s="24"/>
-      <c r="AS73" s="24"/>
-      <c r="AT73" s="24"/>
-      <c r="AU73" s="24"/>
-      <c r="AV73" s="24"/>
-      <c r="AW73" s="24"/>
-      <c r="AX73" s="24"/>
-      <c r="AY73" s="24"/>
-      <c r="AZ73" s="24"/>
-      <c r="BA73" s="24"/>
-      <c r="BB73" s="24"/>
-      <c r="BC73" s="24"/>
-      <c r="BD73" s="24"/>
-      <c r="BE73" s="24"/>
-      <c r="BF73" s="24"/>
-      <c r="BG73" s="24"/>
-      <c r="BH73" s="24"/>
-      <c r="BI73" s="24"/>
-      <c r="BJ73" s="24"/>
-      <c r="BK73" s="24"/>
-      <c r="BM73" s="22"/>
-      <c r="BN73" s="22"/>
-      <c r="BO73" s="22"/>
-      <c r="BP73" s="22"/>
-      <c r="BQ73" s="22"/>
-      <c r="BR73" s="22"/>
-      <c r="BS73" s="24"/>
-      <c r="BT73" s="22"/>
-      <c r="BV73" s="22"/>
-      <c r="BW73" s="22"/>
-      <c r="BX73" s="24"/>
-      <c r="BY73" s="22"/>
-      <c r="BZ73" s="22"/>
-      <c r="CA73" s="22"/>
-      <c r="CB73" s="22"/>
-      <c r="CC73" s="22"/>
-      <c r="CD73" s="22"/>
-      <c r="CE73" s="22"/>
-      <c r="CF73" s="24"/>
-      <c r="CG73" s="24"/>
-      <c r="CH73" s="24"/>
-      <c r="CI73" s="22"/>
-      <c r="CJ73" s="22"/>
-      <c r="CK73" s="22"/>
-      <c r="CL73" s="22"/>
-      <c r="CM73" s="22"/>
-      <c r="CN73" s="22"/>
-      <c r="CO73" s="22"/>
-      <c r="CP73" s="22"/>
-      <c r="CQ73" s="22"/>
-      <c r="CR73" s="22"/>
-      <c r="CS73" s="22"/>
-      <c r="CT73" s="24"/>
-      <c r="CU73" s="24"/>
-    </row>
-    <row r="74" spans="1:132" s="8" customFormat="1">
-      <c r="A74" s="34" t="s">
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="6"/>
+      <c r="AH79" s="13"/>
+      <c r="AJ79" s="13"/>
+      <c r="AN79" s="13"/>
+      <c r="AO79" s="13"/>
+      <c r="AP79" s="13"/>
+      <c r="AR79" s="13"/>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="13"/>
+      <c r="AU79" s="13"/>
+      <c r="AV79" s="13"/>
+      <c r="AW79" s="13"/>
+      <c r="AX79" s="13"/>
+      <c r="AY79" s="13"/>
+      <c r="AZ79" s="13"/>
+      <c r="BA79" s="13"/>
+      <c r="BB79" s="13"/>
+      <c r="BC79" s="13"/>
+      <c r="BD79" s="13"/>
+      <c r="BE79" s="13"/>
+      <c r="BF79" s="13"/>
+      <c r="BG79" s="13"/>
+      <c r="BH79" s="13"/>
+      <c r="BI79" s="13"/>
+      <c r="BJ79" s="13"/>
+      <c r="BK79" s="13"/>
+      <c r="BM79" s="4"/>
+      <c r="BN79" s="4"/>
+      <c r="BO79" s="4"/>
+      <c r="BP79" s="4"/>
+      <c r="BQ79" s="4"/>
+      <c r="BR79" s="4"/>
+      <c r="BS79" s="13"/>
+      <c r="BT79" s="4"/>
+      <c r="BV79" s="4"/>
+      <c r="BX79" s="13"/>
+      <c r="BY79" s="4"/>
+      <c r="BZ79" s="4"/>
+      <c r="CA79" s="4"/>
+      <c r="CB79" s="20"/>
+      <c r="CC79" s="13"/>
+      <c r="CE79" s="20"/>
+      <c r="CF79" s="13"/>
+      <c r="CG79" s="13"/>
+      <c r="CH79" s="13"/>
+      <c r="CK79" s="4"/>
+      <c r="CL79" s="4"/>
+      <c r="CM79" s="4"/>
+      <c r="CN79" s="4"/>
+      <c r="CO79" s="4"/>
+      <c r="CP79" s="4"/>
+      <c r="CQ79" s="4"/>
+      <c r="CR79" s="4"/>
+      <c r="CS79" s="4"/>
+      <c r="CT79" s="4"/>
+      <c r="CU79" s="20"/>
+      <c r="DS79" s="4"/>
+      <c r="DT79" s="4"/>
+      <c r="DU79" s="4"/>
+      <c r="DV79" s="4"/>
+      <c r="DW79" s="4"/>
+      <c r="DX79" s="4"/>
+      <c r="DY79" s="4"/>
+      <c r="DZ79" s="4"/>
+      <c r="EA79" s="4"/>
+      <c r="EB79" s="4"/>
+    </row>
+    <row r="80" spans="1:132">
+      <c r="A80" s="28"/>
+    </row>
+    <row r="81" spans="1:132" s="25" customFormat="1">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="24"/>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="22"/>
+      <c r="AE81" s="22"/>
+      <c r="AF81" s="22"/>
+      <c r="AG81" s="22"/>
+      <c r="AH81" s="24"/>
+      <c r="AI81" s="24"/>
+      <c r="AJ81" s="24"/>
+      <c r="AK81" s="22"/>
+      <c r="AL81" s="22"/>
+      <c r="AM81" s="24"/>
+      <c r="AN81" s="24"/>
+      <c r="AO81" s="24"/>
+      <c r="AP81" s="24"/>
+      <c r="AQ81" s="24"/>
+      <c r="AR81" s="24"/>
+      <c r="AS81" s="24"/>
+      <c r="AT81" s="24"/>
+      <c r="AU81" s="24"/>
+      <c r="AV81" s="24"/>
+      <c r="AW81" s="24"/>
+      <c r="AX81" s="24"/>
+      <c r="AY81" s="24"/>
+      <c r="AZ81" s="24"/>
+      <c r="BA81" s="24"/>
+      <c r="BB81" s="24"/>
+      <c r="BC81" s="24"/>
+      <c r="BD81" s="24"/>
+      <c r="BE81" s="24"/>
+      <c r="BF81" s="24"/>
+      <c r="BG81" s="24"/>
+      <c r="BH81" s="24"/>
+      <c r="BI81" s="24"/>
+      <c r="BJ81" s="24"/>
+      <c r="BK81" s="24"/>
+      <c r="BM81" s="22"/>
+      <c r="BN81" s="22"/>
+      <c r="BO81" s="22"/>
+      <c r="BP81" s="22"/>
+      <c r="BQ81" s="22"/>
+      <c r="BR81" s="22"/>
+      <c r="BS81" s="24"/>
+      <c r="BT81" s="22"/>
+      <c r="BV81" s="22"/>
+      <c r="BW81" s="22"/>
+      <c r="BX81" s="24"/>
+      <c r="BY81" s="22"/>
+      <c r="BZ81" s="22"/>
+      <c r="CA81" s="22"/>
+      <c r="CB81" s="22"/>
+      <c r="CC81" s="22"/>
+      <c r="CD81" s="22"/>
+      <c r="CE81" s="22"/>
+      <c r="CF81" s="24"/>
+      <c r="CG81" s="24"/>
+      <c r="CH81" s="24"/>
+      <c r="CI81" s="22"/>
+      <c r="CJ81" s="22"/>
+      <c r="CK81" s="22"/>
+      <c r="CL81" s="22"/>
+      <c r="CM81" s="22"/>
+      <c r="CN81" s="22"/>
+      <c r="CO81" s="22"/>
+      <c r="CP81" s="22"/>
+      <c r="CQ81" s="22"/>
+      <c r="CR81" s="22"/>
+      <c r="CS81" s="22"/>
+      <c r="CT81" s="24"/>
+      <c r="CU81" s="24"/>
+    </row>
+    <row r="82" spans="1:132" s="8" customFormat="1">
+      <c r="A82" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AG74" s="7"/>
-      <c r="AH74" s="7"/>
-      <c r="AI74" s="7"/>
-      <c r="AJ74" s="7"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
-      <c r="AM74" s="7"/>
-      <c r="AN74" s="7"/>
-      <c r="AO74" s="7"/>
-      <c r="AP74" s="7"/>
-      <c r="AQ74" s="7"/>
-      <c r="AR74" s="7"/>
-      <c r="AS74" s="7"/>
-      <c r="AT74" s="7"/>
-      <c r="AU74" s="7"/>
-      <c r="AV74" s="7"/>
-      <c r="AW74" s="7"/>
-      <c r="AX74" s="7"/>
-      <c r="AY74" s="7"/>
-      <c r="AZ74" s="7"/>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
-      <c r="BC74" s="7"/>
-      <c r="BD74" s="7"/>
-      <c r="BE74" s="7"/>
-      <c r="BF74" s="7"/>
-      <c r="BG74" s="7"/>
-      <c r="BH74" s="7"/>
-      <c r="BI74" s="7"/>
-      <c r="BJ74" s="7"/>
-      <c r="BK74" s="7"/>
-      <c r="BM74" s="7"/>
-      <c r="BN74" s="7"/>
-      <c r="BO74" s="7"/>
-      <c r="BP74" s="7"/>
-      <c r="BQ74" s="7"/>
-      <c r="BR74" s="7"/>
-      <c r="BS74" s="7"/>
-      <c r="BT74" s="7"/>
-      <c r="BV74" s="7"/>
-      <c r="BX74" s="7"/>
-      <c r="BY74" s="7"/>
-      <c r="BZ74" s="7"/>
-      <c r="CA74" s="7"/>
-      <c r="CB74" s="7"/>
-      <c r="CL74" s="7"/>
-      <c r="CN74" s="7"/>
-      <c r="CO74" s="7"/>
-      <c r="CP74" s="7"/>
-      <c r="CQ74" s="7"/>
-      <c r="CR74" s="7"/>
-      <c r="CS74" s="7"/>
-      <c r="CT74" s="7"/>
-      <c r="CU74" s="7"/>
-    </row>
-    <row r="75" spans="1:132" s="10" customFormat="1">
-      <c r="A75" s="16" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="7"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
+      <c r="BC82" s="7"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7"/>
+      <c r="BF82" s="7"/>
+      <c r="BG82" s="7"/>
+      <c r="BH82" s="7"/>
+      <c r="BI82" s="7"/>
+      <c r="BJ82" s="7"/>
+      <c r="BK82" s="7"/>
+      <c r="BM82" s="7"/>
+      <c r="BN82" s="7"/>
+      <c r="BO82" s="7"/>
+      <c r="BP82" s="7"/>
+      <c r="BQ82" s="7"/>
+      <c r="BR82" s="7"/>
+      <c r="BS82" s="7"/>
+      <c r="BT82" s="7"/>
+      <c r="BV82" s="7"/>
+      <c r="BX82" s="7"/>
+      <c r="BY82" s="7"/>
+      <c r="BZ82" s="7"/>
+      <c r="CA82" s="7"/>
+      <c r="CB82" s="7"/>
+      <c r="CL82" s="7"/>
+      <c r="CN82" s="7"/>
+      <c r="CO82" s="7"/>
+      <c r="CP82" s="7"/>
+      <c r="CQ82" s="7"/>
+      <c r="CR82" s="7"/>
+      <c r="CS82" s="7"/>
+      <c r="CT82" s="7"/>
+      <c r="CU82" s="7"/>
+    </row>
+    <row r="83" spans="1:132" s="10" customFormat="1">
+      <c r="A83" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B83" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D83" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E83" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G83" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H83" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I83" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J83" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K83" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="L75" s="14" t="s">
+      <c r="L83" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="M75" s="14" t="s">
+      <c r="M83" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="N75" s="14" t="s">
+      <c r="N83" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O75" s="14" t="s">
+      <c r="O83" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P75" s="14" t="s">
+      <c r="P83" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q75" s="14" t="s">
+      <c r="Q83" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="R75" s="14" t="s">
+      <c r="R83" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="S75" s="14" t="s">
+      <c r="S83" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="T75" s="14"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="14"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
-      <c r="AG75" s="14"/>
-      <c r="AH75" s="6"/>
-      <c r="AI75" s="17"/>
-      <c r="AJ75" s="6"/>
-      <c r="AK75" s="14"/>
-      <c r="AL75" s="14"/>
-      <c r="AM75" s="17"/>
-      <c r="AN75" s="6"/>
-      <c r="AO75" s="6"/>
-      <c r="AP75" s="6"/>
-      <c r="AQ75" s="6"/>
-      <c r="AR75" s="17"/>
-      <c r="AS75" s="6"/>
-      <c r="AT75" s="6"/>
-      <c r="AU75" s="6"/>
-      <c r="AV75" s="17"/>
-      <c r="AW75" s="17"/>
-      <c r="AX75" s="6"/>
-      <c r="AY75" s="6"/>
-      <c r="AZ75" s="6"/>
-      <c r="BA75" s="17"/>
-      <c r="BB75" s="17"/>
-      <c r="BC75" s="17"/>
-      <c r="BD75" s="17"/>
-      <c r="BE75" s="6"/>
-      <c r="BF75" s="6"/>
-      <c r="BG75" s="6"/>
-      <c r="BH75" s="6"/>
-      <c r="BI75" s="17"/>
-      <c r="BJ75" s="17"/>
-      <c r="BK75" s="6"/>
-      <c r="BL75" s="14"/>
-      <c r="BM75" s="15"/>
-      <c r="BN75" s="15"/>
-      <c r="BO75" s="15"/>
-      <c r="BP75" s="15"/>
-      <c r="BQ75" s="15"/>
-      <c r="BR75" s="15"/>
-      <c r="BS75" s="6"/>
-      <c r="BT75" s="15"/>
-      <c r="BU75" s="14"/>
-      <c r="BV75" s="15"/>
-      <c r="BW75" s="16"/>
-      <c r="BX75" s="6"/>
-      <c r="BY75" s="15"/>
-      <c r="BZ75" s="15"/>
-      <c r="CA75" s="15"/>
-      <c r="CB75" s="16"/>
-      <c r="CC75" s="14"/>
-      <c r="CD75" s="14"/>
-      <c r="CE75" s="16"/>
-      <c r="CF75" s="17"/>
-      <c r="CG75" s="17"/>
-      <c r="CH75" s="17"/>
-      <c r="CI75" s="16"/>
-      <c r="CJ75" s="16"/>
-      <c r="CK75" s="16"/>
-      <c r="CL75" s="16"/>
-      <c r="CM75" s="16"/>
-      <c r="CN75" s="16"/>
-      <c r="CO75" s="16"/>
-      <c r="CP75" s="15"/>
-      <c r="CQ75" s="16"/>
-      <c r="CR75" s="16"/>
-      <c r="CS75" s="16"/>
-      <c r="CT75" s="6"/>
-      <c r="CU75" s="17"/>
-      <c r="CV75" s="14"/>
-      <c r="CW75" s="6"/>
-      <c r="CX75" s="14"/>
-      <c r="CY75" s="15"/>
-      <c r="CZ75" s="14"/>
-      <c r="DA75" s="14"/>
-      <c r="DB75" s="14"/>
-      <c r="DC75" s="6"/>
-      <c r="DD75" s="14"/>
-      <c r="DE75" s="14"/>
-      <c r="DF75" s="6"/>
-      <c r="DG75" s="6"/>
-      <c r="DH75" s="6"/>
-      <c r="DI75" s="6"/>
-      <c r="DJ75" s="6"/>
-      <c r="DK75" s="14"/>
-      <c r="DL75" s="14"/>
-      <c r="DM75" s="14"/>
-      <c r="DN75" s="6"/>
-      <c r="DO75" s="6"/>
-      <c r="DP75" s="14"/>
-      <c r="DQ75" s="14"/>
-      <c r="DR75" s="6"/>
-      <c r="DS75" s="6"/>
-      <c r="DT75" s="15"/>
-      <c r="DU75" s="15"/>
-      <c r="DV75" s="16"/>
-      <c r="DW75" s="6"/>
-      <c r="DX75" s="14"/>
-      <c r="DY75" s="15"/>
-      <c r="DZ75" s="16"/>
-      <c r="EA75" s="16"/>
-      <c r="EB75" s="6"/>
-    </row>
-    <row r="76" spans="1:132" s="5" customFormat="1" ht="51">
-      <c r="A76" s="26" t="s">
+      <c r="T83" s="14"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="17"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="14"/>
+      <c r="AL83" s="14"/>
+      <c r="AM83" s="17"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="17"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="17"/>
+      <c r="AW83" s="17"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="17"/>
+      <c r="BB83" s="17"/>
+      <c r="BC83" s="17"/>
+      <c r="BD83" s="17"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="17"/>
+      <c r="BJ83" s="17"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="14"/>
+      <c r="BM83" s="15"/>
+      <c r="BN83" s="15"/>
+      <c r="BO83" s="15"/>
+      <c r="BP83" s="15"/>
+      <c r="BQ83" s="15"/>
+      <c r="BR83" s="15"/>
+      <c r="BS83" s="6"/>
+      <c r="BT83" s="15"/>
+      <c r="BU83" s="14"/>
+      <c r="BV83" s="15"/>
+      <c r="BW83" s="16"/>
+      <c r="BX83" s="6"/>
+      <c r="BY83" s="15"/>
+      <c r="BZ83" s="15"/>
+      <c r="CA83" s="15"/>
+      <c r="CB83" s="16"/>
+      <c r="CC83" s="14"/>
+      <c r="CD83" s="14"/>
+      <c r="CE83" s="16"/>
+      <c r="CF83" s="17"/>
+      <c r="CG83" s="17"/>
+      <c r="CH83" s="17"/>
+      <c r="CI83" s="16"/>
+      <c r="CJ83" s="16"/>
+      <c r="CK83" s="16"/>
+      <c r="CL83" s="16"/>
+      <c r="CM83" s="16"/>
+      <c r="CN83" s="16"/>
+      <c r="CO83" s="16"/>
+      <c r="CP83" s="15"/>
+      <c r="CQ83" s="16"/>
+      <c r="CR83" s="16"/>
+      <c r="CS83" s="16"/>
+      <c r="CT83" s="6"/>
+      <c r="CU83" s="17"/>
+      <c r="CV83" s="14"/>
+      <c r="CW83" s="6"/>
+      <c r="CX83" s="14"/>
+      <c r="CY83" s="15"/>
+      <c r="CZ83" s="14"/>
+      <c r="DA83" s="14"/>
+      <c r="DB83" s="14"/>
+      <c r="DC83" s="6"/>
+      <c r="DD83" s="14"/>
+      <c r="DE83" s="14"/>
+      <c r="DF83" s="6"/>
+      <c r="DG83" s="6"/>
+      <c r="DH83" s="6"/>
+      <c r="DI83" s="6"/>
+      <c r="DJ83" s="6"/>
+      <c r="DK83" s="14"/>
+      <c r="DL83" s="14"/>
+      <c r="DM83" s="14"/>
+      <c r="DN83" s="6"/>
+      <c r="DO83" s="6"/>
+      <c r="DP83" s="14"/>
+      <c r="DQ83" s="14"/>
+      <c r="DR83" s="6"/>
+      <c r="DS83" s="6"/>
+      <c r="DT83" s="15"/>
+      <c r="DU83" s="15"/>
+      <c r="DV83" s="16"/>
+      <c r="DW83" s="6"/>
+      <c r="DX83" s="14"/>
+      <c r="DY83" s="15"/>
+      <c r="DZ83" s="16"/>
+      <c r="EA83" s="16"/>
+      <c r="EB83" s="6"/>
+    </row>
+    <row r="84" spans="1:132" s="5" customFormat="1" ht="51">
+      <c r="A84" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B84" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F84" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K84" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L76" s="5" t="s">
+      <c r="L84" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N76" s="13" t="s">
+      <c r="N84" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="5" t="s">
+      <c r="P84" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="Q84" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="R84" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="S84" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="6"/>
-      <c r="AH76" s="13"/>
-      <c r="AJ76" s="13"/>
-      <c r="AN76" s="13"/>
-      <c r="AO76" s="13"/>
-      <c r="AP76" s="13"/>
-      <c r="AR76" s="13"/>
-      <c r="AS76" s="13"/>
-      <c r="AT76" s="13"/>
-      <c r="AU76" s="13"/>
-      <c r="AV76" s="13"/>
-      <c r="AW76" s="13"/>
-      <c r="AX76" s="13"/>
-      <c r="AY76" s="13"/>
-      <c r="AZ76" s="13"/>
-      <c r="BA76" s="13"/>
-      <c r="BB76" s="13"/>
-      <c r="BC76" s="13"/>
-      <c r="BD76" s="13"/>
-      <c r="BE76" s="13"/>
-      <c r="BF76" s="13"/>
-      <c r="BG76" s="13"/>
-      <c r="BH76" s="13"/>
-      <c r="BI76" s="13"/>
-      <c r="BJ76" s="13"/>
-      <c r="BK76" s="13"/>
-      <c r="BM76" s="4"/>
-      <c r="BN76" s="4"/>
-      <c r="BO76" s="4"/>
-      <c r="BP76" s="4"/>
-      <c r="BQ76" s="4"/>
-      <c r="BR76" s="4"/>
-      <c r="BS76" s="13"/>
-      <c r="BT76" s="4"/>
-      <c r="BV76" s="4"/>
-      <c r="BX76" s="13"/>
-      <c r="BY76" s="4"/>
-      <c r="BZ76" s="4"/>
-      <c r="CA76" s="4"/>
-      <c r="CB76" s="20"/>
-      <c r="CC76" s="13"/>
-      <c r="CE76" s="20"/>
-      <c r="CF76" s="13"/>
-      <c r="CG76" s="13"/>
-      <c r="CH76" s="13"/>
-      <c r="CK76" s="4"/>
-      <c r="CL76" s="4"/>
-      <c r="CM76" s="4"/>
-      <c r="CN76" s="4"/>
-      <c r="CO76" s="4"/>
-      <c r="CP76" s="4"/>
-      <c r="CQ76" s="4"/>
-      <c r="CR76" s="4"/>
-      <c r="CS76" s="4"/>
-      <c r="CT76" s="4"/>
-      <c r="CU76" s="20"/>
-      <c r="DS76" s="4"/>
-      <c r="DT76" s="4"/>
-      <c r="DU76" s="4"/>
-      <c r="DV76" s="4"/>
-      <c r="DW76" s="4"/>
-      <c r="DX76" s="4"/>
-      <c r="DY76" s="4"/>
-      <c r="DZ76" s="4"/>
-      <c r="EA76" s="4"/>
-      <c r="EB76" s="4"/>
-    </row>
-    <row r="77" spans="1:132">
-      <c r="A77" s="28"/>
-    </row>
-    <row r="78" spans="1:132">
-      <c r="A78" s="12"/>
-    </row>
-    <row r="79" spans="1:132" s="8" customFormat="1">
-      <c r="A79" s="34" t="s">
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="6"/>
+      <c r="AH84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BM84" s="4"/>
+      <c r="BN84" s="4"/>
+      <c r="BO84" s="4"/>
+      <c r="BP84" s="4"/>
+      <c r="BQ84" s="4"/>
+      <c r="BR84" s="4"/>
+      <c r="BS84" s="13"/>
+      <c r="BT84" s="4"/>
+      <c r="BV84" s="4"/>
+      <c r="BX84" s="13"/>
+      <c r="BY84" s="4"/>
+      <c r="BZ84" s="4"/>
+      <c r="CA84" s="4"/>
+      <c r="CB84" s="20"/>
+      <c r="CC84" s="13"/>
+      <c r="CE84" s="20"/>
+      <c r="CF84" s="13"/>
+      <c r="CG84" s="13"/>
+      <c r="CH84" s="13"/>
+      <c r="CK84" s="4"/>
+      <c r="CL84" s="4"/>
+      <c r="CM84" s="4"/>
+      <c r="CN84" s="4"/>
+      <c r="CO84" s="4"/>
+      <c r="CP84" s="4"/>
+      <c r="CQ84" s="4"/>
+      <c r="CR84" s="4"/>
+      <c r="CS84" s="4"/>
+      <c r="CT84" s="4"/>
+      <c r="CU84" s="20"/>
+      <c r="DS84" s="4"/>
+      <c r="DT84" s="4"/>
+      <c r="DU84" s="4"/>
+      <c r="DV84" s="4"/>
+      <c r="DW84" s="4"/>
+      <c r="DX84" s="4"/>
+      <c r="DY84" s="4"/>
+      <c r="DZ84" s="4"/>
+      <c r="EA84" s="4"/>
+      <c r="EB84" s="4"/>
+    </row>
+    <row r="85" spans="1:132">
+      <c r="A85" s="28"/>
+    </row>
+    <row r="86" spans="1:132">
+      <c r="A86" s="12"/>
+    </row>
+    <row r="87" spans="1:132" s="8" customFormat="1">
+      <c r="A87" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="7"/>
-      <c r="AG79" s="7"/>
-      <c r="AH79" s="7"/>
-      <c r="AI79" s="7"/>
-      <c r="AJ79" s="7"/>
-      <c r="AK79" s="7"/>
-      <c r="AL79" s="7"/>
-      <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
-      <c r="AO79" s="7"/>
-      <c r="AP79" s="7"/>
-      <c r="AQ79" s="7"/>
-      <c r="AR79" s="7"/>
-      <c r="AS79" s="7"/>
-      <c r="AT79" s="7"/>
-      <c r="AU79" s="7"/>
-      <c r="AV79" s="7"/>
-      <c r="AW79" s="7"/>
-      <c r="AX79" s="7"/>
-      <c r="AY79" s="7"/>
-      <c r="AZ79" s="7"/>
-      <c r="BA79" s="7"/>
-      <c r="BB79" s="7"/>
-      <c r="BC79" s="7"/>
-      <c r="BD79" s="7"/>
-      <c r="BE79" s="7"/>
-      <c r="BF79" s="7"/>
-      <c r="BG79" s="7"/>
-      <c r="BH79" s="7"/>
-      <c r="BI79" s="7"/>
-      <c r="BJ79" s="7"/>
-      <c r="BK79" s="7"/>
-      <c r="BM79" s="7"/>
-      <c r="BN79" s="7"/>
-      <c r="BO79" s="7"/>
-      <c r="BP79" s="7"/>
-      <c r="BQ79" s="7"/>
-      <c r="BR79" s="7"/>
-      <c r="BS79" s="7"/>
-      <c r="BT79" s="7"/>
-      <c r="BV79" s="7"/>
-      <c r="BX79" s="7"/>
-      <c r="BY79" s="7"/>
-      <c r="BZ79" s="7"/>
-      <c r="CA79" s="7"/>
-      <c r="CB79" s="7"/>
-      <c r="CL79" s="7"/>
-      <c r="CN79" s="7"/>
-      <c r="CO79" s="7"/>
-      <c r="CP79" s="7"/>
-      <c r="CQ79" s="7"/>
-      <c r="CR79" s="7"/>
-      <c r="CS79" s="7"/>
-      <c r="CT79" s="7"/>
-      <c r="CU79" s="7"/>
-    </row>
-    <row r="80" spans="1:132" s="10" customFormat="1">
-      <c r="A80" s="16" t="s">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7"/>
+      <c r="AW87" s="7"/>
+      <c r="AX87" s="7"/>
+      <c r="AY87" s="7"/>
+      <c r="AZ87" s="7"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7"/>
+      <c r="BC87" s="7"/>
+      <c r="BD87" s="7"/>
+      <c r="BE87" s="7"/>
+      <c r="BF87" s="7"/>
+      <c r="BG87" s="7"/>
+      <c r="BH87" s="7"/>
+      <c r="BI87" s="7"/>
+      <c r="BJ87" s="7"/>
+      <c r="BK87" s="7"/>
+      <c r="BM87" s="7"/>
+      <c r="BN87" s="7"/>
+      <c r="BO87" s="7"/>
+      <c r="BP87" s="7"/>
+      <c r="BQ87" s="7"/>
+      <c r="BR87" s="7"/>
+      <c r="BS87" s="7"/>
+      <c r="BT87" s="7"/>
+      <c r="BV87" s="7"/>
+      <c r="BX87" s="7"/>
+      <c r="BY87" s="7"/>
+      <c r="BZ87" s="7"/>
+      <c r="CA87" s="7"/>
+      <c r="CB87" s="7"/>
+      <c r="CL87" s="7"/>
+      <c r="CN87" s="7"/>
+      <c r="CO87" s="7"/>
+      <c r="CP87" s="7"/>
+      <c r="CQ87" s="7"/>
+      <c r="CR87" s="7"/>
+      <c r="CS87" s="7"/>
+      <c r="CT87" s="7"/>
+      <c r="CU87" s="7"/>
+    </row>
+    <row r="88" spans="1:132" s="10" customFormat="1">
+      <c r="A88" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B88" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D88" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E88" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G88" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H88" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I88" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J88" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K88" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="L80" s="14" t="s">
+      <c r="L88" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="M80" s="14" t="s">
+      <c r="M88" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="N80" s="14" t="s">
+      <c r="N88" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O80" s="14" t="s">
+      <c r="O88" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P80" s="14" t="s">
+      <c r="P88" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q80" s="14" t="s">
+      <c r="Q88" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="R80" s="14" t="s">
+      <c r="R88" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="S80" s="14" t="s">
+      <c r="S88" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="T80" s="14"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="14"/>
-      <c r="AF80" s="14"/>
-      <c r="AG80" s="14"/>
-      <c r="AH80" s="6"/>
-      <c r="AI80" s="17"/>
-      <c r="AJ80" s="6"/>
-      <c r="AK80" s="14"/>
-      <c r="AL80" s="14"/>
-      <c r="AM80" s="17"/>
-      <c r="AN80" s="6"/>
-      <c r="AO80" s="6"/>
-      <c r="AP80" s="6"/>
-      <c r="AQ80" s="6"/>
-      <c r="AR80" s="17"/>
-      <c r="AS80" s="6"/>
-      <c r="AT80" s="6"/>
-      <c r="AU80" s="6"/>
-      <c r="AV80" s="17"/>
-      <c r="AW80" s="17"/>
-      <c r="AX80" s="6"/>
-      <c r="AY80" s="6"/>
-      <c r="AZ80" s="6"/>
-      <c r="BA80" s="17"/>
-      <c r="BB80" s="17"/>
-      <c r="BC80" s="17"/>
-      <c r="BD80" s="17"/>
-      <c r="BE80" s="6"/>
-      <c r="BF80" s="6"/>
-      <c r="BG80" s="6"/>
-      <c r="BH80" s="6"/>
-      <c r="BI80" s="17"/>
-      <c r="BJ80" s="17"/>
-      <c r="BK80" s="6"/>
-      <c r="BL80" s="14"/>
-      <c r="BM80" s="15"/>
-      <c r="BN80" s="15"/>
-      <c r="BO80" s="15"/>
-      <c r="BP80" s="15"/>
-      <c r="BQ80" s="15"/>
-      <c r="BR80" s="15"/>
-      <c r="BS80" s="6"/>
-      <c r="BT80" s="15"/>
-      <c r="BU80" s="14"/>
-      <c r="BV80" s="15"/>
-      <c r="BW80" s="16"/>
-      <c r="BX80" s="6"/>
-      <c r="BY80" s="15"/>
-      <c r="BZ80" s="15"/>
-      <c r="CA80" s="15"/>
-      <c r="CB80" s="16"/>
-      <c r="CC80" s="14"/>
-      <c r="CD80" s="14"/>
-      <c r="CE80" s="16"/>
-      <c r="CF80" s="17"/>
-      <c r="CG80" s="17"/>
-      <c r="CH80" s="17"/>
-      <c r="CI80" s="16"/>
-      <c r="CJ80" s="16"/>
-      <c r="CK80" s="16"/>
-      <c r="CL80" s="16"/>
-      <c r="CM80" s="16"/>
-      <c r="CN80" s="16"/>
-      <c r="CO80" s="16"/>
-      <c r="CP80" s="15"/>
-      <c r="CQ80" s="16"/>
-      <c r="CR80" s="16"/>
-      <c r="CS80" s="16"/>
-      <c r="CT80" s="6"/>
-      <c r="CU80" s="17"/>
-      <c r="CV80" s="14"/>
-      <c r="CW80" s="6"/>
-      <c r="CX80" s="14"/>
-      <c r="CY80" s="15"/>
-      <c r="CZ80" s="14"/>
-      <c r="DA80" s="14"/>
-      <c r="DB80" s="14"/>
-      <c r="DC80" s="6"/>
-      <c r="DD80" s="14"/>
-      <c r="DE80" s="14"/>
-      <c r="DF80" s="6"/>
-      <c r="DG80" s="6"/>
-      <c r="DH80" s="6"/>
-      <c r="DI80" s="6"/>
-      <c r="DJ80" s="6"/>
-      <c r="DK80" s="14"/>
-      <c r="DL80" s="14"/>
-      <c r="DM80" s="14"/>
-      <c r="DN80" s="6"/>
-      <c r="DO80" s="6"/>
-      <c r="DP80" s="14"/>
-      <c r="DQ80" s="14"/>
-      <c r="DR80" s="6"/>
-      <c r="DS80" s="6"/>
-      <c r="DT80" s="15"/>
-      <c r="DU80" s="15"/>
-      <c r="DV80" s="16"/>
-      <c r="DW80" s="6"/>
-      <c r="DX80" s="14"/>
-      <c r="DY80" s="15"/>
-      <c r="DZ80" s="16"/>
-      <c r="EA80" s="16"/>
-      <c r="EB80" s="6"/>
-    </row>
-    <row r="81" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A81" s="26" t="s">
+      <c r="T88" s="14"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="16"/>
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="14"/>
+      <c r="AG88" s="14"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="17"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="14"/>
+      <c r="AL88" s="14"/>
+      <c r="AM88" s="17"/>
+      <c r="AN88" s="6"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="6"/>
+      <c r="AQ88" s="6"/>
+      <c r="AR88" s="17"/>
+      <c r="AS88" s="6"/>
+      <c r="AT88" s="6"/>
+      <c r="AU88" s="6"/>
+      <c r="AV88" s="17"/>
+      <c r="AW88" s="17"/>
+      <c r="AX88" s="6"/>
+      <c r="AY88" s="6"/>
+      <c r="AZ88" s="6"/>
+      <c r="BA88" s="17"/>
+      <c r="BB88" s="17"/>
+      <c r="BC88" s="17"/>
+      <c r="BD88" s="17"/>
+      <c r="BE88" s="6"/>
+      <c r="BF88" s="6"/>
+      <c r="BG88" s="6"/>
+      <c r="BH88" s="6"/>
+      <c r="BI88" s="17"/>
+      <c r="BJ88" s="17"/>
+      <c r="BK88" s="6"/>
+      <c r="BL88" s="14"/>
+      <c r="BM88" s="15"/>
+      <c r="BN88" s="15"/>
+      <c r="BO88" s="15"/>
+      <c r="BP88" s="15"/>
+      <c r="BQ88" s="15"/>
+      <c r="BR88" s="15"/>
+      <c r="BS88" s="6"/>
+      <c r="BT88" s="15"/>
+      <c r="BU88" s="14"/>
+      <c r="BV88" s="15"/>
+      <c r="BW88" s="16"/>
+      <c r="BX88" s="6"/>
+      <c r="BY88" s="15"/>
+      <c r="BZ88" s="15"/>
+      <c r="CA88" s="15"/>
+      <c r="CB88" s="16"/>
+      <c r="CC88" s="14"/>
+      <c r="CD88" s="14"/>
+      <c r="CE88" s="16"/>
+      <c r="CF88" s="17"/>
+      <c r="CG88" s="17"/>
+      <c r="CH88" s="17"/>
+      <c r="CI88" s="16"/>
+      <c r="CJ88" s="16"/>
+      <c r="CK88" s="16"/>
+      <c r="CL88" s="16"/>
+      <c r="CM88" s="16"/>
+      <c r="CN88" s="16"/>
+      <c r="CO88" s="16"/>
+      <c r="CP88" s="15"/>
+      <c r="CQ88" s="16"/>
+      <c r="CR88" s="16"/>
+      <c r="CS88" s="16"/>
+      <c r="CT88" s="6"/>
+      <c r="CU88" s="17"/>
+      <c r="CV88" s="14"/>
+      <c r="CW88" s="6"/>
+      <c r="CX88" s="14"/>
+      <c r="CY88" s="15"/>
+      <c r="CZ88" s="14"/>
+      <c r="DA88" s="14"/>
+      <c r="DB88" s="14"/>
+      <c r="DC88" s="6"/>
+      <c r="DD88" s="14"/>
+      <c r="DE88" s="14"/>
+      <c r="DF88" s="6"/>
+      <c r="DG88" s="6"/>
+      <c r="DH88" s="6"/>
+      <c r="DI88" s="6"/>
+      <c r="DJ88" s="6"/>
+      <c r="DK88" s="14"/>
+      <c r="DL88" s="14"/>
+      <c r="DM88" s="14"/>
+      <c r="DN88" s="6"/>
+      <c r="DO88" s="6"/>
+      <c r="DP88" s="14"/>
+      <c r="DQ88" s="14"/>
+      <c r="DR88" s="6"/>
+      <c r="DS88" s="6"/>
+      <c r="DT88" s="15"/>
+      <c r="DU88" s="15"/>
+      <c r="DV88" s="16"/>
+      <c r="DW88" s="6"/>
+      <c r="DX88" s="14"/>
+      <c r="DY88" s="15"/>
+      <c r="DZ88" s="16"/>
+      <c r="EA88" s="16"/>
+      <c r="EB88" s="6"/>
+    </row>
+    <row r="89" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A89" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B89" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C89" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F89" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K89" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="L89" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M89" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N81" s="13" t="s">
+      <c r="N89" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="5" t="s">
+      <c r="P89" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Q81" s="5" t="s">
+      <c r="Q89" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R81" s="5" t="s">
+      <c r="R89" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="S81" s="5" t="s">
+      <c r="S89" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="6"/>
-      <c r="AH81" s="13"/>
-      <c r="AJ81" s="13"/>
-      <c r="AN81" s="13"/>
-      <c r="AO81" s="13"/>
-      <c r="AP81" s="13"/>
-      <c r="AR81" s="13"/>
-      <c r="AS81" s="13"/>
-      <c r="AT81" s="13"/>
-      <c r="AU81" s="13"/>
-      <c r="AV81" s="13"/>
-      <c r="AW81" s="13"/>
-      <c r="AX81" s="13"/>
-      <c r="AY81" s="13"/>
-      <c r="AZ81" s="13"/>
-      <c r="BA81" s="13"/>
-      <c r="BB81" s="13"/>
-      <c r="BC81" s="13"/>
-      <c r="BD81" s="13"/>
-      <c r="BE81" s="13"/>
-      <c r="BF81" s="13"/>
-      <c r="BG81" s="13"/>
-      <c r="BH81" s="13"/>
-      <c r="BI81" s="13"/>
-      <c r="BJ81" s="13"/>
-      <c r="BK81" s="13"/>
-      <c r="BM81" s="4"/>
-      <c r="BN81" s="4"/>
-      <c r="BO81" s="4"/>
-      <c r="BP81" s="4"/>
-      <c r="BQ81" s="4"/>
-      <c r="BR81" s="4"/>
-      <c r="BS81" s="13"/>
-      <c r="BT81" s="4"/>
-      <c r="BV81" s="4"/>
-      <c r="BX81" s="13"/>
-      <c r="BY81" s="4"/>
-      <c r="BZ81" s="4"/>
-      <c r="CA81" s="4"/>
-      <c r="CB81" s="20"/>
-      <c r="CC81" s="13"/>
-      <c r="CE81" s="20"/>
-      <c r="CF81" s="13"/>
-      <c r="CG81" s="13"/>
-      <c r="CH81" s="13"/>
-      <c r="CK81" s="4"/>
-      <c r="CL81" s="4"/>
-      <c r="CM81" s="4"/>
-      <c r="CN81" s="4"/>
-      <c r="CO81" s="4"/>
-      <c r="CP81" s="4"/>
-      <c r="CQ81" s="4"/>
-      <c r="CR81" s="4"/>
-      <c r="CS81" s="4"/>
-      <c r="CT81" s="4"/>
-      <c r="CU81" s="20"/>
-      <c r="DS81" s="4"/>
-      <c r="DT81" s="4"/>
-      <c r="DU81" s="4"/>
-      <c r="DV81" s="4"/>
-      <c r="DW81" s="4"/>
-      <c r="DX81" s="4"/>
-      <c r="DY81" s="4"/>
-      <c r="DZ81" s="4"/>
-      <c r="EA81" s="4"/>
-      <c r="EB81" s="4"/>
-    </row>
-    <row r="82" spans="1:132">
-      <c r="A82" s="28"/>
-    </row>
-    <row r="83" spans="1:132" s="8" customFormat="1">
-      <c r="A83" s="34" t="s">
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="6"/>
+      <c r="AH89" s="13"/>
+      <c r="AJ89" s="13"/>
+      <c r="AN89" s="13"/>
+      <c r="AO89" s="13"/>
+      <c r="AP89" s="13"/>
+      <c r="AR89" s="13"/>
+      <c r="AS89" s="13"/>
+      <c r="AT89" s="13"/>
+      <c r="AU89" s="13"/>
+      <c r="AV89" s="13"/>
+      <c r="AW89" s="13"/>
+      <c r="AX89" s="13"/>
+      <c r="AY89" s="13"/>
+      <c r="AZ89" s="13"/>
+      <c r="BA89" s="13"/>
+      <c r="BB89" s="13"/>
+      <c r="BC89" s="13"/>
+      <c r="BD89" s="13"/>
+      <c r="BE89" s="13"/>
+      <c r="BF89" s="13"/>
+      <c r="BG89" s="13"/>
+      <c r="BH89" s="13"/>
+      <c r="BI89" s="13"/>
+      <c r="BJ89" s="13"/>
+      <c r="BK89" s="13"/>
+      <c r="BM89" s="4"/>
+      <c r="BN89" s="4"/>
+      <c r="BO89" s="4"/>
+      <c r="BP89" s="4"/>
+      <c r="BQ89" s="4"/>
+      <c r="BR89" s="4"/>
+      <c r="BS89" s="13"/>
+      <c r="BT89" s="4"/>
+      <c r="BV89" s="4"/>
+      <c r="BX89" s="13"/>
+      <c r="BY89" s="4"/>
+      <c r="BZ89" s="4"/>
+      <c r="CA89" s="4"/>
+      <c r="CB89" s="20"/>
+      <c r="CC89" s="13"/>
+      <c r="CE89" s="20"/>
+      <c r="CF89" s="13"/>
+      <c r="CG89" s="13"/>
+      <c r="CH89" s="13"/>
+      <c r="CK89" s="4"/>
+      <c r="CL89" s="4"/>
+      <c r="CM89" s="4"/>
+      <c r="CN89" s="4"/>
+      <c r="CO89" s="4"/>
+      <c r="CP89" s="4"/>
+      <c r="CQ89" s="4"/>
+      <c r="CR89" s="4"/>
+      <c r="CS89" s="4"/>
+      <c r="CT89" s="4"/>
+      <c r="CU89" s="20"/>
+      <c r="DS89" s="4"/>
+      <c r="DT89" s="4"/>
+      <c r="DU89" s="4"/>
+      <c r="DV89" s="4"/>
+      <c r="DW89" s="4"/>
+      <c r="DX89" s="4"/>
+      <c r="DY89" s="4"/>
+      <c r="DZ89" s="4"/>
+      <c r="EA89" s="4"/>
+      <c r="EB89" s="4"/>
+    </row>
+    <row r="90" spans="1:132">
+      <c r="A90" s="28"/>
+    </row>
+    <row r="91" spans="1:132" s="8" customFormat="1">
+      <c r="A91" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7"/>
-      <c r="AG83" s="7"/>
-      <c r="AH83" s="7"/>
-      <c r="AI83" s="7"/>
-      <c r="AJ83" s="7"/>
-      <c r="AK83" s="7"/>
-      <c r="AL83" s="7"/>
-      <c r="AM83" s="7"/>
-      <c r="AN83" s="7"/>
-      <c r="AO83" s="7"/>
-      <c r="AP83" s="7"/>
-      <c r="AQ83" s="7"/>
-      <c r="AR83" s="7"/>
-      <c r="AS83" s="7"/>
-      <c r="AT83" s="7"/>
-      <c r="AU83" s="7"/>
-      <c r="AV83" s="7"/>
-      <c r="AW83" s="7"/>
-      <c r="AX83" s="7"/>
-      <c r="AY83" s="7"/>
-      <c r="AZ83" s="7"/>
-      <c r="BA83" s="7"/>
-      <c r="BB83" s="7"/>
-      <c r="BC83" s="7"/>
-      <c r="BD83" s="7"/>
-      <c r="BE83" s="7"/>
-      <c r="BF83" s="7"/>
-      <c r="BG83" s="7"/>
-      <c r="BH83" s="7"/>
-      <c r="BI83" s="7"/>
-      <c r="BJ83" s="7"/>
-      <c r="BK83" s="7"/>
-      <c r="BM83" s="7"/>
-      <c r="BN83" s="7"/>
-      <c r="BO83" s="7"/>
-      <c r="BP83" s="7"/>
-      <c r="BQ83" s="7"/>
-      <c r="BR83" s="7"/>
-      <c r="BS83" s="7"/>
-      <c r="BT83" s="7"/>
-      <c r="BV83" s="7"/>
-      <c r="BX83" s="7"/>
-      <c r="BY83" s="7"/>
-      <c r="BZ83" s="7"/>
-      <c r="CA83" s="7"/>
-      <c r="CB83" s="7"/>
-      <c r="CL83" s="7"/>
-      <c r="CN83" s="7"/>
-      <c r="CO83" s="7"/>
-      <c r="CP83" s="7"/>
-      <c r="CQ83" s="7"/>
-      <c r="CR83" s="7"/>
-      <c r="CS83" s="7"/>
-      <c r="CT83" s="7"/>
-      <c r="CU83" s="7"/>
-    </row>
-    <row r="84" spans="1:132" s="10" customFormat="1">
-      <c r="A84" s="16" t="s">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="7"/>
+      <c r="BI91" s="7"/>
+      <c r="BJ91" s="7"/>
+      <c r="BK91" s="7"/>
+      <c r="BM91" s="7"/>
+      <c r="BN91" s="7"/>
+      <c r="BO91" s="7"/>
+      <c r="BP91" s="7"/>
+      <c r="BQ91" s="7"/>
+      <c r="BR91" s="7"/>
+      <c r="BS91" s="7"/>
+      <c r="BT91" s="7"/>
+      <c r="BV91" s="7"/>
+      <c r="BX91" s="7"/>
+      <c r="BY91" s="7"/>
+      <c r="BZ91" s="7"/>
+      <c r="CA91" s="7"/>
+      <c r="CB91" s="7"/>
+      <c r="CL91" s="7"/>
+      <c r="CN91" s="7"/>
+      <c r="CO91" s="7"/>
+      <c r="CP91" s="7"/>
+      <c r="CQ91" s="7"/>
+      <c r="CR91" s="7"/>
+      <c r="CS91" s="7"/>
+      <c r="CT91" s="7"/>
+      <c r="CU91" s="7"/>
+    </row>
+    <row r="92" spans="1:132" s="10" customFormat="1">
+      <c r="A92" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B92" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C92" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D92" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E92" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F92" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G92" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H84" s="38" t="s">
+      <c r="H92" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="I84" s="38" t="s">
+      <c r="I92" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="J84" s="38" t="s">
+      <c r="J92" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="K84" s="38" t="s">
+      <c r="K92" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="L84" s="38" t="s">
+      <c r="L92" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="M84" s="38" t="s">
+      <c r="M92" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="N84" s="38" t="s">
+      <c r="N92" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O84" s="38" t="s">
+      <c r="O92" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P84" s="38" t="s">
+      <c r="P92" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q84" s="38" t="s">
+      <c r="Q92" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="R84" s="38" t="s">
+      <c r="R92" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S84" s="38" t="s">
+      <c r="S92" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="T84" s="38" t="s">
+      <c r="T92" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="U84" s="36" t="s">
+      <c r="U92" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="16"/>
-      <c r="AD84" s="38"/>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
-      <c r="AH84" s="36"/>
-      <c r="AI84" s="17"/>
-      <c r="AJ84" s="36"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="38"/>
-      <c r="AM84" s="17"/>
-      <c r="AN84" s="36"/>
-      <c r="AO84" s="36"/>
-      <c r="AP84" s="36"/>
-      <c r="AQ84" s="36"/>
-      <c r="AR84" s="17"/>
-      <c r="AS84" s="36"/>
-      <c r="AT84" s="36"/>
-      <c r="AU84" s="36"/>
-      <c r="AV84" s="17"/>
-      <c r="AW84" s="17"/>
-      <c r="AX84" s="36"/>
-      <c r="AY84" s="36"/>
-      <c r="AZ84" s="36"/>
-      <c r="BA84" s="17"/>
-      <c r="BB84" s="17"/>
-      <c r="BC84" s="17"/>
-      <c r="BD84" s="17"/>
-      <c r="BE84" s="36"/>
-      <c r="BF84" s="36"/>
-      <c r="BG84" s="36"/>
-      <c r="BH84" s="36"/>
-      <c r="BI84" s="17"/>
-      <c r="BJ84" s="17"/>
-      <c r="BK84" s="36"/>
-      <c r="BL84" s="38"/>
-      <c r="BM84" s="15"/>
-      <c r="BN84" s="15"/>
-      <c r="BO84" s="15"/>
-      <c r="BP84" s="15"/>
-      <c r="BQ84" s="15"/>
-      <c r="BR84" s="15"/>
-      <c r="BS84" s="36"/>
-      <c r="BT84" s="15"/>
-      <c r="BU84" s="38"/>
-      <c r="BV84" s="15"/>
-      <c r="BW84" s="16"/>
-      <c r="BX84" s="36"/>
-      <c r="BY84" s="15"/>
-      <c r="BZ84" s="15"/>
-      <c r="CA84" s="15"/>
-      <c r="CB84" s="16"/>
-      <c r="CC84" s="38"/>
-      <c r="CD84" s="38"/>
-      <c r="CE84" s="16"/>
-      <c r="CF84" s="17"/>
-      <c r="CG84" s="17"/>
-      <c r="CH84" s="17"/>
-      <c r="CI84" s="16"/>
-      <c r="CJ84" s="16"/>
-      <c r="CK84" s="16"/>
-      <c r="CL84" s="16"/>
-      <c r="CM84" s="16"/>
-      <c r="CN84" s="16"/>
-      <c r="CO84" s="16"/>
-      <c r="CP84" s="15"/>
-      <c r="CQ84" s="16"/>
-      <c r="CR84" s="16"/>
-      <c r="CS84" s="16"/>
-      <c r="CT84" s="36"/>
-      <c r="CU84" s="17"/>
-      <c r="CV84" s="38"/>
-      <c r="CW84" s="36"/>
-      <c r="CX84" s="38"/>
-      <c r="CY84" s="15"/>
-      <c r="CZ84" s="38"/>
-      <c r="DA84" s="38"/>
-      <c r="DB84" s="38"/>
-      <c r="DC84" s="36"/>
-      <c r="DD84" s="38"/>
-      <c r="DE84" s="38"/>
-      <c r="DF84" s="36"/>
-      <c r="DG84" s="36"/>
-      <c r="DH84" s="36"/>
-      <c r="DI84" s="36"/>
-      <c r="DJ84" s="36"/>
-      <c r="DK84" s="38"/>
-      <c r="DL84" s="38"/>
-      <c r="DM84" s="38"/>
-      <c r="DN84" s="36"/>
-      <c r="DO84" s="36"/>
-      <c r="DP84" s="38"/>
-      <c r="DQ84" s="38"/>
-      <c r="DR84" s="36"/>
-      <c r="DS84" s="36"/>
-      <c r="DT84" s="15"/>
-      <c r="DU84" s="15"/>
-      <c r="DV84" s="16"/>
-      <c r="DW84" s="36"/>
-      <c r="DX84" s="38"/>
-      <c r="DY84" s="15"/>
-      <c r="DZ84" s="16"/>
-      <c r="EA84" s="16"/>
-      <c r="EB84" s="36"/>
-    </row>
-    <row r="85" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A85" s="26" t="s">
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="38"/>
+      <c r="AB92" s="16"/>
+      <c r="AC92" s="16"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="38"/>
+      <c r="AH92" s="36"/>
+      <c r="AI92" s="17"/>
+      <c r="AJ92" s="36"/>
+      <c r="AK92" s="38"/>
+      <c r="AL92" s="38"/>
+      <c r="AM92" s="17"/>
+      <c r="AN92" s="36"/>
+      <c r="AO92" s="36"/>
+      <c r="AP92" s="36"/>
+      <c r="AQ92" s="36"/>
+      <c r="AR92" s="17"/>
+      <c r="AS92" s="36"/>
+      <c r="AT92" s="36"/>
+      <c r="AU92" s="36"/>
+      <c r="AV92" s="17"/>
+      <c r="AW92" s="17"/>
+      <c r="AX92" s="36"/>
+      <c r="AY92" s="36"/>
+      <c r="AZ92" s="36"/>
+      <c r="BA92" s="17"/>
+      <c r="BB92" s="17"/>
+      <c r="BC92" s="17"/>
+      <c r="BD92" s="17"/>
+      <c r="BE92" s="36"/>
+      <c r="BF92" s="36"/>
+      <c r="BG92" s="36"/>
+      <c r="BH92" s="36"/>
+      <c r="BI92" s="17"/>
+      <c r="BJ92" s="17"/>
+      <c r="BK92" s="36"/>
+      <c r="BL92" s="38"/>
+      <c r="BM92" s="15"/>
+      <c r="BN92" s="15"/>
+      <c r="BO92" s="15"/>
+      <c r="BP92" s="15"/>
+      <c r="BQ92" s="15"/>
+      <c r="BR92" s="15"/>
+      <c r="BS92" s="36"/>
+      <c r="BT92" s="15"/>
+      <c r="BU92" s="38"/>
+      <c r="BV92" s="15"/>
+      <c r="BW92" s="16"/>
+      <c r="BX92" s="36"/>
+      <c r="BY92" s="15"/>
+      <c r="BZ92" s="15"/>
+      <c r="CA92" s="15"/>
+      <c r="CB92" s="16"/>
+      <c r="CC92" s="38"/>
+      <c r="CD92" s="38"/>
+      <c r="CE92" s="16"/>
+      <c r="CF92" s="17"/>
+      <c r="CG92" s="17"/>
+      <c r="CH92" s="17"/>
+      <c r="CI92" s="16"/>
+      <c r="CJ92" s="16"/>
+      <c r="CK92" s="16"/>
+      <c r="CL92" s="16"/>
+      <c r="CM92" s="16"/>
+      <c r="CN92" s="16"/>
+      <c r="CO92" s="16"/>
+      <c r="CP92" s="15"/>
+      <c r="CQ92" s="16"/>
+      <c r="CR92" s="16"/>
+      <c r="CS92" s="16"/>
+      <c r="CT92" s="36"/>
+      <c r="CU92" s="17"/>
+      <c r="CV92" s="38"/>
+      <c r="CW92" s="36"/>
+      <c r="CX92" s="38"/>
+      <c r="CY92" s="15"/>
+      <c r="CZ92" s="38"/>
+      <c r="DA92" s="38"/>
+      <c r="DB92" s="38"/>
+      <c r="DC92" s="36"/>
+      <c r="DD92" s="38"/>
+      <c r="DE92" s="38"/>
+      <c r="DF92" s="36"/>
+      <c r="DG92" s="36"/>
+      <c r="DH92" s="36"/>
+      <c r="DI92" s="36"/>
+      <c r="DJ92" s="36"/>
+      <c r="DK92" s="38"/>
+      <c r="DL92" s="38"/>
+      <c r="DM92" s="38"/>
+      <c r="DN92" s="36"/>
+      <c r="DO92" s="36"/>
+      <c r="DP92" s="38"/>
+      <c r="DQ92" s="38"/>
+      <c r="DR92" s="36"/>
+      <c r="DS92" s="36"/>
+      <c r="DT92" s="15"/>
+      <c r="DU92" s="15"/>
+      <c r="DV92" s="16"/>
+      <c r="DW92" s="36"/>
+      <c r="DX92" s="38"/>
+      <c r="DY92" s="15"/>
+      <c r="DZ92" s="16"/>
+      <c r="EA92" s="16"/>
+      <c r="EB92" s="36"/>
+    </row>
+    <row r="93" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A93" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B93" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C93" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F93" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K85" s="5" t="s">
+      <c r="K93" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L85" s="5" t="s">
+      <c r="L93" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M93" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N85" s="13" t="s">
+      <c r="N93" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P85" s="5" t="s">
+      <c r="P93" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Q85" s="5" t="s">
+      <c r="Q93" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R85" s="5" t="s">
+      <c r="R93" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S85" s="37" t="s">
+      <c r="S93" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="36"/>
-      <c r="AH85" s="13"/>
-      <c r="AJ85" s="13"/>
-      <c r="AN85" s="13"/>
-      <c r="AO85" s="13"/>
-      <c r="AP85" s="13"/>
-      <c r="AR85" s="13"/>
-      <c r="AS85" s="13"/>
-      <c r="AT85" s="13"/>
-      <c r="AU85" s="13"/>
-      <c r="AV85" s="13"/>
-      <c r="AW85" s="13"/>
-      <c r="AX85" s="13"/>
-      <c r="AY85" s="13"/>
-      <c r="AZ85" s="13"/>
-      <c r="BA85" s="13"/>
-      <c r="BB85" s="13"/>
-      <c r="BC85" s="13"/>
-      <c r="BD85" s="13"/>
-      <c r="BE85" s="13"/>
-      <c r="BF85" s="13"/>
-      <c r="BG85" s="13"/>
-      <c r="BH85" s="13"/>
-      <c r="BI85" s="13"/>
-      <c r="BJ85" s="13"/>
-      <c r="BK85" s="13"/>
-      <c r="BM85" s="4"/>
-      <c r="BN85" s="4"/>
-      <c r="BO85" s="4"/>
-      <c r="BP85" s="4"/>
-      <c r="BQ85" s="4"/>
-      <c r="BR85" s="4"/>
-      <c r="BS85" s="13"/>
-      <c r="BT85" s="4"/>
-      <c r="BV85" s="4"/>
-      <c r="BX85" s="13"/>
-      <c r="BY85" s="4"/>
-      <c r="BZ85" s="4"/>
-      <c r="CA85" s="4"/>
-      <c r="CB85" s="20"/>
-      <c r="CC85" s="13"/>
-      <c r="CE85" s="20"/>
-      <c r="CF85" s="13"/>
-      <c r="CG85" s="13"/>
-      <c r="CH85" s="13"/>
-      <c r="CK85" s="4"/>
-      <c r="CL85" s="4"/>
-      <c r="CM85" s="4"/>
-      <c r="CN85" s="4"/>
-      <c r="CO85" s="4"/>
-      <c r="CP85" s="4"/>
-      <c r="CQ85" s="4"/>
-      <c r="CR85" s="4"/>
-      <c r="CS85" s="4"/>
-      <c r="CT85" s="4"/>
-      <c r="CU85" s="20"/>
-      <c r="DS85" s="4"/>
-      <c r="DT85" s="4"/>
-      <c r="DU85" s="4"/>
-      <c r="DV85" s="4"/>
-      <c r="DW85" s="4"/>
-      <c r="DX85" s="4"/>
-      <c r="DY85" s="4"/>
-      <c r="DZ85" s="4"/>
-      <c r="EA85" s="4"/>
-      <c r="EB85" s="4"/>
-    </row>
-    <row r="86" spans="1:132">
-      <c r="A86" s="34" t="s">
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="36"/>
+      <c r="AH93" s="13"/>
+      <c r="AJ93" s="13"/>
+      <c r="AN93" s="13"/>
+      <c r="AO93" s="13"/>
+      <c r="AP93" s="13"/>
+      <c r="AR93" s="13"/>
+      <c r="AS93" s="13"/>
+      <c r="AT93" s="13"/>
+      <c r="AU93" s="13"/>
+      <c r="AV93" s="13"/>
+      <c r="AW93" s="13"/>
+      <c r="AX93" s="13"/>
+      <c r="AY93" s="13"/>
+      <c r="AZ93" s="13"/>
+      <c r="BA93" s="13"/>
+      <c r="BB93" s="13"/>
+      <c r="BC93" s="13"/>
+      <c r="BD93" s="13"/>
+      <c r="BE93" s="13"/>
+      <c r="BF93" s="13"/>
+      <c r="BG93" s="13"/>
+      <c r="BH93" s="13"/>
+      <c r="BI93" s="13"/>
+      <c r="BJ93" s="13"/>
+      <c r="BK93" s="13"/>
+      <c r="BM93" s="4"/>
+      <c r="BN93" s="4"/>
+      <c r="BO93" s="4"/>
+      <c r="BP93" s="4"/>
+      <c r="BQ93" s="4"/>
+      <c r="BR93" s="4"/>
+      <c r="BS93" s="13"/>
+      <c r="BT93" s="4"/>
+      <c r="BV93" s="4"/>
+      <c r="BX93" s="13"/>
+      <c r="BY93" s="4"/>
+      <c r="BZ93" s="4"/>
+      <c r="CA93" s="4"/>
+      <c r="CB93" s="20"/>
+      <c r="CC93" s="13"/>
+      <c r="CE93" s="20"/>
+      <c r="CF93" s="13"/>
+      <c r="CG93" s="13"/>
+      <c r="CH93" s="13"/>
+      <c r="CK93" s="4"/>
+      <c r="CL93" s="4"/>
+      <c r="CM93" s="4"/>
+      <c r="CN93" s="4"/>
+      <c r="CO93" s="4"/>
+      <c r="CP93" s="4"/>
+      <c r="CQ93" s="4"/>
+      <c r="CR93" s="4"/>
+      <c r="CS93" s="4"/>
+      <c r="CT93" s="4"/>
+      <c r="CU93" s="20"/>
+      <c r="DS93" s="4"/>
+      <c r="DT93" s="4"/>
+      <c r="DU93" s="4"/>
+      <c r="DV93" s="4"/>
+      <c r="DW93" s="4"/>
+      <c r="DX93" s="4"/>
+      <c r="DY93" s="4"/>
+      <c r="DZ93" s="4"/>
+      <c r="EA93" s="4"/>
+      <c r="EB93" s="4"/>
+    </row>
+    <row r="94" spans="1:132">
+      <c r="A94" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:132" s="10" customFormat="1">
-      <c r="A87" s="16" t="s">
+    <row r="95" spans="1:132" s="10" customFormat="1">
+      <c r="A95" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B95" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C95" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D95" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E95" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F87" s="36" t="s">
+      <c r="F95" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G95" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H95" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I95" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="J87" s="38" t="s">
+      <c r="J95" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="K87" s="38" t="s">
+      <c r="K95" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="L87" s="38" t="s">
+      <c r="L95" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="M87" s="38" t="s">
+      <c r="M95" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="N87" s="38" t="s">
+      <c r="N95" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O87" s="38" t="s">
+      <c r="O95" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P87" s="38" t="s">
+      <c r="P95" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q87" s="38" t="s">
+      <c r="Q95" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="R87" s="38" t="s">
+      <c r="R95" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S87" s="38" t="s">
+      <c r="S95" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="T87" s="38" t="s">
+      <c r="T95" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="U87" s="36" t="s">
+      <c r="U95" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="38"/>
-      <c r="AB87" s="16"/>
-      <c r="AC87" s="16"/>
-      <c r="AD87" s="38"/>
-      <c r="AE87" s="38"/>
-      <c r="AF87" s="38"/>
-      <c r="AG87" s="38"/>
-      <c r="AH87" s="36"/>
-      <c r="AI87" s="17"/>
-      <c r="AJ87" s="36"/>
-      <c r="AK87" s="38"/>
-      <c r="AL87" s="38"/>
-      <c r="AM87" s="17"/>
-      <c r="AN87" s="36"/>
-      <c r="AO87" s="36"/>
-      <c r="AP87" s="36"/>
-      <c r="AQ87" s="36"/>
-      <c r="AR87" s="17"/>
-      <c r="AS87" s="36"/>
-      <c r="AT87" s="36"/>
-      <c r="AU87" s="36"/>
-      <c r="AV87" s="17"/>
-      <c r="AW87" s="17"/>
-      <c r="AX87" s="36"/>
-      <c r="AY87" s="36"/>
-      <c r="AZ87" s="36"/>
-      <c r="BA87" s="17"/>
-      <c r="BB87" s="17"/>
-      <c r="BC87" s="17"/>
-      <c r="BD87" s="17"/>
-      <c r="BE87" s="36"/>
-      <c r="BF87" s="36"/>
-      <c r="BG87" s="36"/>
-      <c r="BH87" s="36"/>
-      <c r="BI87" s="17"/>
-      <c r="BJ87" s="17"/>
-      <c r="BK87" s="36"/>
-      <c r="BL87" s="38"/>
-      <c r="BM87" s="15"/>
-      <c r="BN87" s="15"/>
-      <c r="BO87" s="15"/>
-      <c r="BP87" s="15"/>
-      <c r="BQ87" s="15"/>
-      <c r="BR87" s="15"/>
-      <c r="BS87" s="36"/>
-      <c r="BT87" s="15"/>
-      <c r="BU87" s="38"/>
-      <c r="BV87" s="15"/>
-      <c r="BW87" s="16"/>
-      <c r="BX87" s="36"/>
-      <c r="BY87" s="15"/>
-      <c r="BZ87" s="15"/>
-      <c r="CA87" s="15"/>
-      <c r="CB87" s="16"/>
-      <c r="CC87" s="38"/>
-      <c r="CD87" s="38"/>
-      <c r="CE87" s="16"/>
-      <c r="CF87" s="17"/>
-      <c r="CG87" s="17"/>
-      <c r="CH87" s="17"/>
-      <c r="CI87" s="16"/>
-      <c r="CJ87" s="16"/>
-      <c r="CK87" s="16"/>
-      <c r="CL87" s="16"/>
-      <c r="CM87" s="16"/>
-      <c r="CN87" s="16"/>
-      <c r="CO87" s="16"/>
-      <c r="CP87" s="15"/>
-      <c r="CQ87" s="16"/>
-      <c r="CR87" s="16"/>
-      <c r="CS87" s="16"/>
-      <c r="CT87" s="36"/>
-      <c r="CU87" s="17"/>
-      <c r="CV87" s="38"/>
-      <c r="CW87" s="36"/>
-      <c r="CX87" s="38"/>
-      <c r="CY87" s="15"/>
-      <c r="CZ87" s="38"/>
-      <c r="DA87" s="38"/>
-      <c r="DB87" s="38"/>
-      <c r="DC87" s="36"/>
-      <c r="DD87" s="38"/>
-      <c r="DE87" s="38"/>
-      <c r="DF87" s="36"/>
-      <c r="DG87" s="36"/>
-      <c r="DH87" s="36"/>
-      <c r="DI87" s="36"/>
-      <c r="DJ87" s="36"/>
-      <c r="DK87" s="38"/>
-      <c r="DL87" s="38"/>
-      <c r="DM87" s="38"/>
-      <c r="DN87" s="36"/>
-      <c r="DO87" s="36"/>
-      <c r="DP87" s="38"/>
-      <c r="DQ87" s="38"/>
-      <c r="DR87" s="36"/>
-      <c r="DS87" s="36"/>
-      <c r="DT87" s="15"/>
-      <c r="DU87" s="15"/>
-      <c r="DV87" s="16"/>
-      <c r="DW87" s="36"/>
-      <c r="DX87" s="38"/>
-      <c r="DY87" s="15"/>
-      <c r="DZ87" s="16"/>
-      <c r="EA87" s="16"/>
-      <c r="EB87" s="36"/>
-    </row>
-    <row r="88" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A88" s="26" t="s">
+      <c r="V95" s="36"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="36"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="16"/>
+      <c r="AC95" s="16"/>
+      <c r="AD95" s="38"/>
+      <c r="AE95" s="38"/>
+      <c r="AF95" s="38"/>
+      <c r="AG95" s="38"/>
+      <c r="AH95" s="36"/>
+      <c r="AI95" s="17"/>
+      <c r="AJ95" s="36"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="17"/>
+      <c r="AN95" s="36"/>
+      <c r="AO95" s="36"/>
+      <c r="AP95" s="36"/>
+      <c r="AQ95" s="36"/>
+      <c r="AR95" s="17"/>
+      <c r="AS95" s="36"/>
+      <c r="AT95" s="36"/>
+      <c r="AU95" s="36"/>
+      <c r="AV95" s="17"/>
+      <c r="AW95" s="17"/>
+      <c r="AX95" s="36"/>
+      <c r="AY95" s="36"/>
+      <c r="AZ95" s="36"/>
+      <c r="BA95" s="17"/>
+      <c r="BB95" s="17"/>
+      <c r="BC95" s="17"/>
+      <c r="BD95" s="17"/>
+      <c r="BE95" s="36"/>
+      <c r="BF95" s="36"/>
+      <c r="BG95" s="36"/>
+      <c r="BH95" s="36"/>
+      <c r="BI95" s="17"/>
+      <c r="BJ95" s="17"/>
+      <c r="BK95" s="36"/>
+      <c r="BL95" s="38"/>
+      <c r="BM95" s="15"/>
+      <c r="BN95" s="15"/>
+      <c r="BO95" s="15"/>
+      <c r="BP95" s="15"/>
+      <c r="BQ95" s="15"/>
+      <c r="BR95" s="15"/>
+      <c r="BS95" s="36"/>
+      <c r="BT95" s="15"/>
+      <c r="BU95" s="38"/>
+      <c r="BV95" s="15"/>
+      <c r="BW95" s="16"/>
+      <c r="BX95" s="36"/>
+      <c r="BY95" s="15"/>
+      <c r="BZ95" s="15"/>
+      <c r="CA95" s="15"/>
+      <c r="CB95" s="16"/>
+      <c r="CC95" s="38"/>
+      <c r="CD95" s="38"/>
+      <c r="CE95" s="16"/>
+      <c r="CF95" s="17"/>
+      <c r="CG95" s="17"/>
+      <c r="CH95" s="17"/>
+      <c r="CI95" s="16"/>
+      <c r="CJ95" s="16"/>
+      <c r="CK95" s="16"/>
+      <c r="CL95" s="16"/>
+      <c r="CM95" s="16"/>
+      <c r="CN95" s="16"/>
+      <c r="CO95" s="16"/>
+      <c r="CP95" s="15"/>
+      <c r="CQ95" s="16"/>
+      <c r="CR95" s="16"/>
+      <c r="CS95" s="16"/>
+      <c r="CT95" s="36"/>
+      <c r="CU95" s="17"/>
+      <c r="CV95" s="38"/>
+      <c r="CW95" s="36"/>
+      <c r="CX95" s="38"/>
+      <c r="CY95" s="15"/>
+      <c r="CZ95" s="38"/>
+      <c r="DA95" s="38"/>
+      <c r="DB95" s="38"/>
+      <c r="DC95" s="36"/>
+      <c r="DD95" s="38"/>
+      <c r="DE95" s="38"/>
+      <c r="DF95" s="36"/>
+      <c r="DG95" s="36"/>
+      <c r="DH95" s="36"/>
+      <c r="DI95" s="36"/>
+      <c r="DJ95" s="36"/>
+      <c r="DK95" s="38"/>
+      <c r="DL95" s="38"/>
+      <c r="DM95" s="38"/>
+      <c r="DN95" s="36"/>
+      <c r="DO95" s="36"/>
+      <c r="DP95" s="38"/>
+      <c r="DQ95" s="38"/>
+      <c r="DR95" s="36"/>
+      <c r="DS95" s="36"/>
+      <c r="DT95" s="15"/>
+      <c r="DU95" s="15"/>
+      <c r="DV95" s="16"/>
+      <c r="DW95" s="36"/>
+      <c r="DX95" s="38"/>
+      <c r="DY95" s="15"/>
+      <c r="DZ95" s="16"/>
+      <c r="EA95" s="16"/>
+      <c r="EB95" s="36"/>
+    </row>
+    <row r="96" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A96" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B96" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C96" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F96" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="K96" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L88" s="5" t="s">
+      <c r="L96" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M96" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N88" s="13" t="s">
+      <c r="N96" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O96" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P88" s="5" t="s">
+      <c r="P96" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="Q88" s="5" t="s">
+      <c r="Q96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R88" s="5" t="s">
+      <c r="R96" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S88" s="37" t="s">
+      <c r="S96" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="T88" s="5" t="s">
+      <c r="T96" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="U88" s="13" t="s">
+      <c r="U96" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="V88" s="13" t="s">
+      <c r="V96" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="W88" s="13" t="s">
+      <c r="W96" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="36"/>
-      <c r="AH88" s="13"/>
-      <c r="AJ88" s="13"/>
-      <c r="AN88" s="13"/>
-      <c r="AO88" s="13"/>
-      <c r="AP88" s="13"/>
-      <c r="AR88" s="13"/>
-      <c r="AS88" s="13"/>
-      <c r="AT88" s="13"/>
-      <c r="AU88" s="13"/>
-      <c r="AV88" s="13"/>
-      <c r="AW88" s="13"/>
-      <c r="AX88" s="13"/>
-      <c r="AY88" s="13"/>
-      <c r="AZ88" s="13"/>
-      <c r="BA88" s="13"/>
-      <c r="BB88" s="13"/>
-      <c r="BC88" s="13"/>
-      <c r="BD88" s="13"/>
-      <c r="BE88" s="13"/>
-      <c r="BF88" s="13"/>
-      <c r="BG88" s="13"/>
-      <c r="BH88" s="13"/>
-      <c r="BI88" s="13"/>
-      <c r="BJ88" s="13"/>
-      <c r="BK88" s="13"/>
-      <c r="BM88" s="4"/>
-      <c r="BN88" s="4"/>
-      <c r="BO88" s="4"/>
-      <c r="BP88" s="4"/>
-      <c r="BQ88" s="4"/>
-      <c r="BR88" s="4"/>
-      <c r="BS88" s="13"/>
-      <c r="BT88" s="4"/>
-      <c r="BV88" s="4"/>
-      <c r="BX88" s="13"/>
-      <c r="BY88" s="4"/>
-      <c r="BZ88" s="4"/>
-      <c r="CA88" s="4"/>
-      <c r="CB88" s="20"/>
-      <c r="CC88" s="13"/>
-      <c r="CE88" s="20"/>
-      <c r="CF88" s="13"/>
-      <c r="CG88" s="13"/>
-      <c r="CH88" s="13"/>
-      <c r="CK88" s="4"/>
-      <c r="CL88" s="4"/>
-      <c r="CM88" s="4"/>
-      <c r="CN88" s="4"/>
-      <c r="CO88" s="4"/>
-      <c r="CP88" s="4"/>
-      <c r="CQ88" s="4"/>
-      <c r="CR88" s="4"/>
-      <c r="CS88" s="4"/>
-      <c r="CT88" s="4"/>
-      <c r="CU88" s="20"/>
-      <c r="DS88" s="4"/>
-      <c r="DT88" s="4"/>
-      <c r="DU88" s="4"/>
-      <c r="DV88" s="4"/>
-      <c r="DW88" s="4"/>
-      <c r="DX88" s="4"/>
-      <c r="DY88" s="4"/>
-      <c r="DZ88" s="4"/>
-      <c r="EA88" s="4"/>
-      <c r="EB88" s="4"/>
-    </row>
-    <row r="89" spans="1:132" s="25" customFormat="1">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="22"/>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="24"/>
-      <c r="AI89" s="24"/>
-      <c r="AJ89" s="24"/>
-      <c r="AK89" s="22"/>
-      <c r="AL89" s="22"/>
-      <c r="AM89" s="24"/>
-      <c r="AN89" s="24"/>
-      <c r="AO89" s="24"/>
-      <c r="AP89" s="24"/>
-      <c r="AQ89" s="24"/>
-      <c r="AR89" s="24"/>
-      <c r="AS89" s="24"/>
-      <c r="AT89" s="24"/>
-      <c r="AU89" s="24"/>
-      <c r="AV89" s="24"/>
-      <c r="AW89" s="24"/>
-      <c r="AX89" s="24"/>
-      <c r="AY89" s="24"/>
-      <c r="AZ89" s="24"/>
-      <c r="BA89" s="24"/>
-      <c r="BB89" s="24"/>
-      <c r="BC89" s="24"/>
-      <c r="BD89" s="24"/>
-      <c r="BE89" s="24"/>
-      <c r="BF89" s="24"/>
-      <c r="BG89" s="24"/>
-      <c r="BH89" s="24"/>
-      <c r="BI89" s="24"/>
-      <c r="BJ89" s="24"/>
-      <c r="BK89" s="24"/>
-      <c r="BM89" s="22"/>
-      <c r="BN89" s="22"/>
-      <c r="BO89" s="22"/>
-      <c r="BP89" s="22"/>
-      <c r="BQ89" s="22"/>
-      <c r="BR89" s="22"/>
-      <c r="BS89" s="24"/>
-      <c r="BT89" s="22"/>
-      <c r="BV89" s="22"/>
-      <c r="BW89" s="22"/>
-      <c r="BX89" s="24"/>
-      <c r="BY89" s="22"/>
-      <c r="BZ89" s="22"/>
-      <c r="CA89" s="22"/>
-      <c r="CB89" s="22"/>
-      <c r="CC89" s="22"/>
-      <c r="CD89" s="22"/>
-      <c r="CE89" s="22"/>
-      <c r="CF89" s="24"/>
-      <c r="CG89" s="24"/>
-      <c r="CH89" s="24"/>
-      <c r="CI89" s="22"/>
-      <c r="CJ89" s="22"/>
-      <c r="CK89" s="22"/>
-      <c r="CL89" s="22"/>
-      <c r="CM89" s="22"/>
-      <c r="CN89" s="22"/>
-      <c r="CO89" s="22"/>
-      <c r="CP89" s="22"/>
-      <c r="CQ89" s="22"/>
-      <c r="CR89" s="22"/>
-      <c r="CS89" s="22"/>
-      <c r="CT89" s="24"/>
-      <c r="CU89" s="24"/>
-    </row>
-    <row r="90" spans="1:132" s="25" customFormat="1">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="22"/>
-      <c r="AB90" s="22"/>
-      <c r="AC90" s="22"/>
-      <c r="AD90" s="22"/>
-      <c r="AE90" s="22"/>
-      <c r="AF90" s="22"/>
-      <c r="AG90" s="22"/>
-      <c r="AH90" s="24"/>
-      <c r="AI90" s="24"/>
-      <c r="AJ90" s="24"/>
-      <c r="AK90" s="22"/>
-      <c r="AL90" s="22"/>
-      <c r="AM90" s="24"/>
-      <c r="AN90" s="24"/>
-      <c r="AO90" s="24"/>
-      <c r="AP90" s="24"/>
-      <c r="AQ90" s="24"/>
-      <c r="AR90" s="24"/>
-      <c r="AS90" s="24"/>
-      <c r="AT90" s="24"/>
-      <c r="AU90" s="24"/>
-      <c r="AV90" s="24"/>
-      <c r="AW90" s="24"/>
-      <c r="AX90" s="24"/>
-      <c r="AY90" s="24"/>
-      <c r="AZ90" s="24"/>
-      <c r="BA90" s="24"/>
-      <c r="BB90" s="24"/>
-      <c r="BC90" s="24"/>
-      <c r="BD90" s="24"/>
-      <c r="BE90" s="24"/>
-      <c r="BF90" s="24"/>
-      <c r="BG90" s="24"/>
-      <c r="BH90" s="24"/>
-      <c r="BI90" s="24"/>
-      <c r="BJ90" s="24"/>
-      <c r="BK90" s="24"/>
-      <c r="BM90" s="22"/>
-      <c r="BN90" s="22"/>
-      <c r="BO90" s="22"/>
-      <c r="BP90" s="22"/>
-      <c r="BQ90" s="22"/>
-      <c r="BR90" s="22"/>
-      <c r="BS90" s="24"/>
-      <c r="BT90" s="22"/>
-      <c r="BV90" s="22"/>
-      <c r="BW90" s="22"/>
-      <c r="BX90" s="24"/>
-      <c r="BY90" s="22"/>
-      <c r="BZ90" s="22"/>
-      <c r="CA90" s="22"/>
-      <c r="CB90" s="22"/>
-      <c r="CC90" s="22"/>
-      <c r="CD90" s="22"/>
-      <c r="CE90" s="22"/>
-      <c r="CF90" s="24"/>
-      <c r="CG90" s="24"/>
-      <c r="CH90" s="24"/>
-      <c r="CI90" s="22"/>
-      <c r="CJ90" s="22"/>
-      <c r="CK90" s="22"/>
-      <c r="CL90" s="22"/>
-      <c r="CM90" s="22"/>
-      <c r="CN90" s="22"/>
-      <c r="CO90" s="22"/>
-      <c r="CP90" s="22"/>
-      <c r="CQ90" s="22"/>
-      <c r="CR90" s="22"/>
-      <c r="CS90" s="22"/>
-      <c r="CT90" s="24"/>
-      <c r="CU90" s="24"/>
-    </row>
-    <row r="91" spans="1:132" s="25" customFormat="1">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="24"/>
-      <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="24"/>
-      <c r="Y91" s="24"/>
-      <c r="Z91" s="24"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="24"/>
-      <c r="AI91" s="24"/>
-      <c r="AJ91" s="24"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
-      <c r="AM91" s="24"/>
-      <c r="AN91" s="24"/>
-      <c r="AO91" s="24"/>
-      <c r="AP91" s="24"/>
-      <c r="AQ91" s="24"/>
-      <c r="AR91" s="24"/>
-      <c r="AS91" s="24"/>
-      <c r="AT91" s="24"/>
-      <c r="AU91" s="24"/>
-      <c r="AV91" s="24"/>
-      <c r="AW91" s="24"/>
-      <c r="AX91" s="24"/>
-      <c r="AY91" s="24"/>
-      <c r="AZ91" s="24"/>
-      <c r="BA91" s="24"/>
-      <c r="BB91" s="24"/>
-      <c r="BC91" s="24"/>
-      <c r="BD91" s="24"/>
-      <c r="BE91" s="24"/>
-      <c r="BF91" s="24"/>
-      <c r="BG91" s="24"/>
-      <c r="BH91" s="24"/>
-      <c r="BI91" s="24"/>
-      <c r="BJ91" s="24"/>
-      <c r="BK91" s="24"/>
-      <c r="BM91" s="22"/>
-      <c r="BN91" s="22"/>
-      <c r="BO91" s="22"/>
-      <c r="BP91" s="22"/>
-      <c r="BQ91" s="22"/>
-      <c r="BR91" s="22"/>
-      <c r="BS91" s="24"/>
-      <c r="BT91" s="22"/>
-      <c r="BV91" s="22"/>
-      <c r="BW91" s="22"/>
-      <c r="BX91" s="24"/>
-      <c r="BY91" s="22"/>
-      <c r="BZ91" s="22"/>
-      <c r="CA91" s="22"/>
-      <c r="CB91" s="22"/>
-      <c r="CC91" s="22"/>
-      <c r="CD91" s="22"/>
-      <c r="CE91" s="22"/>
-      <c r="CF91" s="24"/>
-      <c r="CG91" s="24"/>
-      <c r="CH91" s="24"/>
-      <c r="CI91" s="22"/>
-      <c r="CJ91" s="22"/>
-      <c r="CK91" s="22"/>
-      <c r="CL91" s="22"/>
-      <c r="CM91" s="22"/>
-      <c r="CN91" s="22"/>
-      <c r="CO91" s="22"/>
-      <c r="CP91" s="22"/>
-      <c r="CQ91" s="22"/>
-      <c r="CR91" s="22"/>
-      <c r="CS91" s="22"/>
-      <c r="CT91" s="24"/>
-      <c r="CU91" s="24"/>
-    </row>
-    <row r="92" spans="1:132" s="8" customFormat="1">
-      <c r="A92" s="34" t="s">
+      <c r="X96" s="13"/>
+      <c r="Y96" s="13"/>
+      <c r="Z96" s="36"/>
+      <c r="AH96" s="13"/>
+      <c r="AJ96" s="13"/>
+      <c r="AN96" s="13"/>
+      <c r="AO96" s="13"/>
+      <c r="AP96" s="13"/>
+      <c r="AR96" s="13"/>
+      <c r="AS96" s="13"/>
+      <c r="AT96" s="13"/>
+      <c r="AU96" s="13"/>
+      <c r="AV96" s="13"/>
+      <c r="AW96" s="13"/>
+      <c r="AX96" s="13"/>
+      <c r="AY96" s="13"/>
+      <c r="AZ96" s="13"/>
+      <c r="BA96" s="13"/>
+      <c r="BB96" s="13"/>
+      <c r="BC96" s="13"/>
+      <c r="BD96" s="13"/>
+      <c r="BE96" s="13"/>
+      <c r="BF96" s="13"/>
+      <c r="BG96" s="13"/>
+      <c r="BH96" s="13"/>
+      <c r="BI96" s="13"/>
+      <c r="BJ96" s="13"/>
+      <c r="BK96" s="13"/>
+      <c r="BM96" s="4"/>
+      <c r="BN96" s="4"/>
+      <c r="BO96" s="4"/>
+      <c r="BP96" s="4"/>
+      <c r="BQ96" s="4"/>
+      <c r="BR96" s="4"/>
+      <c r="BS96" s="13"/>
+      <c r="BT96" s="4"/>
+      <c r="BV96" s="4"/>
+      <c r="BX96" s="13"/>
+      <c r="BY96" s="4"/>
+      <c r="BZ96" s="4"/>
+      <c r="CA96" s="4"/>
+      <c r="CB96" s="20"/>
+      <c r="CC96" s="13"/>
+      <c r="CE96" s="20"/>
+      <c r="CF96" s="13"/>
+      <c r="CG96" s="13"/>
+      <c r="CH96" s="13"/>
+      <c r="CK96" s="4"/>
+      <c r="CL96" s="4"/>
+      <c r="CM96" s="4"/>
+      <c r="CN96" s="4"/>
+      <c r="CO96" s="4"/>
+      <c r="CP96" s="4"/>
+      <c r="CQ96" s="4"/>
+      <c r="CR96" s="4"/>
+      <c r="CS96" s="4"/>
+      <c r="CT96" s="4"/>
+      <c r="CU96" s="20"/>
+      <c r="DS96" s="4"/>
+      <c r="DT96" s="4"/>
+      <c r="DU96" s="4"/>
+      <c r="DV96" s="4"/>
+      <c r="DW96" s="4"/>
+      <c r="DX96" s="4"/>
+      <c r="DY96" s="4"/>
+      <c r="DZ96" s="4"/>
+      <c r="EA96" s="4"/>
+      <c r="EB96" s="4"/>
+    </row>
+    <row r="97" spans="1:132" s="25" customFormat="1">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="24"/>
+      <c r="V97" s="24"/>
+      <c r="W97" s="24"/>
+      <c r="X97" s="24"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="22"/>
+      <c r="AD97" s="22"/>
+      <c r="AE97" s="22"/>
+      <c r="AF97" s="22"/>
+      <c r="AG97" s="22"/>
+      <c r="AH97" s="24"/>
+      <c r="AI97" s="24"/>
+      <c r="AJ97" s="24"/>
+      <c r="AK97" s="22"/>
+      <c r="AL97" s="22"/>
+      <c r="AM97" s="24"/>
+      <c r="AN97" s="24"/>
+      <c r="AO97" s="24"/>
+      <c r="AP97" s="24"/>
+      <c r="AQ97" s="24"/>
+      <c r="AR97" s="24"/>
+      <c r="AS97" s="24"/>
+      <c r="AT97" s="24"/>
+      <c r="AU97" s="24"/>
+      <c r="AV97" s="24"/>
+      <c r="AW97" s="24"/>
+      <c r="AX97" s="24"/>
+      <c r="AY97" s="24"/>
+      <c r="AZ97" s="24"/>
+      <c r="BA97" s="24"/>
+      <c r="BB97" s="24"/>
+      <c r="BC97" s="24"/>
+      <c r="BD97" s="24"/>
+      <c r="BE97" s="24"/>
+      <c r="BF97" s="24"/>
+      <c r="BG97" s="24"/>
+      <c r="BH97" s="24"/>
+      <c r="BI97" s="24"/>
+      <c r="BJ97" s="24"/>
+      <c r="BK97" s="24"/>
+      <c r="BM97" s="22"/>
+      <c r="BN97" s="22"/>
+      <c r="BO97" s="22"/>
+      <c r="BP97" s="22"/>
+      <c r="BQ97" s="22"/>
+      <c r="BR97" s="22"/>
+      <c r="BS97" s="24"/>
+      <c r="BT97" s="22"/>
+      <c r="BV97" s="22"/>
+      <c r="BW97" s="22"/>
+      <c r="BX97" s="24"/>
+      <c r="BY97" s="22"/>
+      <c r="BZ97" s="22"/>
+      <c r="CA97" s="22"/>
+      <c r="CB97" s="22"/>
+      <c r="CC97" s="22"/>
+      <c r="CD97" s="22"/>
+      <c r="CE97" s="22"/>
+      <c r="CF97" s="24"/>
+      <c r="CG97" s="24"/>
+      <c r="CH97" s="24"/>
+      <c r="CI97" s="22"/>
+      <c r="CJ97" s="22"/>
+      <c r="CK97" s="22"/>
+      <c r="CL97" s="22"/>
+      <c r="CM97" s="22"/>
+      <c r="CN97" s="22"/>
+      <c r="CO97" s="22"/>
+      <c r="CP97" s="22"/>
+      <c r="CQ97" s="22"/>
+      <c r="CR97" s="22"/>
+      <c r="CS97" s="22"/>
+      <c r="CT97" s="24"/>
+      <c r="CU97" s="24"/>
+    </row>
+    <row r="98" spans="1:132" s="25" customFormat="1">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="24"/>
+      <c r="V98" s="24"/>
+      <c r="W98" s="24"/>
+      <c r="X98" s="24"/>
+      <c r="Y98" s="24"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="22"/>
+      <c r="AD98" s="22"/>
+      <c r="AE98" s="22"/>
+      <c r="AF98" s="22"/>
+      <c r="AG98" s="22"/>
+      <c r="AH98" s="24"/>
+      <c r="AI98" s="24"/>
+      <c r="AJ98" s="24"/>
+      <c r="AK98" s="22"/>
+      <c r="AL98" s="22"/>
+      <c r="AM98" s="24"/>
+      <c r="AN98" s="24"/>
+      <c r="AO98" s="24"/>
+      <c r="AP98" s="24"/>
+      <c r="AQ98" s="24"/>
+      <c r="AR98" s="24"/>
+      <c r="AS98" s="24"/>
+      <c r="AT98" s="24"/>
+      <c r="AU98" s="24"/>
+      <c r="AV98" s="24"/>
+      <c r="AW98" s="24"/>
+      <c r="AX98" s="24"/>
+      <c r="AY98" s="24"/>
+      <c r="AZ98" s="24"/>
+      <c r="BA98" s="24"/>
+      <c r="BB98" s="24"/>
+      <c r="BC98" s="24"/>
+      <c r="BD98" s="24"/>
+      <c r="BE98" s="24"/>
+      <c r="BF98" s="24"/>
+      <c r="BG98" s="24"/>
+      <c r="BH98" s="24"/>
+      <c r="BI98" s="24"/>
+      <c r="BJ98" s="24"/>
+      <c r="BK98" s="24"/>
+      <c r="BM98" s="22"/>
+      <c r="BN98" s="22"/>
+      <c r="BO98" s="22"/>
+      <c r="BP98" s="22"/>
+      <c r="BQ98" s="22"/>
+      <c r="BR98" s="22"/>
+      <c r="BS98" s="24"/>
+      <c r="BT98" s="22"/>
+      <c r="BV98" s="22"/>
+      <c r="BW98" s="22"/>
+      <c r="BX98" s="24"/>
+      <c r="BY98" s="22"/>
+      <c r="BZ98" s="22"/>
+      <c r="CA98" s="22"/>
+      <c r="CB98" s="22"/>
+      <c r="CC98" s="22"/>
+      <c r="CD98" s="22"/>
+      <c r="CE98" s="22"/>
+      <c r="CF98" s="24"/>
+      <c r="CG98" s="24"/>
+      <c r="CH98" s="24"/>
+      <c r="CI98" s="22"/>
+      <c r="CJ98" s="22"/>
+      <c r="CK98" s="22"/>
+      <c r="CL98" s="22"/>
+      <c r="CM98" s="22"/>
+      <c r="CN98" s="22"/>
+      <c r="CO98" s="22"/>
+      <c r="CP98" s="22"/>
+      <c r="CQ98" s="22"/>
+      <c r="CR98" s="22"/>
+      <c r="CS98" s="22"/>
+      <c r="CT98" s="24"/>
+      <c r="CU98" s="24"/>
+    </row>
+    <row r="99" spans="1:132" s="25" customFormat="1">
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="24"/>
+      <c r="V99" s="24"/>
+      <c r="W99" s="24"/>
+      <c r="X99" s="24"/>
+      <c r="Y99" s="24"/>
+      <c r="Z99" s="24"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="24"/>
+      <c r="AI99" s="24"/>
+      <c r="AJ99" s="24"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
+      <c r="AM99" s="24"/>
+      <c r="AN99" s="24"/>
+      <c r="AO99" s="24"/>
+      <c r="AP99" s="24"/>
+      <c r="AQ99" s="24"/>
+      <c r="AR99" s="24"/>
+      <c r="AS99" s="24"/>
+      <c r="AT99" s="24"/>
+      <c r="AU99" s="24"/>
+      <c r="AV99" s="24"/>
+      <c r="AW99" s="24"/>
+      <c r="AX99" s="24"/>
+      <c r="AY99" s="24"/>
+      <c r="AZ99" s="24"/>
+      <c r="BA99" s="24"/>
+      <c r="BB99" s="24"/>
+      <c r="BC99" s="24"/>
+      <c r="BD99" s="24"/>
+      <c r="BE99" s="24"/>
+      <c r="BF99" s="24"/>
+      <c r="BG99" s="24"/>
+      <c r="BH99" s="24"/>
+      <c r="BI99" s="24"/>
+      <c r="BJ99" s="24"/>
+      <c r="BK99" s="24"/>
+      <c r="BM99" s="22"/>
+      <c r="BN99" s="22"/>
+      <c r="BO99" s="22"/>
+      <c r="BP99" s="22"/>
+      <c r="BQ99" s="22"/>
+      <c r="BR99" s="22"/>
+      <c r="BS99" s="24"/>
+      <c r="BT99" s="22"/>
+      <c r="BV99" s="22"/>
+      <c r="BW99" s="22"/>
+      <c r="BX99" s="24"/>
+      <c r="BY99" s="22"/>
+      <c r="BZ99" s="22"/>
+      <c r="CA99" s="22"/>
+      <c r="CB99" s="22"/>
+      <c r="CC99" s="22"/>
+      <c r="CD99" s="22"/>
+      <c r="CE99" s="22"/>
+      <c r="CF99" s="24"/>
+      <c r="CG99" s="24"/>
+      <c r="CH99" s="24"/>
+      <c r="CI99" s="22"/>
+      <c r="CJ99" s="22"/>
+      <c r="CK99" s="22"/>
+      <c r="CL99" s="22"/>
+      <c r="CM99" s="22"/>
+      <c r="CN99" s="22"/>
+      <c r="CO99" s="22"/>
+      <c r="CP99" s="22"/>
+      <c r="CQ99" s="22"/>
+      <c r="CR99" s="22"/>
+      <c r="CS99" s="22"/>
+      <c r="CT99" s="24"/>
+      <c r="CU99" s="24"/>
+    </row>
+    <row r="100" spans="1:132" s="8" customFormat="1">
+      <c r="A100" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-      <c r="AG92" s="7"/>
-      <c r="AH92" s="7"/>
-      <c r="AI92" s="7"/>
-      <c r="AJ92" s="7"/>
-      <c r="AK92" s="7"/>
-      <c r="AL92" s="7"/>
-      <c r="AM92" s="7"/>
-      <c r="AN92" s="7"/>
-      <c r="AO92" s="7"/>
-      <c r="AP92" s="7"/>
-      <c r="AQ92" s="7"/>
-      <c r="AR92" s="7"/>
-      <c r="AS92" s="7"/>
-      <c r="AT92" s="7"/>
-      <c r="AU92" s="7"/>
-      <c r="AV92" s="7"/>
-      <c r="AW92" s="7"/>
-      <c r="AX92" s="7"/>
-      <c r="AY92" s="7"/>
-      <c r="AZ92" s="7"/>
-      <c r="BA92" s="7"/>
-      <c r="BB92" s="7"/>
-      <c r="BC92" s="7"/>
-      <c r="BD92" s="7"/>
-      <c r="BE92" s="7"/>
-      <c r="BF92" s="7"/>
-      <c r="BG92" s="7"/>
-      <c r="BH92" s="7"/>
-      <c r="BI92" s="7"/>
-      <c r="BJ92" s="7"/>
-      <c r="BK92" s="7"/>
-      <c r="BM92" s="7"/>
-      <c r="BN92" s="7"/>
-      <c r="BO92" s="7"/>
-      <c r="BP92" s="7"/>
-      <c r="BQ92" s="7"/>
-      <c r="BR92" s="7"/>
-      <c r="BS92" s="7"/>
-      <c r="BT92" s="7"/>
-      <c r="BV92" s="7"/>
-      <c r="BX92" s="7"/>
-      <c r="BY92" s="7"/>
-      <c r="BZ92" s="7"/>
-      <c r="CA92" s="7"/>
-      <c r="CB92" s="7"/>
-      <c r="CL92" s="7"/>
-      <c r="CN92" s="7"/>
-      <c r="CO92" s="7"/>
-      <c r="CP92" s="7"/>
-      <c r="CQ92" s="7"/>
-      <c r="CR92" s="7"/>
-      <c r="CS92" s="7"/>
-      <c r="CT92" s="7"/>
-      <c r="CU92" s="7"/>
-    </row>
-    <row r="93" spans="1:132" s="10" customFormat="1" ht="38.25">
-      <c r="A93" s="16" t="s">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="7"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="7"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="7"/>
+      <c r="AY100" s="7"/>
+      <c r="AZ100" s="7"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" s="7"/>
+      <c r="BC100" s="7"/>
+      <c r="BD100" s="7"/>
+      <c r="BE100" s="7"/>
+      <c r="BF100" s="7"/>
+      <c r="BG100" s="7"/>
+      <c r="BH100" s="7"/>
+      <c r="BI100" s="7"/>
+      <c r="BJ100" s="7"/>
+      <c r="BK100" s="7"/>
+      <c r="BM100" s="7"/>
+      <c r="BN100" s="7"/>
+      <c r="BO100" s="7"/>
+      <c r="BP100" s="7"/>
+      <c r="BQ100" s="7"/>
+      <c r="BR100" s="7"/>
+      <c r="BS100" s="7"/>
+      <c r="BT100" s="7"/>
+      <c r="BV100" s="7"/>
+      <c r="BX100" s="7"/>
+      <c r="BY100" s="7"/>
+      <c r="BZ100" s="7"/>
+      <c r="CA100" s="7"/>
+      <c r="CB100" s="7"/>
+      <c r="CL100" s="7"/>
+      <c r="CN100" s="7"/>
+      <c r="CO100" s="7"/>
+      <c r="CP100" s="7"/>
+      <c r="CQ100" s="7"/>
+      <c r="CR100" s="7"/>
+      <c r="CS100" s="7"/>
+      <c r="CT100" s="7"/>
+      <c r="CU100" s="7"/>
+    </row>
+    <row r="101" spans="1:132" s="10" customFormat="1" ht="38.25">
+      <c r="A101" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B101" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D101" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E101" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G101" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H101" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I93" s="14" t="s">
+      <c r="I101" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J93" s="14" t="s">
+      <c r="J101" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="K101" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L93" s="14" t="s">
+      <c r="L101" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M93" s="14" t="s">
+      <c r="M101" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N93" s="14" t="s">
+      <c r="N101" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O93" s="14" t="s">
+      <c r="O101" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P93" s="14" t="s">
+      <c r="P101" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Q93" s="14" t="s">
+      <c r="Q101" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="R93" s="14" t="s">
+      <c r="R101" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14" t="s">
+      <c r="S101" s="14"/>
+      <c r="T101" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U93" s="6" t="s">
+      <c r="U101" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V93" s="6" t="s">
+      <c r="V101" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W93" s="6" t="s">
+      <c r="W101" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X93" s="6" t="s">
+      <c r="X101" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y93" s="6" t="s">
+      <c r="Y101" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Z93" s="6" t="s">
+      <c r="Z101" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AA93" s="14" t="s">
+      <c r="AA101" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AB93" s="16" t="s">
+      <c r="AB101" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AC93" s="16" t="s">
+      <c r="AC101" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AD93" s="14" t="s">
+      <c r="AD101" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AE93" s="14" t="s">
+      <c r="AE101" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AF93" s="14" t="s">
+      <c r="AF101" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AG93" s="14" t="s">
+      <c r="AG101" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AH93" s="6" t="s">
+      <c r="AH101" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AI93" s="17" t="s">
+      <c r="AI101" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AJ93" s="6" t="s">
+      <c r="AJ101" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AK93" s="14" t="s">
+      <c r="AK101" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AL93" s="14" t="s">
+      <c r="AL101" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AM93" s="17" t="s">
+      <c r="AM101" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AN93" s="6" t="s">
+      <c r="AN101" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AO93" s="6" t="s">
+      <c r="AO101" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AP93" s="6" t="s">
+      <c r="AP101" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ93" s="6" t="s">
+      <c r="AQ101" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR93" s="17" t="s">
+      <c r="AR101" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AS93" s="6" t="s">
+      <c r="AS101" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AT93" s="6" t="s">
+      <c r="AT101" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AU93" s="6" t="s">
+      <c r="AU101" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AV93" s="17" t="s">
+      <c r="AV101" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AW93" s="17" t="s">
+      <c r="AW101" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="AX93" s="6" t="s">
+      <c r="AX101" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AY93" s="6" t="s">
+      <c r="AY101" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AZ93" s="6" t="s">
+      <c r="AZ101" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BA93" s="17" t="s">
+      <c r="BA101" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="BB93" s="17" t="s">
+      <c r="BB101" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BC93" s="17" t="s">
+      <c r="BC101" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BD93" s="17" t="s">
+      <c r="BD101" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="BE93" s="6" t="s">
+      <c r="BE101" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BF93" s="6" t="s">
+      <c r="BF101" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BG93" s="6" t="s">
+      <c r="BG101" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BH93" s="6" t="s">
+      <c r="BH101" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BI93" s="17" t="s">
+      <c r="BI101" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BJ93" s="17" t="s">
+      <c r="BJ101" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK93" s="6" t="s">
+      <c r="BK101" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BL93" s="14" t="s">
+      <c r="BL101" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="BM93" s="15" t="s">
+      <c r="BM101" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="BN93" s="35" t="s">
+      <c r="BN101" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BO93" s="15" t="s">
+      <c r="BO101" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="BP93" s="15" t="s">
+      <c r="BP101" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="BQ93" s="15" t="s">
+      <c r="BQ101" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BR93" s="15" t="s">
+      <c r="BR101" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BS93" s="6" t="s">
+      <c r="BS101" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="BT93" s="15" t="s">
+      <c r="BT101" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="BU93" s="14" t="s">
+      <c r="BU101" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="BV93" s="15" t="s">
+      <c r="BV101" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="BW93" s="16" t="s">
+      <c r="BW101" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BX93" s="6" t="s">
+      <c r="BX101" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="BY93" s="15" t="s">
+      <c r="BY101" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="BZ93" s="15" t="s">
+      <c r="BZ101" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="CA93" s="15" t="s">
+      <c r="CA101" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="CB93" s="16" t="s">
+      <c r="CB101" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="CC93" s="14" t="s">
+      <c r="CC101" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="CD93" s="14" t="s">
+      <c r="CD101" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="CE93" s="16" t="s">
+      <c r="CE101" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="CF93" s="17" t="s">
+      <c r="CF101" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="CG93" s="17" t="s">
+      <c r="CG101" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="CH93" s="17" t="s">
+      <c r="CH101" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="CI93" s="16" t="s">
+      <c r="CI101" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="CJ93" s="16" t="s">
+      <c r="CJ101" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="CK93" s="16" t="s">
+      <c r="CK101" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="CL93" s="15" t="s">
+      <c r="CL101" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CM93" s="16" t="s">
+      <c r="CM101" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="CN93" s="16" t="s">
+      <c r="CN101" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="CO93" s="15" t="s">
+      <c r="CO101" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="CP93" s="15" t="s">
+      <c r="CP101" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="CQ93" s="15" t="s">
+      <c r="CQ101" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR93" s="16" t="s">
+      <c r="CR101" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="CS93" s="16" t="s">
+      <c r="CS101" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="CT93" s="6" t="s">
+      <c r="CT101" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="CU93" s="6" t="s">
+      <c r="CU101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV93" s="14" t="s">
+      <c r="CV101" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="CW93" s="6" t="s">
+      <c r="CW101" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="CX93" s="14" t="s">
+      <c r="CX101" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="CY93" s="15" t="s">
+      <c r="CY101" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="CZ93" s="14" t="s">
+      <c r="CZ101" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="DA93" s="14" t="s">
+      <c r="DA101" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="DB93" s="14" t="s">
+      <c r="DB101" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="DC93" s="6" t="s">
+      <c r="DC101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="DD93" s="14" t="s">
+      <c r="DD101" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="DE93" s="14" t="s">
+      <c r="DE101" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="DF93" s="6" t="s">
+      <c r="DF101" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="DG93" s="6" t="s">
+      <c r="DG101" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="DH93" s="6" t="s">
+      <c r="DH101" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="DI93" s="6" t="s">
+      <c r="DI101" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="DJ93" s="6" t="s">
+      <c r="DJ101" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="DK93" s="14" t="s">
+      <c r="DK101" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="DL93" s="14" t="s">
+      <c r="DL101" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="DM93" s="14" t="s">
+      <c r="DM101" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="DN93" s="6" t="s">
+      <c r="DN101" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="DO93" s="6" t="s">
+      <c r="DO101" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="DP93" s="14" t="s">
+      <c r="DP101" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="DQ93" s="14" t="s">
+      <c r="DQ101" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="DR93" s="6" t="s">
+      <c r="DR101" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="DS93" s="6" t="s">
+      <c r="DS101" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A94" s="26" t="s">
+    <row r="102" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A102" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B102" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C102" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K102" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L94" s="5" t="s">
+      <c r="L102" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N102" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q102" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R94" s="5" t="s">
+      <c r="R102" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="T94" s="5" t="s">
+      <c r="T102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U94" s="13" t="s">
+      <c r="U102" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V94" s="13" t="s">
+      <c r="V102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13" t="s">
+      <c r="W102" s="13"/>
+      <c r="X102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y94" s="13" t="s">
+      <c r="Y102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z94" s="6" t="s">
+      <c r="Z102" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA94" s="5" t="s">
+      <c r="AA102" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AB94" s="5" t="s">
+      <c r="AB102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AC94" s="5" t="s">
+      <c r="AC102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD94" s="5" t="s">
+      <c r="AD102" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AE94" s="5" t="s">
+      <c r="AE102" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AF94" s="5" t="s">
+      <c r="AF102" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AG94" s="5" t="s">
+      <c r="AG102" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AH94" s="13" t="s">
+      <c r="AH102" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AI94" s="5" t="s">
+      <c r="AI102" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AJ94" s="13" t="s">
+      <c r="AJ102" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AK94" s="5" t="s">
+      <c r="AK102" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AL94" s="5" t="s">
+      <c r="AL102" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AM94" s="5" t="s">
+      <c r="AM102" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AN94" s="13"/>
-      <c r="AO94" s="13"/>
-      <c r="AP94" s="13"/>
-      <c r="AR94" s="13" t="s">
+      <c r="AN102" s="13"/>
+      <c r="AO102" s="13"/>
+      <c r="AP102" s="13"/>
+      <c r="AR102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AS94" s="13"/>
-      <c r="AT94" s="13"/>
-      <c r="AU94" s="13" t="s">
+      <c r="AS102" s="13"/>
+      <c r="AT102" s="13"/>
+      <c r="AU102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AV94" s="13" t="s">
+      <c r="AV102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AW94" s="13" t="s">
+      <c r="AW102" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AX94" s="13" t="s">
+      <c r="AX102" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AY94" s="13"/>
-      <c r="AZ94" s="13"/>
-      <c r="BA94" s="13" t="s">
+      <c r="AY102" s="13"/>
+      <c r="AZ102" s="13"/>
+      <c r="BA102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BB94" s="13"/>
-      <c r="BC94" s="13"/>
-      <c r="BD94" s="13" t="s">
+      <c r="BB102" s="13"/>
+      <c r="BC102" s="13"/>
+      <c r="BD102" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BE94" s="13" t="s">
+      <c r="BE102" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BF94" s="13" t="s">
+      <c r="BF102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BG94" s="13" t="s">
+      <c r="BG102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BH94" s="13" t="s">
+      <c r="BH102" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="BI94" s="13" t="s">
+      <c r="BI102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BJ94" s="13" t="s">
+      <c r="BJ102" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="BK94" s="13" t="s">
+      <c r="BK102" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BM94" s="4" t="s">
+      <c r="BM102" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BN94" s="4"/>
-      <c r="BO94" s="4"/>
-      <c r="BP94" s="4"/>
-      <c r="BQ94" s="4" t="s">
+      <c r="BN102" s="4"/>
+      <c r="BO102" s="4"/>
+      <c r="BP102" s="4"/>
+      <c r="BQ102" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BR94" s="4"/>
-      <c r="BS94" s="13"/>
-      <c r="BT94" s="4"/>
-      <c r="BV94" s="4"/>
-      <c r="BW94" s="5" t="s">
+      <c r="BR102" s="4"/>
+      <c r="BS102" s="13"/>
+      <c r="BT102" s="4"/>
+      <c r="BV102" s="4"/>
+      <c r="BW102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BX94" s="13"/>
-      <c r="BY94" s="4" t="s">
+      <c r="BX102" s="13"/>
+      <c r="BY102" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BZ94" s="4" t="s">
+      <c r="BZ102" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="CA94" s="4"/>
-      <c r="CB94" s="20" t="s">
+      <c r="CA102" s="4"/>
+      <c r="CB102" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CC94" s="13" t="s">
+      <c r="CC102" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="CD94" s="5" t="s">
+      <c r="CD102" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CE94" s="20" t="s">
+      <c r="CE102" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CF94" s="13" t="s">
+      <c r="CF102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="CG94" s="13" t="s">
+      <c r="CG102" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="CH94" s="13" t="s">
+      <c r="CH102" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="CI94" s="5" t="s">
+      <c r="CI102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="CJ94" s="5" t="s">
+      <c r="CJ102" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="CK94" s="4" t="s">
+      <c r="CK102" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL94" s="4" t="s">
+      <c r="CL102" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="CM94" s="4" t="s">
+      <c r="CM102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CN94" s="4" t="s">
+      <c r="CN102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CO94" s="4" t="s">
+      <c r="CO102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CP94" s="4" t="s">
+      <c r="CP102" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CQ94" s="4" t="s">
+      <c r="CQ102" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CR94" s="4" t="s">
+      <c r="CR102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CS94" s="4"/>
-      <c r="CT94" s="4" t="s">
+      <c r="CS102" s="4"/>
+      <c r="CT102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CU94" s="20" t="s">
+      <c r="CU102" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:132" s="8" customFormat="1">
-      <c r="A95" s="34" t="s">
+    <row r="103" spans="1:132" s="8" customFormat="1">
+      <c r="A103" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AG95" s="7"/>
-      <c r="AH95" s="7"/>
-      <c r="AI95" s="7"/>
-      <c r="AJ95" s="7"/>
-      <c r="AK95" s="7"/>
-      <c r="AL95" s="7"/>
-      <c r="AM95" s="7"/>
-      <c r="AN95" s="7"/>
-      <c r="AO95" s="7"/>
-      <c r="AP95" s="7"/>
-      <c r="AQ95" s="7"/>
-      <c r="AR95" s="7"/>
-      <c r="AS95" s="7"/>
-      <c r="AT95" s="7"/>
-      <c r="AU95" s="7"/>
-      <c r="AV95" s="7"/>
-      <c r="AW95" s="7"/>
-      <c r="AX95" s="7"/>
-      <c r="AY95" s="7"/>
-      <c r="AZ95" s="7"/>
-      <c r="BA95" s="7"/>
-      <c r="BB95" s="7"/>
-      <c r="BC95" s="7"/>
-      <c r="BD95" s="7"/>
-      <c r="BE95" s="7"/>
-      <c r="BF95" s="7"/>
-      <c r="BG95" s="7"/>
-      <c r="BH95" s="7"/>
-      <c r="BI95" s="7"/>
-      <c r="BJ95" s="7"/>
-      <c r="BK95" s="7"/>
-      <c r="BM95" s="7"/>
-      <c r="BN95" s="7"/>
-      <c r="BO95" s="7"/>
-      <c r="BP95" s="7"/>
-      <c r="BQ95" s="7"/>
-      <c r="BR95" s="7"/>
-      <c r="BS95" s="7"/>
-      <c r="BT95" s="7"/>
-      <c r="BV95" s="7"/>
-      <c r="BX95" s="7"/>
-      <c r="BY95" s="7"/>
-      <c r="BZ95" s="7"/>
-      <c r="CA95" s="7"/>
-      <c r="CB95" s="7"/>
-      <c r="CL95" s="7"/>
-      <c r="CN95" s="7"/>
-      <c r="CO95" s="7"/>
-      <c r="CP95" s="7"/>
-      <c r="CQ95" s="7"/>
-      <c r="CR95" s="7"/>
-      <c r="CS95" s="7"/>
-      <c r="CT95" s="7"/>
-      <c r="CU95" s="7"/>
-    </row>
-    <row r="96" spans="1:132" s="10" customFormat="1">
-      <c r="A96" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="H96" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="I96" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J96" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K96" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="L96" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="M96" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="N96" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="O96" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="P96" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q96" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="R96" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="S96" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="T96" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="U96" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="V96" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="38"/>
-      <c r="AB96" s="16"/>
-      <c r="AC96" s="16"/>
-      <c r="AD96" s="38"/>
-      <c r="AE96" s="38"/>
-      <c r="AF96" s="38"/>
-      <c r="AG96" s="38"/>
-      <c r="AH96" s="36"/>
-      <c r="AI96" s="17"/>
-      <c r="AJ96" s="36"/>
-      <c r="AK96" s="38"/>
-      <c r="AL96" s="38"/>
-      <c r="AM96" s="17"/>
-      <c r="AN96" s="36"/>
-      <c r="AO96" s="36"/>
-      <c r="AP96" s="36"/>
-      <c r="AQ96" s="36"/>
-      <c r="AR96" s="17"/>
-      <c r="AS96" s="36"/>
-      <c r="AT96" s="36"/>
-      <c r="AU96" s="36"/>
-      <c r="AV96" s="17"/>
-      <c r="AW96" s="17"/>
-      <c r="AX96" s="36"/>
-      <c r="AY96" s="36"/>
-      <c r="AZ96" s="36"/>
-      <c r="BA96" s="17"/>
-      <c r="BB96" s="17"/>
-      <c r="BC96" s="17"/>
-      <c r="BD96" s="17"/>
-      <c r="BE96" s="36"/>
-      <c r="BF96" s="36"/>
-      <c r="BG96" s="36"/>
-      <c r="BH96" s="36"/>
-      <c r="BI96" s="17"/>
-      <c r="BJ96" s="17"/>
-      <c r="BK96" s="36"/>
-      <c r="BL96" s="38"/>
-      <c r="BM96" s="15"/>
-      <c r="BN96" s="15"/>
-      <c r="BO96" s="15"/>
-      <c r="BP96" s="15"/>
-      <c r="BQ96" s="15"/>
-      <c r="BR96" s="15"/>
-      <c r="BS96" s="36"/>
-      <c r="BT96" s="15"/>
-      <c r="BU96" s="38"/>
-      <c r="BV96" s="15"/>
-      <c r="BW96" s="16"/>
-      <c r="BX96" s="36"/>
-      <c r="BY96" s="15"/>
-      <c r="BZ96" s="15"/>
-      <c r="CA96" s="15"/>
-      <c r="CB96" s="16"/>
-      <c r="CC96" s="38"/>
-      <c r="CD96" s="38"/>
-      <c r="CE96" s="16"/>
-      <c r="CF96" s="17"/>
-      <c r="CG96" s="17"/>
-      <c r="CH96" s="17"/>
-      <c r="CI96" s="16"/>
-      <c r="CJ96" s="16"/>
-      <c r="CK96" s="16"/>
-      <c r="CL96" s="16"/>
-      <c r="CM96" s="16"/>
-      <c r="CN96" s="16"/>
-      <c r="CO96" s="16"/>
-      <c r="CP96" s="15"/>
-      <c r="CQ96" s="16"/>
-      <c r="CR96" s="16"/>
-      <c r="CS96" s="16"/>
-      <c r="CT96" s="36"/>
-      <c r="CU96" s="17"/>
-      <c r="CV96" s="38"/>
-      <c r="CW96" s="36"/>
-      <c r="CX96" s="38"/>
-      <c r="CY96" s="15"/>
-      <c r="CZ96" s="38"/>
-      <c r="DA96" s="38"/>
-      <c r="DB96" s="38"/>
-      <c r="DC96" s="36"/>
-      <c r="DD96" s="38"/>
-      <c r="DE96" s="38"/>
-      <c r="DF96" s="36"/>
-      <c r="DG96" s="36"/>
-      <c r="DH96" s="36"/>
-      <c r="DI96" s="36"/>
-      <c r="DJ96" s="36"/>
-      <c r="DK96" s="38"/>
-      <c r="DL96" s="38"/>
-      <c r="DM96" s="38"/>
-      <c r="DN96" s="36"/>
-      <c r="DO96" s="36"/>
-      <c r="DP96" s="38"/>
-      <c r="DQ96" s="38"/>
-      <c r="DR96" s="36"/>
-      <c r="DS96" s="36"/>
-      <c r="DT96" s="15"/>
-      <c r="DU96" s="15"/>
-      <c r="DV96" s="16"/>
-      <c r="DW96" s="36"/>
-      <c r="DX96" s="38"/>
-      <c r="DY96" s="15"/>
-      <c r="DZ96" s="16"/>
-      <c r="EA96" s="16"/>
-      <c r="EB96" s="36"/>
-    </row>
-    <row r="97" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A97" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="L97" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N97" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P97" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q97" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="R97" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S97" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="T97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="U97" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="V97" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="W97" s="13"/>
-      <c r="X97" s="13"/>
-      <c r="Y97" s="13"/>
-      <c r="Z97" s="36"/>
-      <c r="AH97" s="13"/>
-      <c r="AJ97" s="13"/>
-      <c r="AN97" s="13"/>
-      <c r="AO97" s="13"/>
-      <c r="AP97" s="13"/>
-      <c r="AR97" s="13"/>
-      <c r="AS97" s="13"/>
-      <c r="AT97" s="13"/>
-      <c r="AU97" s="13"/>
-      <c r="AV97" s="13"/>
-      <c r="AW97" s="13"/>
-      <c r="AX97" s="13"/>
-      <c r="AY97" s="13"/>
-      <c r="AZ97" s="13"/>
-      <c r="BA97" s="13"/>
-      <c r="BB97" s="13"/>
-      <c r="BC97" s="13"/>
-      <c r="BD97" s="13"/>
-      <c r="BE97" s="13"/>
-      <c r="BF97" s="13"/>
-      <c r="BG97" s="13"/>
-      <c r="BH97" s="13"/>
-      <c r="BI97" s="13"/>
-      <c r="BJ97" s="13"/>
-      <c r="BK97" s="13"/>
-      <c r="BM97" s="4"/>
-      <c r="BN97" s="4"/>
-      <c r="BO97" s="4"/>
-      <c r="BP97" s="4"/>
-      <c r="BQ97" s="4"/>
-      <c r="BR97" s="4"/>
-      <c r="BS97" s="13"/>
-      <c r="BT97" s="4"/>
-      <c r="BV97" s="4"/>
-      <c r="BX97" s="13"/>
-      <c r="BY97" s="4"/>
-      <c r="BZ97" s="4"/>
-      <c r="CA97" s="4"/>
-      <c r="CB97" s="20"/>
-      <c r="CC97" s="13"/>
-      <c r="CE97" s="20"/>
-      <c r="CF97" s="13"/>
-      <c r="CG97" s="13"/>
-      <c r="CH97" s="13"/>
-      <c r="CK97" s="4"/>
-      <c r="CL97" s="4"/>
-      <c r="CM97" s="4"/>
-      <c r="CN97" s="4"/>
-      <c r="CO97" s="4"/>
-      <c r="CP97" s="4"/>
-      <c r="CQ97" s="4"/>
-      <c r="CR97" s="4"/>
-      <c r="CS97" s="4"/>
-      <c r="CT97" s="4"/>
-      <c r="CU97" s="20"/>
-      <c r="DS97" s="4"/>
-      <c r="DT97" s="4"/>
-      <c r="DU97" s="4"/>
-      <c r="DV97" s="4"/>
-      <c r="DW97" s="4"/>
-      <c r="DX97" s="4"/>
-      <c r="DY97" s="4"/>
-      <c r="DZ97" s="4"/>
-      <c r="EA97" s="4"/>
-      <c r="EB97" s="4"/>
-    </row>
-    <row r="98" spans="1:132">
-      <c r="A98" s="12"/>
-    </row>
-    <row r="99" spans="1:132" s="8" customFormat="1">
-      <c r="A99" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-      <c r="Z99" s="7"/>
-      <c r="AG99" s="7"/>
-      <c r="AH99" s="7"/>
-      <c r="AI99" s="7"/>
-      <c r="AJ99" s="7"/>
-      <c r="AK99" s="7"/>
-      <c r="AL99" s="7"/>
-      <c r="AM99" s="7"/>
-      <c r="AN99" s="7"/>
-      <c r="AO99" s="7"/>
-      <c r="AP99" s="7"/>
-      <c r="AQ99" s="7"/>
-      <c r="AR99" s="7"/>
-      <c r="AS99" s="7"/>
-      <c r="AT99" s="7"/>
-      <c r="AU99" s="7"/>
-      <c r="AV99" s="7"/>
-      <c r="AW99" s="7"/>
-      <c r="AX99" s="7"/>
-      <c r="AY99" s="7"/>
-      <c r="AZ99" s="7"/>
-      <c r="BA99" s="7"/>
-      <c r="BB99" s="7"/>
-      <c r="BC99" s="7"/>
-      <c r="BD99" s="7"/>
-      <c r="BE99" s="7"/>
-      <c r="BF99" s="7"/>
-      <c r="BG99" s="7"/>
-      <c r="BH99" s="7"/>
-      <c r="BI99" s="7"/>
-      <c r="BJ99" s="7"/>
-      <c r="BK99" s="7"/>
-      <c r="BM99" s="7"/>
-      <c r="BN99" s="7"/>
-      <c r="BO99" s="7"/>
-      <c r="BP99" s="7"/>
-      <c r="BQ99" s="7"/>
-      <c r="BR99" s="7"/>
-      <c r="BS99" s="7"/>
-      <c r="BT99" s="7"/>
-      <c r="BV99" s="7"/>
-      <c r="BX99" s="7"/>
-      <c r="BY99" s="7"/>
-      <c r="BZ99" s="7"/>
-      <c r="CA99" s="7"/>
-      <c r="CB99" s="7"/>
-      <c r="CL99" s="7"/>
-      <c r="CN99" s="7"/>
-      <c r="CO99" s="7"/>
-      <c r="CP99" s="7"/>
-      <c r="CQ99" s="7"/>
-      <c r="CR99" s="7"/>
-      <c r="CS99" s="7"/>
-      <c r="CT99" s="7"/>
-      <c r="CU99" s="7"/>
-    </row>
-    <row r="100" spans="1:132" s="10" customFormat="1">
-      <c r="A100" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K100" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="L100" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M100" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="N100" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O100" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="P100" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q100" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="R100" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="S100" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="T100" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="U100" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="16"/>
-      <c r="AC100" s="16"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="14"/>
-      <c r="AF100" s="14"/>
-      <c r="AG100" s="14"/>
-      <c r="AH100" s="6"/>
-      <c r="AI100" s="17"/>
-      <c r="AJ100" s="6"/>
-      <c r="AK100" s="14"/>
-      <c r="AL100" s="14"/>
-      <c r="AM100" s="17"/>
-      <c r="AN100" s="6"/>
-      <c r="AO100" s="6"/>
-      <c r="AP100" s="6"/>
-      <c r="AQ100" s="6"/>
-      <c r="AR100" s="17"/>
-      <c r="AS100" s="6"/>
-      <c r="AT100" s="6"/>
-      <c r="AU100" s="6"/>
-      <c r="AV100" s="17"/>
-      <c r="AW100" s="17"/>
-      <c r="AX100" s="6"/>
-      <c r="AY100" s="6"/>
-      <c r="AZ100" s="6"/>
-      <c r="BA100" s="17"/>
-      <c r="BB100" s="17"/>
-      <c r="BC100" s="17"/>
-      <c r="BD100" s="17"/>
-      <c r="BE100" s="6"/>
-      <c r="BF100" s="6"/>
-      <c r="BG100" s="6"/>
-      <c r="BH100" s="6"/>
-      <c r="BI100" s="17"/>
-      <c r="BJ100" s="17"/>
-      <c r="BK100" s="6"/>
-      <c r="BL100" s="14"/>
-      <c r="BM100" s="15"/>
-      <c r="BN100" s="15"/>
-      <c r="BO100" s="15"/>
-      <c r="BP100" s="15"/>
-      <c r="BQ100" s="15"/>
-      <c r="BR100" s="15"/>
-      <c r="BS100" s="6"/>
-      <c r="BT100" s="15"/>
-      <c r="BU100" s="14"/>
-      <c r="BV100" s="15"/>
-      <c r="BW100" s="16"/>
-      <c r="BX100" s="6"/>
-      <c r="BY100" s="15"/>
-      <c r="BZ100" s="15"/>
-      <c r="CA100" s="15"/>
-      <c r="CB100" s="16"/>
-      <c r="CC100" s="14"/>
-      <c r="CD100" s="14"/>
-      <c r="CE100" s="16"/>
-      <c r="CF100" s="17"/>
-      <c r="CG100" s="17"/>
-      <c r="CH100" s="17"/>
-      <c r="CI100" s="16"/>
-      <c r="CJ100" s="16"/>
-      <c r="CK100" s="16"/>
-      <c r="CL100" s="16"/>
-      <c r="CM100" s="16"/>
-      <c r="CN100" s="16"/>
-      <c r="CO100" s="16"/>
-      <c r="CP100" s="15"/>
-      <c r="CQ100" s="16"/>
-      <c r="CR100" s="16"/>
-      <c r="CS100" s="16"/>
-      <c r="CT100" s="6"/>
-      <c r="CU100" s="17"/>
-      <c r="CV100" s="14"/>
-      <c r="CW100" s="6"/>
-      <c r="CX100" s="14"/>
-      <c r="CY100" s="15"/>
-      <c r="CZ100" s="14"/>
-      <c r="DA100" s="14"/>
-      <c r="DB100" s="14"/>
-      <c r="DC100" s="6"/>
-      <c r="DD100" s="14"/>
-      <c r="DE100" s="14"/>
-      <c r="DF100" s="6"/>
-      <c r="DG100" s="6"/>
-      <c r="DH100" s="6"/>
-      <c r="DI100" s="6"/>
-      <c r="DJ100" s="6"/>
-      <c r="DK100" s="14"/>
-      <c r="DL100" s="14"/>
-      <c r="DM100" s="14"/>
-      <c r="DN100" s="6"/>
-      <c r="DO100" s="6"/>
-      <c r="DP100" s="14"/>
-      <c r="DQ100" s="14"/>
-      <c r="DR100" s="6"/>
-      <c r="DS100" s="6"/>
-      <c r="DT100" s="15"/>
-      <c r="DU100" s="15"/>
-      <c r="DV100" s="16"/>
-      <c r="DW100" s="6"/>
-      <c r="DX100" s="14"/>
-      <c r="DY100" s="15"/>
-      <c r="DZ100" s="16"/>
-      <c r="EA100" s="16"/>
-      <c r="EB100" s="6"/>
-    </row>
-    <row r="101" spans="1:132" s="5" customFormat="1" ht="38.25">
-      <c r="A101" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N101" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q101" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="R101" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S101" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="T101" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
-      <c r="Y101" s="13"/>
-      <c r="Z101" s="6"/>
-      <c r="AH101" s="13"/>
-      <c r="AJ101" s="13"/>
-      <c r="AN101" s="13"/>
-      <c r="AO101" s="13"/>
-      <c r="AP101" s="13"/>
-      <c r="AR101" s="13"/>
-      <c r="AS101" s="13"/>
-      <c r="AT101" s="13"/>
-      <c r="AU101" s="13"/>
-      <c r="AV101" s="13"/>
-      <c r="AW101" s="13"/>
-      <c r="AX101" s="13"/>
-      <c r="AY101" s="13"/>
-      <c r="AZ101" s="13"/>
-      <c r="BA101" s="13"/>
-      <c r="BB101" s="13"/>
-      <c r="BC101" s="13"/>
-      <c r="BD101" s="13"/>
-      <c r="BE101" s="13"/>
-      <c r="BF101" s="13"/>
-      <c r="BG101" s="13"/>
-      <c r="BH101" s="13"/>
-      <c r="BI101" s="13"/>
-      <c r="BJ101" s="13"/>
-      <c r="BK101" s="13"/>
-      <c r="BM101" s="4"/>
-      <c r="BN101" s="4"/>
-      <c r="BO101" s="4"/>
-      <c r="BP101" s="4"/>
-      <c r="BQ101" s="4"/>
-      <c r="BR101" s="4"/>
-      <c r="BS101" s="13"/>
-      <c r="BT101" s="4"/>
-      <c r="BV101" s="4"/>
-      <c r="BX101" s="13"/>
-      <c r="BY101" s="4"/>
-      <c r="BZ101" s="4"/>
-      <c r="CA101" s="4"/>
-      <c r="CB101" s="20"/>
-      <c r="CC101" s="13"/>
-      <c r="CE101" s="20"/>
-      <c r="CF101" s="13"/>
-      <c r="CG101" s="13"/>
-      <c r="CH101" s="13"/>
-      <c r="CK101" s="4"/>
-      <c r="CL101" s="4"/>
-      <c r="CM101" s="4"/>
-      <c r="CN101" s="4"/>
-      <c r="CO101" s="4"/>
-      <c r="CP101" s="4"/>
-      <c r="CQ101" s="4"/>
-      <c r="CR101" s="4"/>
-      <c r="CS101" s="4"/>
-      <c r="CT101" s="4"/>
-      <c r="CU101" s="20"/>
-      <c r="DS101" s="4"/>
-      <c r="DT101" s="4"/>
-      <c r="DU101" s="4"/>
-      <c r="DV101" s="4"/>
-      <c r="DW101" s="4"/>
-      <c r="DX101" s="4"/>
-      <c r="DY101" s="4"/>
-      <c r="DZ101" s="4"/>
-      <c r="EA101" s="4"/>
-      <c r="EB101" s="4"/>
-    </row>
-    <row r="102" spans="1:132">
-      <c r="A102" s="12"/>
-    </row>
-    <row r="103" spans="1:132">
-      <c r="A103" s="34" t="s">
-        <v>204</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7"/>
+      <c r="AK103" s="7"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+      <c r="AO103" s="7"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="7"/>
+      <c r="AS103" s="7"/>
+      <c r="AT103" s="7"/>
+      <c r="AU103" s="7"/>
+      <c r="AV103" s="7"/>
+      <c r="AW103" s="7"/>
+      <c r="AX103" s="7"/>
+      <c r="AY103" s="7"/>
+      <c r="AZ103" s="7"/>
+      <c r="BA103" s="7"/>
+      <c r="BB103" s="7"/>
+      <c r="BC103" s="7"/>
+      <c r="BD103" s="7"/>
+      <c r="BE103" s="7"/>
+      <c r="BF103" s="7"/>
+      <c r="BG103" s="7"/>
+      <c r="BH103" s="7"/>
+      <c r="BI103" s="7"/>
+      <c r="BJ103" s="7"/>
+      <c r="BK103" s="7"/>
+      <c r="BM103" s="7"/>
+      <c r="BN103" s="7"/>
+      <c r="BO103" s="7"/>
+      <c r="BP103" s="7"/>
+      <c r="BQ103" s="7"/>
+      <c r="BR103" s="7"/>
+      <c r="BS103" s="7"/>
+      <c r="BT103" s="7"/>
+      <c r="BV103" s="7"/>
+      <c r="BX103" s="7"/>
+      <c r="BY103" s="7"/>
+      <c r="BZ103" s="7"/>
+      <c r="CA103" s="7"/>
+      <c r="CB103" s="7"/>
+      <c r="CL103" s="7"/>
+      <c r="CN103" s="7"/>
+      <c r="CO103" s="7"/>
+      <c r="CP103" s="7"/>
+      <c r="CQ103" s="7"/>
+      <c r="CR103" s="7"/>
+      <c r="CS103" s="7"/>
+      <c r="CT103" s="7"/>
+      <c r="CU103" s="7"/>
     </row>
     <row r="104" spans="1:132" s="10" customFormat="1">
       <c r="A104" s="16" t="s">
@@ -11968,22 +12040,22 @@
       <c r="B104" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="38" t="s">
         <v>151</v>
       </c>
       <c r="E104" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="38" t="s">
         <v>165</v>
       </c>
       <c r="I104" s="38" t="s">
@@ -11992,100 +12064,102 @@
       <c r="J104" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="K104" s="14" t="s">
+      <c r="K104" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="L104" s="14" t="s">
+      <c r="L104" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="M104" s="14" t="s">
+      <c r="M104" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="N104" s="14" t="s">
+      <c r="N104" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O104" s="14" t="s">
+      <c r="O104" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P104" s="14" t="s">
+      <c r="P104" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Q104" s="14" t="s">
+      <c r="Q104" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="R104" s="14" t="s">
+      <c r="R104" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S104" s="14" t="s">
+      <c r="S104" s="38" t="s">
         <v>206</v>
       </c>
       <c r="T104" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="U104" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
-      <c r="AA104" s="14"/>
+      <c r="U104" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="V104" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="38"/>
       <c r="AB104" s="16"/>
       <c r="AC104" s="16"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="14"/>
-      <c r="AF104" s="14"/>
-      <c r="AG104" s="14"/>
-      <c r="AH104" s="6"/>
+      <c r="AD104" s="38"/>
+      <c r="AE104" s="38"/>
+      <c r="AF104" s="38"/>
+      <c r="AG104" s="38"/>
+      <c r="AH104" s="36"/>
       <c r="AI104" s="17"/>
-      <c r="AJ104" s="6"/>
-      <c r="AK104" s="14"/>
-      <c r="AL104" s="14"/>
+      <c r="AJ104" s="36"/>
+      <c r="AK104" s="38"/>
+      <c r="AL104" s="38"/>
       <c r="AM104" s="17"/>
-      <c r="AN104" s="6"/>
-      <c r="AO104" s="6"/>
-      <c r="AP104" s="6"/>
-      <c r="AQ104" s="6"/>
+      <c r="AN104" s="36"/>
+      <c r="AO104" s="36"/>
+      <c r="AP104" s="36"/>
+      <c r="AQ104" s="36"/>
       <c r="AR104" s="17"/>
-      <c r="AS104" s="6"/>
-      <c r="AT104" s="6"/>
-      <c r="AU104" s="6"/>
+      <c r="AS104" s="36"/>
+      <c r="AT104" s="36"/>
+      <c r="AU104" s="36"/>
       <c r="AV104" s="17"/>
       <c r="AW104" s="17"/>
-      <c r="AX104" s="6"/>
-      <c r="AY104" s="6"/>
-      <c r="AZ104" s="6"/>
+      <c r="AX104" s="36"/>
+      <c r="AY104" s="36"/>
+      <c r="AZ104" s="36"/>
       <c r="BA104" s="17"/>
       <c r="BB104" s="17"/>
       <c r="BC104" s="17"/>
       <c r="BD104" s="17"/>
-      <c r="BE104" s="6"/>
-      <c r="BF104" s="6"/>
-      <c r="BG104" s="6"/>
-      <c r="BH104" s="6"/>
+      <c r="BE104" s="36"/>
+      <c r="BF104" s="36"/>
+      <c r="BG104" s="36"/>
+      <c r="BH104" s="36"/>
       <c r="BI104" s="17"/>
       <c r="BJ104" s="17"/>
-      <c r="BK104" s="6"/>
-      <c r="BL104" s="14"/>
+      <c r="BK104" s="36"/>
+      <c r="BL104" s="38"/>
       <c r="BM104" s="15"/>
       <c r="BN104" s="15"/>
       <c r="BO104" s="15"/>
       <c r="BP104" s="15"/>
       <c r="BQ104" s="15"/>
       <c r="BR104" s="15"/>
-      <c r="BS104" s="6"/>
+      <c r="BS104" s="36"/>
       <c r="BT104" s="15"/>
-      <c r="BU104" s="14"/>
+      <c r="BU104" s="38"/>
       <c r="BV104" s="15"/>
       <c r="BW104" s="16"/>
-      <c r="BX104" s="6"/>
+      <c r="BX104" s="36"/>
       <c r="BY104" s="15"/>
       <c r="BZ104" s="15"/>
       <c r="CA104" s="15"/>
       <c r="CB104" s="16"/>
-      <c r="CC104" s="14"/>
-      <c r="CD104" s="14"/>
+      <c r="CC104" s="38"/>
+      <c r="CD104" s="38"/>
       <c r="CE104" s="16"/>
       <c r="CF104" s="17"/>
       <c r="CG104" s="17"/>
@@ -12101,54 +12175,54 @@
       <c r="CQ104" s="16"/>
       <c r="CR104" s="16"/>
       <c r="CS104" s="16"/>
-      <c r="CT104" s="6"/>
+      <c r="CT104" s="36"/>
       <c r="CU104" s="17"/>
-      <c r="CV104" s="14"/>
-      <c r="CW104" s="6"/>
-      <c r="CX104" s="14"/>
+      <c r="CV104" s="38"/>
+      <c r="CW104" s="36"/>
+      <c r="CX104" s="38"/>
       <c r="CY104" s="15"/>
-      <c r="CZ104" s="14"/>
-      <c r="DA104" s="14"/>
-      <c r="DB104" s="14"/>
-      <c r="DC104" s="6"/>
-      <c r="DD104" s="14"/>
-      <c r="DE104" s="14"/>
-      <c r="DF104" s="6"/>
-      <c r="DG104" s="6"/>
-      <c r="DH104" s="6"/>
-      <c r="DI104" s="6"/>
-      <c r="DJ104" s="6"/>
-      <c r="DK104" s="14"/>
-      <c r="DL104" s="14"/>
-      <c r="DM104" s="14"/>
-      <c r="DN104" s="6"/>
-      <c r="DO104" s="6"/>
-      <c r="DP104" s="14"/>
-      <c r="DQ104" s="14"/>
-      <c r="DR104" s="6"/>
-      <c r="DS104" s="6"/>
+      <c r="CZ104" s="38"/>
+      <c r="DA104" s="38"/>
+      <c r="DB104" s="38"/>
+      <c r="DC104" s="36"/>
+      <c r="DD104" s="38"/>
+      <c r="DE104" s="38"/>
+      <c r="DF104" s="36"/>
+      <c r="DG104" s="36"/>
+      <c r="DH104" s="36"/>
+      <c r="DI104" s="36"/>
+      <c r="DJ104" s="36"/>
+      <c r="DK104" s="38"/>
+      <c r="DL104" s="38"/>
+      <c r="DM104" s="38"/>
+      <c r="DN104" s="36"/>
+      <c r="DO104" s="36"/>
+      <c r="DP104" s="38"/>
+      <c r="DQ104" s="38"/>
+      <c r="DR104" s="36"/>
+      <c r="DS104" s="36"/>
       <c r="DT104" s="15"/>
       <c r="DU104" s="15"/>
       <c r="DV104" s="16"/>
-      <c r="DW104" s="6"/>
-      <c r="DX104" s="14"/>
+      <c r="DW104" s="36"/>
+      <c r="DX104" s="38"/>
       <c r="DY104" s="15"/>
       <c r="DZ104" s="16"/>
       <c r="EA104" s="16"/>
-      <c r="EB104" s="6"/>
+      <c r="EB104" s="36"/>
     </row>
     <row r="105" spans="1:132" s="5" customFormat="1" ht="38.25">
       <c r="A105" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>162</v>
@@ -12157,7 +12231,7 @@
         <v>161</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>166</v>
@@ -12193,23 +12267,21 @@
         <v>224</v>
       </c>
       <c r="S105" s="37" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="T105" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="U105" s="13" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="V105" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="W105" s="13" t="s">
-        <v>147</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="W105" s="13"/>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
-      <c r="Z105" s="6"/>
+      <c r="Z105" s="36"/>
       <c r="AH105" s="13"/>
       <c r="AJ105" s="13"/>
       <c r="AN105" s="13"/>
@@ -12276,6 +12348,712 @@
       <c r="EA105" s="4"/>
       <c r="EB105" s="4"/>
     </row>
+    <row r="106" spans="1:132">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:132" s="8" customFormat="1">
+      <c r="A107" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="7"/>
+      <c r="AI107" s="7"/>
+      <c r="AJ107" s="7"/>
+      <c r="AK107" s="7"/>
+      <c r="AL107" s="7"/>
+      <c r="AM107" s="7"/>
+      <c r="AN107" s="7"/>
+      <c r="AO107" s="7"/>
+      <c r="AP107" s="7"/>
+      <c r="AQ107" s="7"/>
+      <c r="AR107" s="7"/>
+      <c r="AS107" s="7"/>
+      <c r="AT107" s="7"/>
+      <c r="AU107" s="7"/>
+      <c r="AV107" s="7"/>
+      <c r="AW107" s="7"/>
+      <c r="AX107" s="7"/>
+      <c r="AY107" s="7"/>
+      <c r="AZ107" s="7"/>
+      <c r="BA107" s="7"/>
+      <c r="BB107" s="7"/>
+      <c r="BC107" s="7"/>
+      <c r="BD107" s="7"/>
+      <c r="BE107" s="7"/>
+      <c r="BF107" s="7"/>
+      <c r="BG107" s="7"/>
+      <c r="BH107" s="7"/>
+      <c r="BI107" s="7"/>
+      <c r="BJ107" s="7"/>
+      <c r="BK107" s="7"/>
+      <c r="BM107" s="7"/>
+      <c r="BN107" s="7"/>
+      <c r="BO107" s="7"/>
+      <c r="BP107" s="7"/>
+      <c r="BQ107" s="7"/>
+      <c r="BR107" s="7"/>
+      <c r="BS107" s="7"/>
+      <c r="BT107" s="7"/>
+      <c r="BV107" s="7"/>
+      <c r="BX107" s="7"/>
+      <c r="BY107" s="7"/>
+      <c r="BZ107" s="7"/>
+      <c r="CA107" s="7"/>
+      <c r="CB107" s="7"/>
+      <c r="CL107" s="7"/>
+      <c r="CN107" s="7"/>
+      <c r="CO107" s="7"/>
+      <c r="CP107" s="7"/>
+      <c r="CQ107" s="7"/>
+      <c r="CR107" s="7"/>
+      <c r="CS107" s="7"/>
+      <c r="CT107" s="7"/>
+      <c r="CU107" s="7"/>
+    </row>
+    <row r="108" spans="1:132" s="10" customFormat="1">
+      <c r="A108" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M108" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O108" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P108" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q108" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="R108" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S108" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="T108" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="U108" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="16"/>
+      <c r="AC108" s="16"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="14"/>
+      <c r="AF108" s="14"/>
+      <c r="AG108" s="14"/>
+      <c r="AH108" s="6"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="6"/>
+      <c r="AK108" s="14"/>
+      <c r="AL108" s="14"/>
+      <c r="AM108" s="17"/>
+      <c r="AN108" s="6"/>
+      <c r="AO108" s="6"/>
+      <c r="AP108" s="6"/>
+      <c r="AQ108" s="6"/>
+      <c r="AR108" s="17"/>
+      <c r="AS108" s="6"/>
+      <c r="AT108" s="6"/>
+      <c r="AU108" s="6"/>
+      <c r="AV108" s="17"/>
+      <c r="AW108" s="17"/>
+      <c r="AX108" s="6"/>
+      <c r="AY108" s="6"/>
+      <c r="AZ108" s="6"/>
+      <c r="BA108" s="17"/>
+      <c r="BB108" s="17"/>
+      <c r="BC108" s="17"/>
+      <c r="BD108" s="17"/>
+      <c r="BE108" s="6"/>
+      <c r="BF108" s="6"/>
+      <c r="BG108" s="6"/>
+      <c r="BH108" s="6"/>
+      <c r="BI108" s="17"/>
+      <c r="BJ108" s="17"/>
+      <c r="BK108" s="6"/>
+      <c r="BL108" s="14"/>
+      <c r="BM108" s="15"/>
+      <c r="BN108" s="15"/>
+      <c r="BO108" s="15"/>
+      <c r="BP108" s="15"/>
+      <c r="BQ108" s="15"/>
+      <c r="BR108" s="15"/>
+      <c r="BS108" s="6"/>
+      <c r="BT108" s="15"/>
+      <c r="BU108" s="14"/>
+      <c r="BV108" s="15"/>
+      <c r="BW108" s="16"/>
+      <c r="BX108" s="6"/>
+      <c r="BY108" s="15"/>
+      <c r="BZ108" s="15"/>
+      <c r="CA108" s="15"/>
+      <c r="CB108" s="16"/>
+      <c r="CC108" s="14"/>
+      <c r="CD108" s="14"/>
+      <c r="CE108" s="16"/>
+      <c r="CF108" s="17"/>
+      <c r="CG108" s="17"/>
+      <c r="CH108" s="17"/>
+      <c r="CI108" s="16"/>
+      <c r="CJ108" s="16"/>
+      <c r="CK108" s="16"/>
+      <c r="CL108" s="16"/>
+      <c r="CM108" s="16"/>
+      <c r="CN108" s="16"/>
+      <c r="CO108" s="16"/>
+      <c r="CP108" s="15"/>
+      <c r="CQ108" s="16"/>
+      <c r="CR108" s="16"/>
+      <c r="CS108" s="16"/>
+      <c r="CT108" s="6"/>
+      <c r="CU108" s="17"/>
+      <c r="CV108" s="14"/>
+      <c r="CW108" s="6"/>
+      <c r="CX108" s="14"/>
+      <c r="CY108" s="15"/>
+      <c r="CZ108" s="14"/>
+      <c r="DA108" s="14"/>
+      <c r="DB108" s="14"/>
+      <c r="DC108" s="6"/>
+      <c r="DD108" s="14"/>
+      <c r="DE108" s="14"/>
+      <c r="DF108" s="6"/>
+      <c r="DG108" s="6"/>
+      <c r="DH108" s="6"/>
+      <c r="DI108" s="6"/>
+      <c r="DJ108" s="6"/>
+      <c r="DK108" s="14"/>
+      <c r="DL108" s="14"/>
+      <c r="DM108" s="14"/>
+      <c r="DN108" s="6"/>
+      <c r="DO108" s="6"/>
+      <c r="DP108" s="14"/>
+      <c r="DQ108" s="14"/>
+      <c r="DR108" s="6"/>
+      <c r="DS108" s="6"/>
+      <c r="DT108" s="15"/>
+      <c r="DU108" s="15"/>
+      <c r="DV108" s="16"/>
+      <c r="DW108" s="6"/>
+      <c r="DX108" s="14"/>
+      <c r="DY108" s="15"/>
+      <c r="DZ108" s="16"/>
+      <c r="EA108" s="16"/>
+      <c r="EB108" s="6"/>
+    </row>
+    <row r="109" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A109" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N109" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P109" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q109" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="S109" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="U109" s="13"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="13"/>
+      <c r="X109" s="13"/>
+      <c r="Y109" s="13"/>
+      <c r="Z109" s="6"/>
+      <c r="AH109" s="13"/>
+      <c r="AJ109" s="13"/>
+      <c r="AN109" s="13"/>
+      <c r="AO109" s="13"/>
+      <c r="AP109" s="13"/>
+      <c r="AR109" s="13"/>
+      <c r="AS109" s="13"/>
+      <c r="AT109" s="13"/>
+      <c r="AU109" s="13"/>
+      <c r="AV109" s="13"/>
+      <c r="AW109" s="13"/>
+      <c r="AX109" s="13"/>
+      <c r="AY109" s="13"/>
+      <c r="AZ109" s="13"/>
+      <c r="BA109" s="13"/>
+      <c r="BB109" s="13"/>
+      <c r="BC109" s="13"/>
+      <c r="BD109" s="13"/>
+      <c r="BE109" s="13"/>
+      <c r="BF109" s="13"/>
+      <c r="BG109" s="13"/>
+      <c r="BH109" s="13"/>
+      <c r="BI109" s="13"/>
+      <c r="BJ109" s="13"/>
+      <c r="BK109" s="13"/>
+      <c r="BM109" s="4"/>
+      <c r="BN109" s="4"/>
+      <c r="BO109" s="4"/>
+      <c r="BP109" s="4"/>
+      <c r="BQ109" s="4"/>
+      <c r="BR109" s="4"/>
+      <c r="BS109" s="13"/>
+      <c r="BT109" s="4"/>
+      <c r="BV109" s="4"/>
+      <c r="BX109" s="13"/>
+      <c r="BY109" s="4"/>
+      <c r="BZ109" s="4"/>
+      <c r="CA109" s="4"/>
+      <c r="CB109" s="20"/>
+      <c r="CC109" s="13"/>
+      <c r="CE109" s="20"/>
+      <c r="CF109" s="13"/>
+      <c r="CG109" s="13"/>
+      <c r="CH109" s="13"/>
+      <c r="CK109" s="4"/>
+      <c r="CL109" s="4"/>
+      <c r="CM109" s="4"/>
+      <c r="CN109" s="4"/>
+      <c r="CO109" s="4"/>
+      <c r="CP109" s="4"/>
+      <c r="CQ109" s="4"/>
+      <c r="CR109" s="4"/>
+      <c r="CS109" s="4"/>
+      <c r="CT109" s="4"/>
+      <c r="CU109" s="20"/>
+      <c r="DS109" s="4"/>
+      <c r="DT109" s="4"/>
+      <c r="DU109" s="4"/>
+      <c r="DV109" s="4"/>
+      <c r="DW109" s="4"/>
+      <c r="DX109" s="4"/>
+      <c r="DY109" s="4"/>
+      <c r="DZ109" s="4"/>
+      <c r="EA109" s="4"/>
+      <c r="EB109" s="4"/>
+    </row>
+    <row r="110" spans="1:132">
+      <c r="A110" s="12"/>
+    </row>
+    <row r="111" spans="1:132">
+      <c r="A111" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:132" s="10" customFormat="1">
+      <c r="A112" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N112" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O112" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P112" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q112" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="R112" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S112" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="T112" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="U112" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="16"/>
+      <c r="AC112" s="16"/>
+      <c r="AD112" s="14"/>
+      <c r="AE112" s="14"/>
+      <c r="AF112" s="14"/>
+      <c r="AG112" s="14"/>
+      <c r="AH112" s="6"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="6"/>
+      <c r="AK112" s="14"/>
+      <c r="AL112" s="14"/>
+      <c r="AM112" s="17"/>
+      <c r="AN112" s="6"/>
+      <c r="AO112" s="6"/>
+      <c r="AP112" s="6"/>
+      <c r="AQ112" s="6"/>
+      <c r="AR112" s="17"/>
+      <c r="AS112" s="6"/>
+      <c r="AT112" s="6"/>
+      <c r="AU112" s="6"/>
+      <c r="AV112" s="17"/>
+      <c r="AW112" s="17"/>
+      <c r="AX112" s="6"/>
+      <c r="AY112" s="6"/>
+      <c r="AZ112" s="6"/>
+      <c r="BA112" s="17"/>
+      <c r="BB112" s="17"/>
+      <c r="BC112" s="17"/>
+      <c r="BD112" s="17"/>
+      <c r="BE112" s="6"/>
+      <c r="BF112" s="6"/>
+      <c r="BG112" s="6"/>
+      <c r="BH112" s="6"/>
+      <c r="BI112" s="17"/>
+      <c r="BJ112" s="17"/>
+      <c r="BK112" s="6"/>
+      <c r="BL112" s="14"/>
+      <c r="BM112" s="15"/>
+      <c r="BN112" s="15"/>
+      <c r="BO112" s="15"/>
+      <c r="BP112" s="15"/>
+      <c r="BQ112" s="15"/>
+      <c r="BR112" s="15"/>
+      <c r="BS112" s="6"/>
+      <c r="BT112" s="15"/>
+      <c r="BU112" s="14"/>
+      <c r="BV112" s="15"/>
+      <c r="BW112" s="16"/>
+      <c r="BX112" s="6"/>
+      <c r="BY112" s="15"/>
+      <c r="BZ112" s="15"/>
+      <c r="CA112" s="15"/>
+      <c r="CB112" s="16"/>
+      <c r="CC112" s="14"/>
+      <c r="CD112" s="14"/>
+      <c r="CE112" s="16"/>
+      <c r="CF112" s="17"/>
+      <c r="CG112" s="17"/>
+      <c r="CH112" s="17"/>
+      <c r="CI112" s="16"/>
+      <c r="CJ112" s="16"/>
+      <c r="CK112" s="16"/>
+      <c r="CL112" s="16"/>
+      <c r="CM112" s="16"/>
+      <c r="CN112" s="16"/>
+      <c r="CO112" s="16"/>
+      <c r="CP112" s="15"/>
+      <c r="CQ112" s="16"/>
+      <c r="CR112" s="16"/>
+      <c r="CS112" s="16"/>
+      <c r="CT112" s="6"/>
+      <c r="CU112" s="17"/>
+      <c r="CV112" s="14"/>
+      <c r="CW112" s="6"/>
+      <c r="CX112" s="14"/>
+      <c r="CY112" s="15"/>
+      <c r="CZ112" s="14"/>
+      <c r="DA112" s="14"/>
+      <c r="DB112" s="14"/>
+      <c r="DC112" s="6"/>
+      <c r="DD112" s="14"/>
+      <c r="DE112" s="14"/>
+      <c r="DF112" s="6"/>
+      <c r="DG112" s="6"/>
+      <c r="DH112" s="6"/>
+      <c r="DI112" s="6"/>
+      <c r="DJ112" s="6"/>
+      <c r="DK112" s="14"/>
+      <c r="DL112" s="14"/>
+      <c r="DM112" s="14"/>
+      <c r="DN112" s="6"/>
+      <c r="DO112" s="6"/>
+      <c r="DP112" s="14"/>
+      <c r="DQ112" s="14"/>
+      <c r="DR112" s="6"/>
+      <c r="DS112" s="6"/>
+      <c r="DT112" s="15"/>
+      <c r="DU112" s="15"/>
+      <c r="DV112" s="16"/>
+      <c r="DW112" s="6"/>
+      <c r="DX112" s="14"/>
+      <c r="DY112" s="15"/>
+      <c r="DZ112" s="16"/>
+      <c r="EA112" s="16"/>
+      <c r="EB112" s="6"/>
+    </row>
+    <row r="113" spans="1:132" s="5" customFormat="1" ht="38.25">
+      <c r="A113" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q113" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R113" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="S113" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="T113" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="V113" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W113" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X113" s="13"/>
+      <c r="Y113" s="13"/>
+      <c r="Z113" s="6"/>
+      <c r="AH113" s="13"/>
+      <c r="AJ113" s="13"/>
+      <c r="AN113" s="13"/>
+      <c r="AO113" s="13"/>
+      <c r="AP113" s="13"/>
+      <c r="AR113" s="13"/>
+      <c r="AS113" s="13"/>
+      <c r="AT113" s="13"/>
+      <c r="AU113" s="13"/>
+      <c r="AV113" s="13"/>
+      <c r="AW113" s="13"/>
+      <c r="AX113" s="13"/>
+      <c r="AY113" s="13"/>
+      <c r="AZ113" s="13"/>
+      <c r="BA113" s="13"/>
+      <c r="BB113" s="13"/>
+      <c r="BC113" s="13"/>
+      <c r="BD113" s="13"/>
+      <c r="BE113" s="13"/>
+      <c r="BF113" s="13"/>
+      <c r="BG113" s="13"/>
+      <c r="BH113" s="13"/>
+      <c r="BI113" s="13"/>
+      <c r="BJ113" s="13"/>
+      <c r="BK113" s="13"/>
+      <c r="BM113" s="4"/>
+      <c r="BN113" s="4"/>
+      <c r="BO113" s="4"/>
+      <c r="BP113" s="4"/>
+      <c r="BQ113" s="4"/>
+      <c r="BR113" s="4"/>
+      <c r="BS113" s="13"/>
+      <c r="BT113" s="4"/>
+      <c r="BV113" s="4"/>
+      <c r="BX113" s="13"/>
+      <c r="BY113" s="4"/>
+      <c r="BZ113" s="4"/>
+      <c r="CA113" s="4"/>
+      <c r="CB113" s="20"/>
+      <c r="CC113" s="13"/>
+      <c r="CE113" s="20"/>
+      <c r="CF113" s="13"/>
+      <c r="CG113" s="13"/>
+      <c r="CH113" s="13"/>
+      <c r="CK113" s="4"/>
+      <c r="CL113" s="4"/>
+      <c r="CM113" s="4"/>
+      <c r="CN113" s="4"/>
+      <c r="CO113" s="4"/>
+      <c r="CP113" s="4"/>
+      <c r="CQ113" s="4"/>
+      <c r="CR113" s="4"/>
+      <c r="CS113" s="4"/>
+      <c r="CT113" s="4"/>
+      <c r="CU113" s="20"/>
+      <c r="DS113" s="4"/>
+      <c r="DT113" s="4"/>
+      <c r="DU113" s="4"/>
+      <c r="DV113" s="4"/>
+      <c r="DW113" s="4"/>
+      <c r="DX113" s="4"/>
+      <c r="DY113" s="4"/>
+      <c r="DZ113" s="4"/>
+      <c r="EA113" s="4"/>
+      <c r="EB113" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
